--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.546</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.34</v>
+        <v>18.893</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1579695069.37</v>
+        <v>-0.137</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1064320.574</v>
+        <v>28.558</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.835</v>
+        <v>14.988</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1676024.899949927</v>
+        <v>23.85333253128412</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1919891.301035</v>
+        <v>23.94306260543404</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-712838.0871411278</v>
+        <v>23.96349805434777</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1944898.943109872</v>
+        <v>23.85175726184262</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1353017.581319053</v>
+        <v>23.91603509326736</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-488144.9798573744</v>
+        <v>23.93793998552772</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1992490.262353576</v>
+        <v>23.90507341756315</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-490372.8269174236</v>
+        <v>23.95568323103386</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>249611.1597390304</v>
+        <v>23.97169564249046</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1062220.290864464</v>
+        <v>23.95026421825776</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-861882.6357200961</v>
+        <v>23.98081813550982</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-661354.0116470812</v>
+        <v>23.99864967884375</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-541628.8026774834</v>
+        <v>23.85132444745342</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-411066.5127340106</v>
+        <v>23.94006527679137</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>834260.6230136468</v>
+        <v>23.97069974459578</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-557060.6085756271</v>
+        <v>23.81755729144383</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-267769.7902477176</v>
+        <v>23.94932821063495</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>301359.6905573893</v>
+        <v>23.98486523786008</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1052028.901821553</v>
+        <v>23.79116443237715</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-553954.6646611468</v>
+        <v>23.89143126880276</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-287159.6173636075</v>
+        <v>23.92970051098329</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1085123.936785395</v>
+        <v>23.87091364754854</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-101953.3159907492</v>
+        <v>23.94974983222152</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1050576.96280318</v>
+        <v>23.87259150953748</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-818237.8160448455</v>
+        <v>23.98105460504848</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-310256.232182315</v>
+        <v>24.00073538347366</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1389469.905645634</v>
+        <v>23.88333003666411</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-366228.3254018424</v>
+        <v>23.96552014188503</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>84833.9480764637</v>
+        <v>23.98609181181701</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1606154.319484804</v>
+        <v>23.94340131868011</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>191370.20187191</v>
+        <v>24.00864451720557</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>449104.0239673588</v>
+        <v>24.02343751614728</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>141545.4154832686</v>
+        <v>24.02558303616133</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>363165.0843254715</v>
+        <v>24.06161518100437</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>589954.015173138</v>
+        <v>24.07961309284434</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-185200.3800728312</v>
+        <v>23.90722308332325</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>546956.1796595778</v>
+        <v>24.02061643122324</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1219373.196508432</v>
+        <v>24.04944332431562</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-344223.8997132583</v>
+        <v>23.85563995662046</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>383357.0204629405</v>
+        <v>24.01411829980152</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>694287.6015499057</v>
+        <v>24.04985559488793</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-731272.0650890551</v>
+        <v>23.84643512309674</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>245211.904156517</v>
+        <v>23.97259884651872</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>523263.1399332464</v>
+        <v>24.01045000541769</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-516917.5223298979</v>
+        <v>23.93545700410373</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1013877.56592554</v>
+        <v>24.03540974248115</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-1729182.980560078</v>
+        <v>23.8661953267124</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-1261672.673331595</v>
+        <v>23.97458824069775</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-649489.7667719162</v>
+        <v>23.99419175376905</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-1722433.198045227</v>
+        <v>23.87988402178226</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-551424.6688556803</v>
+        <v>23.96322272721938</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>90013.9312157635</v>
+        <v>23.98370984512552</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-1741009.170394622</v>
+        <v>23.93874847705527</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221404.774038455</v>
+        <v>24.00502656185137</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>710924.3256469852</v>
+        <v>24.019826630192</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>255856.4434080613</v>
+        <v>24.02247844632636</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>458918.7990301443</v>
+        <v>24.05839465869826</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>795665.3557885991</v>
+        <v>24.0766489921044</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-1069347.321902866</v>
+        <v>23.90420367332455</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>90441.99686502974</v>
+        <v>24.01920256597981</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>887631.8670416052</v>
+        <v>24.04782708085646</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-508698.1021121221</v>
+        <v>23.84711037250086</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>234012.8716423332</v>
+        <v>24.00527856100085</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>671621.4835542458</v>
+        <v>24.04084469381529</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-832470.9832578853</v>
+        <v>23.84266746012503</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>67843.85260505679</v>
+        <v>23.97009741617577</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>567264.7884294849</v>
+        <v>24.00777259169973</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-581959.7849044357</v>
+        <v>23.92986257935869</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>895166.3451913825</v>
+        <v>24.03099514890627</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-3457689.55749439</v>
+        <v>23.87738946999599</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-2878470.498558404</v>
+        <v>23.96419303310412</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-1250442.842784361</v>
+        <v>23.9838496201606</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-2946167.992974783</v>
+        <v>23.88723206697764</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-1372463.253968888</v>
+        <v>23.95229299441307</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>71675.63858304644</v>
+        <v>23.97334487931942</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-3294326.744499477</v>
+        <v>23.93344525942644</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-573232.9283527514</v>
+        <v>23.98498910454968</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>823681.2768662025</v>
+        <v>24.00055347119807</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-313083.6006761079</v>
+        <v>23.98909643579881</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-95489.68312720762</v>
+        <v>24.01846295376114</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>716580.5730704654</v>
+        <v>24.03641319177673</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1763400.61205611</v>
+        <v>23.89452549336834</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-580485.183151843</v>
+        <v>23.98429202936884</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1118060.952784642</v>
+        <v>24.01359511451936</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-1041232.498665253</v>
+        <v>23.85233771949695</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-57262.03270520172</v>
+        <v>23.97934849038443</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>889134.0226612015</v>
+        <v>24.01335650843377</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1321990.68351439</v>
+        <v>23.84425695086157</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-127473.6185323516</v>
+        <v>23.9445196637455</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>688645.860275613</v>
+        <v>23.98114368656726</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1106505.41152745</v>
+        <v>23.91360587684798</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>786382.5318780656</v>
+        <v>23.9928887468545</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>249631.4783118022</v>
+        <v>23.97841203459908</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-121333.5632079873</v>
+        <v>23.95212668304319</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>275693.4240677858</v>
+        <v>24.00919594014613</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>458067.7043083268</v>
+        <v>24.04046723400428</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-411187.3082278424</v>
+        <v>23.81501489489214</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14706.650199202</v>
+        <v>23.96109613285638</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>373348.4793571446</v>
+        <v>24.00942389778881</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-455103.5999434178</v>
+        <v>23.82053107603897</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37423.18421449663</v>
+        <v>23.97489137819645</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>638046.9138435184</v>
+        <v>24.0194689582109</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1017689.753895716</v>
+        <v>23.79150838004485</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-294077.6534267342</v>
+        <v>23.91480268959635</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>102750.0169872405</v>
+        <v>23.96336041759118</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-885617.4227776993</v>
+        <v>23.89163955401409</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>390646.1182871232</v>
+        <v>23.98946302865246</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>964756.3295599162</v>
+        <v>24.02636146379634</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>335336.9796902836</v>
+        <v>24.02730011429991</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>786885.1356086632</v>
+        <v>24.09202959210234</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>808120.0090254243</v>
+        <v>24.13169514251365</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-466243.6465069478</v>
+        <v>23.8552384312607</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>177321.1416710016</v>
+        <v>24.03322071154707</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>576394.2762527949</v>
+        <v>24.09446811980281</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1322851.115132666</v>
+        <v>24.06355450706137</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>639381.4682633678</v>
+        <v>24.07234533040906</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>894202.6467556027</v>
+        <v>24.13786858440508</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1005812.324516183</v>
+        <v>24.17041116871853</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-107121.5753841182</v>
+        <v>23.90911334039401</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>904238.0956712367</v>
+        <v>24.09151486258346</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1030604.377639418</v>
+        <v>24.13876524170337</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-216147.7727555677</v>
+        <v>23.88180844604438</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>779322.6052904765</v>
+        <v>24.0662763285685</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1009279.554297305</v>
+        <v>24.11082921440872</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-676245.2355437761</v>
+        <v>23.87387455055823</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>604789.3412008362</v>
+        <v>24.02663935596486</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>798194.9608215799</v>
+        <v>24.07450712179901</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-373224.3993430078</v>
+        <v>23.98412328847133</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1555441.119777168</v>
+        <v>24.10604367296772</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1850588.88934891</v>
+        <v>24.14218231413421</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1217413.897872556</v>
+        <v>24.18872967267045</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1419670.597207087</v>
+        <v>24.26263090455548</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1507956.684521288</v>
+        <v>24.30367043736603</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>50979.87408658707</v>
+        <v>23.98632217247439</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1255349.423659385</v>
+        <v>24.20548822845952</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1318975.031401019</v>
+        <v>24.26521757451972</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1474554.852397041</v>
+        <v>24.05910340116323</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>516714.1636413911</v>
+        <v>24.06808634034871</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>727900.9466877229</v>
+        <v>24.13294922502282</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1001812.618481066</v>
+        <v>24.16579360116576</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-284504.8615018391</v>
+        <v>23.90542720176391</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>792075.6228095919</v>
+        <v>24.08937513001064</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1006549.247821112</v>
+        <v>24.13638813369177</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-408703.9224244098</v>
+        <v>23.8796243357939</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>713913.1902078573</v>
+        <v>24.06343950546438</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>997962.6428559566</v>
+        <v>24.10744188242503</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-725567.0045471307</v>
+        <v>23.87770236952218</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>647307.7740130748</v>
+        <v>24.0314227708153</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>941737.2896349906</v>
+        <v>24.07868273959909</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-380998.5520982426</v>
+        <v>23.98522619611745</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1674522.988775631</v>
+        <v>24.10807590151821</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2111766.122340856</v>
+        <v>24.1438306450784</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1244950.079031441</v>
+        <v>24.19184985235326</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1437725.234798881</v>
+        <v>24.26492450719536</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1672136.329952012</v>
+        <v>24.30596695627414</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-117687.4865201423</v>
+        <v>23.99069092633947</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1274127.46930921</v>
+        <v>24.21095808731449</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1351297.064052796</v>
+        <v>24.26990886265007</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1808466.610662683</v>
+        <v>24.02055380898485</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>83600.07801818123</v>
+        <v>24.00692960292762</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>436027.3056084713</v>
+        <v>24.06072868272394</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>933800.6257066055</v>
+        <v>24.09178925385877</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-456725.6078143169</v>
+        <v>23.87689466343864</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>846099.0778276894</v>
+        <v>24.02210976807423</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1367202.27655534</v>
+        <v>24.06841203948271</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-709082.4965904003</v>
+        <v>23.87573211459799</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>822803.6947113227</v>
+        <v>24.02378041487393</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1653204.118680398</v>
+        <v>24.06576345934017</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1131872.700619851</v>
+        <v>23.86859731038314</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>719353.5867693075</v>
+        <v>23.99039878862253</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1421276.46234609</v>
+        <v>24.0361013760233</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-759254.6373641592</v>
+        <v>23.95524979717907</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1905833.321097658</v>
+        <v>24.05230400947625</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2915284.645988134</v>
+        <v>24.0872375822799</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1435571.874617646</v>
+        <v>24.10414361217473</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1865552.594175948</v>
+        <v>24.16500680310952</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2210241.013212502</v>
+        <v>24.20360400204586</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-268514.7265299186</v>
+        <v>23.94186127503301</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1659943.948458727</v>
+        <v>24.11687981841632</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2026774.28758082</v>
+        <v>24.17460099429236</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-569476.990214462</v>
+        <v>23.80929133494307</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1540786.091705692</v>
+        <v>23.91721773803773</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-1004784.196614841</v>
+        <v>23.94383319205534</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1304950.62330351</v>
+        <v>23.80518785296571</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-1808872.60168779</v>
+        <v>23.88013915643751</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-1569117.71180057</v>
+        <v>23.90887387901566</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-1301574.244199342</v>
+        <v>23.87009327876585</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-1403172.937022666</v>
+        <v>23.92887850276695</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-1172149.503500877</v>
+        <v>23.94994613326076</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-1202155.987565113</v>
+        <v>23.91936378664533</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-993480.8984110992</v>
+        <v>23.95518023319791</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-966116.2096100582</v>
+        <v>23.97977479348753</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-430173.2168650096</v>
+        <v>23.80318251380107</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-869235.8468169497</v>
+        <v>23.90672577825373</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-931982.724077358</v>
+        <v>23.94752635595588</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-308977.8848705385</v>
+        <v>23.73960404762816</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-463473.0106587371</v>
+        <v>23.89869569679617</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-10754.24077167488</v>
+        <v>23.94531931631212</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-625183.9754908415</v>
+        <v>23.70194803363602</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-701122.8536617084</v>
+        <v>23.8202238849133</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-420023.1348913706</v>
+        <v>23.87071241689077</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-648882.6774286909</v>
+        <v>23.79979180304563</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-464602.985954896</v>
+        <v>23.89245775296392</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-537350.4536136085</v>
+        <v>23.83532924393407</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-1117044.793705463</v>
+        <v>23.96637519749371</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-875555.3599383283</v>
+        <v>23.99225929460458</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-1050893.704075365</v>
+        <v>23.84708033401163</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-1189564.794506831</v>
+        <v>23.94403587961218</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-1066774.270340194</v>
+        <v>23.97134500675599</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-1207907.808089715</v>
+        <v>23.92015589185219</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-998523.6374328266</v>
+        <v>23.99690670535723</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-923348.2691638917</v>
+        <v>24.01664829807779</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-380579.1348478238</v>
+        <v>24.01649648479052</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-108800.8363747467</v>
+        <v>24.05902508622926</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-123485.2722244332</v>
+        <v>24.08406116503452</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-162570.6354721838</v>
+        <v>23.87667969173086</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-98921.83948418332</v>
+        <v>24.01051516184408</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-358673.1215742966</v>
+        <v>24.04942857033687</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-281714.2430009997</v>
+        <v>23.78863251309625</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-124396.709134679</v>
+        <v>23.98074852271169</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>201595.6997882431</v>
+        <v>24.0279937987923</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-418233.2037444355</v>
+        <v>23.77295737302713</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-165751.2024022875</v>
+        <v>23.92314088939194</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>165907.3316890388</v>
+        <v>23.97352438316922</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-336454.2725793149</v>
+        <v>23.88206923490628</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>231411.8425093618</v>
+        <v>24.00073651044927</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1117018.603556078</v>
+        <v>23.82833481997517</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1520690.990039368</v>
+        <v>23.95946402382024</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-1161819.49525207</v>
+        <v>23.98528504318308</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1438548.177701421</v>
+        <v>23.84396824404543</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-1448985.026701149</v>
+        <v>23.94257431285255</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-1155801.787561464</v>
+        <v>23.96980795060273</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-1567109.331533831</v>
+        <v>23.91557753609745</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-1217203.835266461</v>
+        <v>23.99379883213704</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-934702.5443471572</v>
+        <v>24.01357791295981</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-507211.9572190923</v>
+        <v>24.01428515340697</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-218690.376517805</v>
+        <v>24.05676156137512</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-195116.5190018044</v>
+        <v>24.08209217699374</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-808416.472897178</v>
+        <v>23.87431455353524</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-410403.7352289745</v>
+        <v>24.01044936178508</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-577538.8487105994</v>
+        <v>24.04912780672108</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-489069.9706269284</v>
+        <v>23.78011851921009</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-332664.7658434138</v>
+        <v>23.97207943773704</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>126172.7981872375</v>
+        <v>24.01914052229987</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-600643.506557505</v>
+        <v>23.77073155926275</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-410220.648664255</v>
+        <v>23.92278659406356</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>119795.5757128538</v>
+        <v>23.9729741757408</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-564090.1077826872</v>
+        <v>23.87759634354686</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-47537.85552751496</v>
+        <v>23.99797683667603</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-1922822.674731954</v>
+        <v>23.84240555375735</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-2453951.553853444</v>
+        <v>23.94721426308563</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1712414.648027784</v>
+        <v>23.97288701823522</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-2259957.932835155</v>
+        <v>23.85314322090511</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-2215912.282755783</v>
+        <v>23.92975488162118</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-1711620.568188962</v>
+        <v>23.95743441861004</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-2540657.751648435</v>
+        <v>23.90930751103033</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-1967686.319261228</v>
+        <v>23.96982296579934</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-1402227.993781365</v>
+        <v>23.99035074369167</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-1296337.43251607</v>
+        <v>23.97293995493502</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-965890.2917256311</v>
+        <v>24.00756664911236</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-854472.0033670198</v>
+        <v>24.03215821747221</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-1346166.804961834</v>
+        <v>23.86136404775797</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-1052542.895877782</v>
+        <v>23.96711274875078</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-1102298.590811708</v>
+        <v>24.00619203169626</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-680079.6911419991</v>
+        <v>23.78992455532642</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-507639.1145029053</v>
+        <v>23.94379938005985</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>306475.3130230119</v>
+        <v>23.98849182452119</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-840435.8860952427</v>
+        <v>23.77619174638017</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-609574.324219416</v>
+        <v>23.89537522654659</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>155343.1625101664</v>
+        <v>23.94375547591788</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-770907.701290024</v>
+        <v>23.86114041611088</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-159576.8812936336</v>
+        <v>23.95512061643097</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-143081.4499649079</v>
+        <v>23.93039820177193</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-364572.226738766</v>
+        <v>23.88710568784994</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>6681.716524316007</v>
+        <v>23.95554126265326</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>184329.9594368114</v>
+        <v>23.9982945822397</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-322576.6847778762</v>
+        <v>23.72486682032625</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-234874.8995951425</v>
+        <v>23.89781078938146</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-54973.28754038268</v>
+        <v>23.96279070044463</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-151800.830431945</v>
+        <v>23.74866603167824</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-142115.9338766574</v>
+        <v>23.93569611987125</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>127066.6680389025</v>
+        <v>23.99346970900324</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-513646.2052923655</v>
+        <v>23.70823872250944</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-419308.2687230936</v>
+        <v>23.85490716594804</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-293839.6208096018</v>
+        <v>23.91809267454444</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-486272.1942052287</v>
+        <v>23.83108477161655</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-76865.43664260801</v>
+        <v>23.94714962716706</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>122694.2400639573</v>
+        <v>23.99524454911317</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-72343.62412062343</v>
+        <v>23.98742093525516</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>250112.4664317078</v>
+        <v>24.06507385807635</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>322100.7621684839</v>
+        <v>24.11853161454287</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-166953.2235741746</v>
+        <v>23.78175069287103</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>6196.726743077839</v>
+        <v>23.99415282252961</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>71243.26065806385</v>
+        <v>24.07509047121422</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>560231.0095956408</v>
+        <v>24.03837540824205</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>186607.3108958046</v>
+        <v>24.03980967278433</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>499385.6658611797</v>
+        <v>24.11868084528696</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>627318.1106058076</v>
+        <v>24.16338265114945</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-30917.14538204695</v>
+        <v>23.84567669437902</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>457033.6041490241</v>
+        <v>24.0633956985676</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>540313.9387588581</v>
+        <v>24.12765398668938</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29251.51349983049</v>
+        <v>23.82802863178419</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>394560.7525818432</v>
+        <v>24.05231768638993</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>500847.1512183616</v>
+        <v>24.11043816913993</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-214324.077940111</v>
+        <v>23.81459129836795</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>264931.0688939026</v>
+        <v>23.99761258097718</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>344659.6685296216</v>
+        <v>24.06036319755995</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-26528.36410583875</v>
+        <v>23.94969479254182</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>841019.2976778975</v>
+        <v>24.09546630012009</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>945735.8653034233</v>
+        <v>24.14296419818854</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>674963.2269096387</v>
+        <v>24.19338795590713</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>853386.2756447161</v>
+        <v>24.28233923993345</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>948613.1133687053</v>
+        <v>24.33790492331595</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>293584.7220532547</v>
+        <v>23.95053784462795</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>845603.0649479767</v>
+        <v>24.21377453527554</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>786514.4326577522</v>
+        <v>24.29345489976689</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>517527.4522697838</v>
+        <v>24.0355949154199</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-23800.90849344245</v>
+        <v>24.03776686655698</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>292929.2297968476</v>
+        <v>24.11593126158424</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>548816.1737272051</v>
+        <v>24.16096166481258</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-208291.0571242568</v>
+        <v>23.84402545704717</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>320262.240275026</v>
+        <v>24.06407099064898</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>496883.6956502873</v>
+        <v>24.12802895914884</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-134085.6997658863</v>
+        <v>23.82753840897121</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>312471.9059679473</v>
+        <v>24.05125810481167</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>478335.877511517</v>
+        <v>24.10873183792729</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-292212.3888704518</v>
+        <v>23.82196014603883</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>244656.2601140138</v>
+        <v>24.00648267467001</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>416061.0079632887</v>
+        <v>24.06851029807468</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-113223.8695671388</v>
+        <v>23.95370260442655</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>833607.2069829525</v>
+        <v>24.10088911865155</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1058099.312396768</v>
+        <v>24.14794278654046</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>599470.767426397</v>
+        <v>24.20071584064526</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>808113.0368028079</v>
+        <v>24.28876238997588</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1007988.796669656</v>
+        <v>24.34428575137575</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>152773.7013883858</v>
+        <v>23.95908328019606</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>821965.5384004888</v>
+        <v>24.22410923996604</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>798050.5563001076</v>
+        <v>24.30283008151343</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>727643.6807441831</v>
+        <v>23.99178632406988</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-434881.4447028965</v>
+        <v>23.96595765205343</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-19956.43090684494</v>
+        <v>24.03067554990321</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>399391.805389992</v>
+        <v>24.07291248865448</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-371344.9388701796</v>
+        <v>23.81150715027649</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>210334.4194324547</v>
+        <v>23.98460493275468</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>557013.9464023423</v>
+        <v>24.04687187445499</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-258476.9055423195</v>
+        <v>23.82453632432611</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>295173.4583323032</v>
+        <v>24.00445024880289</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>767383.5578284842</v>
+        <v>24.05899263495033</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-514516.6819871438</v>
+        <v>23.81250072787299</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>156423.5465671606</v>
+        <v>23.95826893944573</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>539314.7633081299</v>
+        <v>24.01786816474286</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-350060.1680553783</v>
+        <v>23.91864180459755</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>792346.1485889904</v>
+        <v>24.0345450675815</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1325276.609603626</v>
+        <v>24.08018515989072</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>446499.6004661982</v>
+        <v>24.09393697614951</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>831692.3499456921</v>
+        <v>24.16715950671746</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1161515.54641889</v>
+        <v>24.2190299352866</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1644.666193849616</v>
+        <v>23.89937858344059</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>871151.9598942548</v>
+        <v>24.10936889376771</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>977056.8405618966</v>
+        <v>24.18576331415021</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-442649.1692926651</v>
+        <v>23.85846711037371</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-365881.1281284943</v>
+        <v>23.95110979062458</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-45540.61145056721</v>
+        <v>23.97391927617732</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1481809.053189809</v>
+        <v>23.85332331393282</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-922794.227066618</v>
+        <v>23.91811596461337</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-890450.6001536009</v>
+        <v>23.94261351098141</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-1280735.330741049</v>
+        <v>23.90895395632615</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-191376.9051304126</v>
+        <v>23.95971656254831</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-160624.814446436</v>
+        <v>23.97769791226171</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-255719.8839972102</v>
+        <v>23.95677334459596</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>299598.6238643847</v>
+        <v>23.98736373198359</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-6992.94903994259</v>
+        <v>24.00793810786809</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1369716.071851697</v>
+        <v>23.85398703018445</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-303318.5733581735</v>
+        <v>23.94413493162473</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-651427.8908085965</v>
+        <v>23.9782775408577</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-338553.2649336733</v>
+        <v>23.80981444603526</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-193919.1523088976</v>
+        <v>23.94627699178149</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>320932.2079704303</v>
+        <v>23.98634975519562</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-818990.0667559026</v>
+        <v>23.77614499461548</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-608808.3265955575</v>
+        <v>23.87808537743582</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-277709.1229910057</v>
+        <v>23.92137495273359</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-770288.0740766231</v>
+        <v>23.8598054244037</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-235238.3459016162</v>
+        <v>23.93961252244657</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-311287.4285947256</v>
+        <v>23.88207644595039</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>173186.1604577944</v>
+        <v>23.9946103068292</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>201442.9766000704</v>
+        <v>24.01669356504732</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1129909.905383036</v>
+        <v>23.89018026934522</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-178772.6737218231</v>
+        <v>23.97395146499874</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-221850.159967751</v>
+        <v>23.99711200111443</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1093030.689321819</v>
+        <v>23.95283584248854</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>317684.7102580233</v>
+        <v>24.01909078932269</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>216547.7331713554</v>
+        <v>24.03583889189101</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>532859.4436834625</v>
+        <v>24.04090522680931</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1155165.090099037</v>
+        <v>24.07724931627647</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>866975.425984143</v>
+        <v>24.0981010728388</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-831860.3054935189</v>
+        <v>23.91749525408081</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>714392.177976999</v>
+        <v>24.03382713063825</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>266778.2844124296</v>
+        <v>24.06614511452794</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-304456.2793676297</v>
+        <v>23.85374358020709</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>228351.171625371</v>
+        <v>24.01859798233745</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>602821.7505470891</v>
+        <v>24.05907433205816</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-577721.55538893</v>
+        <v>23.83853219789918</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>48580.25320832279</v>
+        <v>23.96795705371941</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>442717.2442021052</v>
+        <v>24.01101291856507</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-389623.8160832526</v>
+        <v>23.93185740193278</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>625238.4278264788</v>
+        <v>24.03405880321396</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-687589.2809721609</v>
+        <v>23.87494743094975</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-83784.05482877971</v>
+        <v>23.98753510907148</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>54388.4202115887</v>
+        <v>24.00954171815804</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1293161.489650706</v>
+        <v>23.88635799092342</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-288695.7143335207</v>
+        <v>23.97150999334498</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-159197.1078576726</v>
+        <v>23.99458748944722</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1146466.498922394</v>
+        <v>23.94776001866082</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>327587.5310280447</v>
+        <v>24.01525038578149</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>435842.7970598722</v>
+        <v>24.03201334013247</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>579393.56313217</v>
+        <v>24.03753565321504</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1190759.481203234</v>
+        <v>24.07383740526911</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>937703.2642967289</v>
+        <v>24.09494194327888</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1216455.338409021</v>
+        <v>23.91411902209516</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>582091.2652992746</v>
+        <v>24.03235544336373</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>223392.4971710677</v>
+        <v>24.06446523519222</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-478360.7803915509</v>
+        <v>23.84477516358251</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34443.16399377636</v>
+        <v>24.00947275885645</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>548764.652882905</v>
+        <v>24.04975640303261</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-726305.2773559541</v>
+        <v>23.83488930523422</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-192886.9624844757</v>
+        <v>23.9658748509989</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>415684.8779015812</v>
+        <v>24.00873130413494</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-559796.8605327136</v>
+        <v>23.92630412340036</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>375462.9099305123</v>
+        <v>24.02994150245928</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-1376985.418592419</v>
+        <v>23.88351675951601</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-653450.6374223011</v>
+        <v>23.9734462728945</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-103198.9284902515</v>
+        <v>23.99540619351352</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2071713.900501352</v>
+        <v>23.89113769937843</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-774646.6670634215</v>
+        <v>23.95726146095991</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-411214.2854211706</v>
+        <v>23.98082880572317</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-2078424.98953124</v>
+        <v>23.939273527593</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-99832.95989217501</v>
+        <v>23.99145241097786</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>342121.7726089523</v>
+        <v>24.00894385207095</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>233486.9754311785</v>
+        <v>23.99854329026788</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>907257.3325410277</v>
+        <v>24.02812108886173</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>692349.170303333</v>
+        <v>24.048728300823</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1756811.117569308</v>
+        <v>23.90010844145203</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>284099.3257026825</v>
+        <v>23.99195775762161</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-12585.67469176533</v>
+        <v>24.02465165532627</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-673330.9511045925</v>
+        <v>23.84796969800393</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-89877.81402484035</v>
+        <v>23.97990800099426</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>841265.0683302204</v>
+        <v>24.01825436944373</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1025355.013730555</v>
+        <v>23.83474021463782</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-406955.6326528139</v>
+        <v>23.93734611985401</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>485602.1445123086</v>
+        <v>23.97877028672851</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-823961.0991313568</v>
+        <v>23.90738406631396</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>264376.1335970535</v>
+        <v>23.98823502314599</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>156512.3951584047</v>
+        <v>23.97217296248647</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-77991.91798788485</v>
+        <v>23.94207970739866</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>362637.2565969948</v>
+        <v>24.00049219254394</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>508090.4445144167</v>
+        <v>24.03642932849985</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-608821.8870453176</v>
+        <v>23.79879901329052</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-146854.5643634829</v>
+        <v>23.94869083927801</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28102.38485883352</v>
+        <v>24.00346269411642</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-360153.8207920829</v>
+        <v>23.80954091735039</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-51136.08682930959</v>
+        <v>23.96984128685839</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>299041.3221965088</v>
+        <v>24.01972085347279</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-923650.1375009591</v>
+        <v>23.77246428526697</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-519322.6387485455</v>
+        <v>23.89866338955445</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-320153.5745286665</v>
+        <v>23.95309963061792</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-859026.742459344</v>
+        <v>23.87797865772417</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-77206.63713470465</v>
+        <v>23.9777824613495</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>228003.2624289745</v>
+        <v>24.01926699478624</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-32184.25247919303</v>
+        <v>24.01770679319183</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>401634.5809644971</v>
+        <v>24.0840719404557</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>446966.0951266002</v>
+        <v>24.12930684654019</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-627363.7155825139</v>
+        <v>23.83725516736121</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-95650.41059095412</v>
+        <v>24.02075149844635</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18058.29563244338</v>
+        <v>24.0895681119339</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1029707.599413449</v>
+        <v>24.06623860998921</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>509820.4795107041</v>
+        <v>24.07439890520175</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>887330.7174163179</v>
+        <v>24.14174437661875</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>978946.3488635331</v>
+        <v>24.17920783302518</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-269103.1623205688</v>
+        <v>23.90329552490149</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>674934.8211636904</v>
+        <v>24.09182883125233</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>762122.3548760811</v>
+        <v>24.14571566310459</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-102938.2576814354</v>
+        <v>23.87882729494373</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>644615.338816516</v>
+        <v>24.07114740941213</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>766793.8202908221</v>
+        <v>24.12119555079706</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-502985.3576475431</v>
+        <v>23.86442464667116</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>381900.3878877648</v>
+        <v>24.02192010215908</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>482436.2523390858</v>
+        <v>24.07583712598709</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-249544.3461454489</v>
+        <v>23.98048134821812</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1095044.378851901</v>
+        <v>24.10585805130141</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1240847.685410052</v>
+        <v>24.14670664179324</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>850855.1847118213</v>
+        <v>24.1948364841701</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1106377.239041562</v>
+        <v>24.27088410841518</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1177664.875394729</v>
+        <v>24.31777724803285</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-63203.78165594285</v>
+        <v>23.98203276823116</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>935841.2082068085</v>
+        <v>24.20935346189028</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>881485.493228255</v>
+        <v>24.27682444438767</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1034838.683398291</v>
+        <v>24.06207491765073</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>323364.0122799722</v>
+        <v>24.07048747944946</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>689648.6004145655</v>
+        <v>24.13723275373333</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>914181.2526414058</v>
+        <v>24.17497983310953</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-390165.8247600468</v>
+        <v>23.89988147991323</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>571220.6057847706</v>
+        <v>24.09032222198596</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>752556.0962927002</v>
+        <v>24.14393743434465</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-252904.4469441721</v>
+        <v>23.87686971829801</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>575744.5510381239</v>
+        <v>24.06867778576231</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>758544.2807495841</v>
+        <v>24.1181277268983</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-559240.0993499199</v>
+        <v>23.86915844153829</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>378226.1371836917</v>
+        <v>24.02789503618101</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>575886.3314434278</v>
+        <v>24.08115139804371</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-300798.611411955</v>
+        <v>23.98233899930767</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1121098.496666356</v>
+        <v>24.10889433879666</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1394995.0733705</v>
+        <v>24.14932565560888</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>811103.5019418701</v>
+        <v>24.1991176991372</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1085475.563496303</v>
+        <v>24.27439461384976</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1267596.878608963</v>
+        <v>24.32124645946897</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-166668.9493571491</v>
+        <v>23.98752127675049</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>950761.2184472454</v>
+        <v>24.21628967279176</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>925862.9868489928</v>
+        <v>24.28291054019853</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1314195.947513123</v>
+        <v>24.01964798543257</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-22156.7223535671</v>
+        <v>24.00346365654518</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>443153.3393204825</v>
+        <v>24.05870984147458</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>837645.075580783</v>
+        <v>24.09425561655548</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-570791.0155106012</v>
+        <v>23.86738269107823</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>516014.8625836138</v>
+        <v>24.01716624186687</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>871439.673877851</v>
+        <v>24.0696282840158</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-526823.1726182534</v>
+        <v>23.87014319888064</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>486037.399841586</v>
+        <v>24.0242943433816</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1070563.464298676</v>
+        <v>24.07130566077704</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1017887.429272628</v>
+        <v>23.8574150136939</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>129778.1741030721</v>
+        <v>23.98272738230227</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>628091.7042386192</v>
+        <v>24.03400260515297</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-805218.4569826159</v>
+        <v>23.94860809009763</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>902515.4958050661</v>
+        <v>24.04818851887865</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1599345.360974299</v>
+        <v>24.08748988425472</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>600263.4644626772</v>
+        <v>24.1034796938184</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1101462.485158088</v>
+        <v>24.16606443188471</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1409617.54512511</v>
+        <v>24.2099716669735</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-462795.3918770449</v>
+        <v>23.93308215505579</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>965463.7379918171</v>
+        <v>24.11427991405342</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1110883.584696005</v>
+        <v>24.17917748923189</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1384771.803465582</v>
+        <v>23.87948233359502</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-899209.9112852747</v>
+        <v>23.95885432183444</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>233392.0682815641</v>
+        <v>23.97768838679522</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2516046.216601607</v>
+        <v>23.87808790611151</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-782714.9515843752</v>
+        <v>23.93475027204109</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-149823.3369557349</v>
+        <v>23.95500125417079</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2103816.924901093</v>
+        <v>23.92420131796867</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>948642.4302969563</v>
+        <v>23.96875931093732</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1342698.436962488</v>
+        <v>23.98363053870597</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-343734.0004342687</v>
+        <v>23.9685814851786</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>117783.1740501652</v>
+        <v>23.99511616032742</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34166.44410275853</v>
+        <v>24.0122221989558</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1416966.778696506</v>
+        <v>23.88064711950336</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-151029.6154662412</v>
+        <v>23.95885418355007</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>862672.052648773</v>
+        <v>23.98722836890497</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-504320.8466680683</v>
+        <v>23.85032367435182</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-151904.0253555637</v>
+        <v>23.96704783330129</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>439792.0323350682</v>
+        <v>23.99981572030116</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1334975.386437155</v>
+        <v>23.82673571136388</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-705626.5019303856</v>
+        <v>23.91537802403084</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-553996.282432951</v>
+        <v>23.95075468271269</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1409076.204410681</v>
+        <v>23.89608817216275</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-98588.39990505209</v>
+        <v>23.96571436103088</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-303640.8538827123</v>
+        <v>23.90072509901148</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>843327.0633499845</v>
+        <v>23.9967798009142</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>1148572.738212506</v>
+        <v>24.01501055970955</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1300272.941208166</v>
+        <v>23.91073513066535</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>993955.2250860035</v>
+        <v>23.98335568152644</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1251000.818113227</v>
+        <v>24.00249425233638</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1219304.802455263</v>
+        <v>23.96258334478165</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>2223778.878142269</v>
+        <v>24.0201724791757</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>2150865.724396355</v>
+        <v>24.03402114966797</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>1563719.282411579</v>
+        <v>24.04114268343935</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2102175.827638522</v>
+        <v>24.07250642193417</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>2060246.70911799</v>
+        <v>24.08985854088912</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-259037.6695722646</v>
+        <v>23.93591593348192</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1689106.058378098</v>
+        <v>24.03608120297132</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>2107669.216014607</v>
+        <v>24.062956093205</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-298398.4847735365</v>
+        <v>23.88949955242614</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>647949.5018149063</v>
+        <v>24.03003264992788</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>903669.1971268563</v>
+        <v>24.06309480584547</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-899964.7514513327</v>
+        <v>23.88177740028186</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>360549.2022139686</v>
+        <v>23.99352177865758</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>595966.6816476858</v>
+        <v>24.02865179931763</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-686684.7434356157</v>
+        <v>23.95904489798781</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>1365608.382564234</v>
+        <v>24.04750102010025</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1071830.154741453</v>
+        <v>23.89524524722545</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>373033.2481581298</v>
+        <v>23.99126688071334</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>897907.4698356737</v>
+        <v>24.00943413316067</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1611846.677465624</v>
+        <v>23.90796870502294</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>837024.1482529991</v>
+        <v>23.98164594550938</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1456281.542685544</v>
+        <v>24.00071334979688</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-1316923.346343763</v>
+        <v>23.95875732079233</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>2310841.241788211</v>
+        <v>24.01729630941276</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>2670244.917906649</v>
+        <v>24.03115549155977</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1857577.251467789</v>
+        <v>24.03872393054498</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>2333655.259609299</v>
+        <v>24.07001216884574</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2439421.05528626</v>
+        <v>24.08756916046036</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-1229598.241219422</v>
+        <v>23.933569147505</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1226061.955361475</v>
+        <v>24.03520896378003</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>1901246.599097417</v>
+        <v>24.06190611934908</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-515173.4602365284</v>
+        <v>23.88232633610691</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>415361.045955144</v>
+        <v>24.02262202371507</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>892135.5631560733</v>
+        <v>24.05553235677927</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1032445.722732227</v>
+        <v>23.8789661773068</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>67137.66745685725</v>
+        <v>23.99188234703871</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>673294.1499483144</v>
+        <v>24.02685389483439</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-823422.3503281116</v>
+        <v>23.95462272324824</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>1098427.482266567</v>
+        <v>24.04416638104306</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-2772673.6009823</v>
+        <v>23.90093667395024</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-1064220.360951101</v>
+        <v>23.97778756602387</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>607215.8387503761</v>
+        <v>23.99592089913195</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-3064819.120993816</v>
+        <v>23.90991931221966</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>69043.0889192865</v>
+        <v>23.96737560210991</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1519897.542415805</v>
+        <v>23.98685368495123</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-2982888.067962305</v>
+        <v>23.94978746815154</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1823261.315945338</v>
+        <v>23.99525894292357</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>3139334.569883786</v>
+        <v>24.0097221532884</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>1491746.49988886</v>
+        <v>24.00341894932883</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1953956.275095612</v>
+        <v>24.02898376535188</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>2514831.500853345</v>
+        <v>24.04610153253821</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-2321952.414576509</v>
+        <v>23.91935733795315</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>316378.2483144661</v>
+        <v>23.99860749089864</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>2022199.273287629</v>
+        <v>24.025767588355</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-1095390.304603281</v>
+        <v>23.88179181585268</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>121013.9043593427</v>
+        <v>23.99438810197</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1248814.348551434</v>
+        <v>24.025759970199</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-1640164.709293424</v>
+        <v>23.87482218179451</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-186361.924753285</v>
+        <v>23.96358555501897</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>781741.7504636424</v>
+        <v>23.99745152789903</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-1470479.431557383</v>
+        <v>23.93499901964483</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>966603.3747075394</v>
+        <v>24.00512847321199</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>137154.2977088208</v>
+        <v>23.99230669768608</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-72348.39943369487</v>
+        <v>23.97358469280716</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>554899.8885717631</v>
+        <v>24.02351793176221</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>643358.7692644621</v>
+        <v>24.05317350875231</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-771896.1207847534</v>
+        <v>23.8512700985939</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-101267.0403487398</v>
+        <v>23.98044171402859</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>198521.9642825316</v>
+        <v>24.02537631878435</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-576699.2376917107</v>
+        <v>23.84475023689077</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-113602.6640316775</v>
+        <v>23.98117653629092</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>650066.6192492039</v>
+        <v>24.02206014828751</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1364488.25807015</v>
+        <v>23.81835164670435</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-628097.6775600965</v>
+        <v>23.92702832772298</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-162512.8588075081</v>
+        <v>23.97163977322124</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1434299.957471996</v>
+        <v>23.90594640750005</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>67652.16391975194</v>
+        <v>23.99208440131762</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>785187.076933498</v>
+        <v>24.02606731337863</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>157019.8774805963</v>
+        <v>24.03010750345891</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>893212.4837656743</v>
+        <v>24.08659913923007</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>878524.0159019935</v>
+        <v>24.12401015339866</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-904723.827191097</v>
+        <v>23.87691335496491</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-95343.24812092364</v>
+        <v>24.03391752297408</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>347653.296077473</v>
+        <v>24.0904522614546</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1596179.702163023</v>
+        <v>24.07373885880572</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>988251.141934972</v>
+        <v>24.08774685252839</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1413589.880275453</v>
+        <v>24.14515207582379</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1413639.26765638</v>
+        <v>24.17607524279493</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-183065.3803494526</v>
+        <v>23.94211803240891</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1252917.718908272</v>
+        <v>24.10368265721514</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>1290422.614349952</v>
+        <v>24.1478392792786</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-213639.8608413868</v>
+        <v>23.9042352539287</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>976261.5597654111</v>
+        <v>24.06746686365782</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1295893.370367061</v>
+        <v>24.10846431881251</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-861367.3900457886</v>
+        <v>23.89717976127707</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>667431.1910137299</v>
+        <v>24.03210550704167</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>962892.4756722369</v>
+        <v>24.07625151007002</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-641722.5897963622</v>
+        <v>23.99342794887307</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1807841.456984408</v>
+        <v>24.10101963759549</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>2241042.051862672</v>
+        <v>24.13445113746232</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1494892.323174928</v>
+        <v>24.18055447710422</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1843529.430735718</v>
+        <v>24.24513024596425</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1934751.078788927</v>
+        <v>24.28392970107251</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>-79481.45837690638</v>
+        <v>24.00029006562663</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1504816.502603341</v>
+        <v>24.19397594344031</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1575329.699042043</v>
+        <v>24.24937079317753</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1777507.091475159</v>
+        <v>24.07037141973872</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>786813.2894633468</v>
+        <v>24.08458035322684</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1140819.927091368</v>
+        <v>24.14143435782941</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1402093.680468736</v>
+        <v>24.17259051501322</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-381757.7221160002</v>
+        <v>23.93946622790202</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>1084666.575206063</v>
+        <v>24.10246601364543</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>1291424.9406122</v>
+        <v>24.14640284891158</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-512354.5188987458</v>
+        <v>23.9030304626373</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>829123.9327492566</v>
+        <v>24.06573088731114</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>1267227.770583626</v>
+        <v>24.10624259165501</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-946008.2375870098</v>
+        <v>23.90146813796013</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>673986.5533998656</v>
+        <v>24.03730206194981</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1165320.159526242</v>
+        <v>24.08090934046217</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-711546.8143163561</v>
+        <v>23.99530054606069</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1879712.782544433</v>
+        <v>24.10376751443885</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>2573399.252499025</v>
+        <v>24.13686065282144</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1455846.641766602</v>
+        <v>24.18435808319489</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1795044.597212399</v>
+        <v>24.2482400935461</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>2119357.729077966</v>
+        <v>24.28700365754872</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-342629.4241666798</v>
+        <v>24.00519971542346</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1457428.794173647</v>
+        <v>24.19993909367679</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1597358.376132279</v>
+        <v>24.25463870104602</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2187916.330343341</v>
+        <v>24.03079794543486</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>224542.6797301591</v>
+        <v>24.02329767368182</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>724643.4155456499</v>
+        <v>24.07043427699931</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1256887.473114183</v>
+        <v>24.09976191268694</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-711090.1805259142</v>
+        <v>23.90730024758903</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1023314.816669699</v>
+        <v>24.03586655813866</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1608180.880121375</v>
+        <v>24.07891656038998</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-1016011.946418806</v>
+        <v>23.89541226589548</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>740408.2877714849</v>
+        <v>24.02636868520035</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1941152.581986452</v>
+        <v>24.06491361061996</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1613456.174113988</v>
+        <v>23.88887392700663</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>496760.3747218724</v>
+        <v>23.99639184732465</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1539530.023079778</v>
+        <v>24.03842172438051</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-1481122.738576389</v>
+        <v>23.96453777216275</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1763697.480976619</v>
+        <v>24.0501344567898</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>3254597.358054192</v>
+        <v>24.08233891496626</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1453435.162447311</v>
+        <v>24.10071659769952</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2130045.634601157</v>
+        <v>24.15390279505244</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2639147.282499394</v>
+        <v>24.19020817291644</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-744862.4231854833</v>
+        <v>23.95621394999804</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1652128.406840236</v>
+        <v>24.11079870147435</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2209750.21523693</v>
+        <v>24.16412304583771</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-495559.3337296392</v>
+        <v>23.88727756845472</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-855026.7544104492</v>
+        <v>23.9683375303189</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>528468.8777625695</v>
+        <v>23.9885881393713</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-816027.4943165372</v>
+        <v>23.89080392073031</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>162753.7467972866</v>
+        <v>23.94738920506372</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>884267.0284417588</v>
+        <v>23.96923595597943</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-566535.4931169822</v>
+        <v>23.93545946117827</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>1524204.026221733</v>
+        <v>23.97986680844615</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>2139936.344963853</v>
+        <v>23.99595280974462</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-254388.0933113675</v>
+        <v>23.98194016189398</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-57663.89053482243</v>
+        <v>24.00829410554692</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-43074.73659910872</v>
+        <v>24.02734554076453</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-161976.8626886242</v>
+        <v>23.89379653325204</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-454277.2853666741</v>
+        <v>23.97164630319184</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>885270.47327715</v>
+        <v>24.0027405156643</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-297840.3138115613</v>
+        <v>23.85004281559903</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-421980.7886138589</v>
+        <v>23.96942967377267</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>142407.5117329219</v>
+        <v>24.00467925099669</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-105981.2339766342</v>
+        <v>23.83116880310144</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-6690.830432317327</v>
+        <v>23.92026797392522</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>138388.8832990068</v>
+        <v>23.95839709581289</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-862094.8263550908</v>
+        <v>23.89908089694189</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-116950.8023973734</v>
+        <v>23.96892440572599</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-89532.82869882886</v>
+        <v>23.91181855792383</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>369818.4977438348</v>
+        <v>24.01016644868309</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>930530.3052794328</v>
+        <v>24.02990379579004</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-270163.2527814451</v>
+        <v>23.92800997473291</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>1407126.320153523</v>
+        <v>24.00106442502932</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1712376.205790469</v>
+        <v>24.02187589119467</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-464285.0246349814</v>
+        <v>23.97830619649668</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2202881.552049757</v>
+        <v>24.03615823568282</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2323918.21874276</v>
+        <v>24.05128253521608</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1626254.705638836</v>
+        <v>24.06125322928011</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1946779.353236738</v>
+        <v>24.09255967193148</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1994967.4276833</v>
+        <v>24.11200112895624</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>717914.0882466078</v>
+        <v>23.95537192064373</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1436489.234555756</v>
+        <v>24.05586337654978</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>2056304.610391866</v>
+        <v>24.08559998151354</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-331379.452992713</v>
+        <v>23.89331695846968</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>65589.32187394571</v>
+        <v>24.03739509443538</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>339331.6076527364</v>
+        <v>24.07314243616957</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-19174.59058376711</v>
+        <v>23.89195653082372</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>601787.2442261042</v>
+        <v>24.00493170140454</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>853964.3657388645</v>
+        <v>24.04300761558792</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-563372.938190494</v>
+        <v>23.96768735975828</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>818993.3111119061</v>
+        <v>24.05698512523434</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-1015734.82371145</v>
+        <v>23.90612201656108</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-51507.70626294042</v>
+        <v>24.0045230496716</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>728584.8525187353</v>
+        <v>24.02420473647663</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-765003.4046791763</v>
+        <v>23.92507855520595</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1315617.651278328</v>
+        <v>23.99935366616072</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1963202.314163754</v>
+        <v>24.02009887746488</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-881357.4627389819</v>
+        <v>23.97437028994345</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2236697.781113394</v>
+        <v>24.03330991798336</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2774141.03022311</v>
+        <v>24.04845359499884</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1784689.60232948</v>
+        <v>24.05894487371445</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2092383.911907038</v>
+        <v>24.09022597192228</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>2273925.48092724</v>
+        <v>24.1098678134603</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-449463.0976450829</v>
+        <v>23.95299549371076</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1029322.357975668</v>
+        <v>24.05519551748311</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1894888.728780211</v>
+        <v>24.08474160801651</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-528321.1007566187</v>
+        <v>23.88628482817347</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-100338.7037083808</v>
+        <v>24.03023700930864</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>372748.3109821034</v>
+        <v>24.0658357792837</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-131686.7150116473</v>
+        <v>23.88942601553144</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>383987.6843353304</v>
+        <v>24.0037851304551</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>976403.5976914406</v>
+        <v>24.04170238908232</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-762159.0015066111</v>
+        <v>23.96360281932656</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>547590.1968961648</v>
+        <v>24.05416769097111</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-2694528.50665895</v>
+        <v>23.90943713505596</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-1493360.213314241</v>
+        <v>23.98812780552427</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>300645.8177672731</v>
+        <v>24.00764748645849</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-1786984.417051493</v>
+        <v>23.92348282061178</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1049650.847694062</v>
+        <v>23.98125466217692</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>2330240.32827459</v>
+        <v>24.00228411770602</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-2295496.515930365</v>
+        <v>23.96196296592619</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2015550.545938011</v>
+        <v>24.0076167776764</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3309643.774020551</v>
+        <v>24.02327303678351</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1394865.779037945</v>
+        <v>24.01848223159697</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1591198.329867527</v>
+        <v>24.04399293098209</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>2020183.424048841</v>
+        <v>24.06297521850603</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1467315.721167307</v>
+        <v>23.9339280973389</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34249.75759953667</v>
+        <v>24.01338135673602</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1853725.756931696</v>
+        <v>24.043141902473</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-1004263.557286109</v>
+        <v>23.88404273138153</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-381248.6263738927</v>
+        <v>23.99948588457859</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>660578.5843873236</v>
+        <v>24.03326045287714</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-243598.3053912273</v>
+        <v>23.88223466564479</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>550347.8093409003</v>
+        <v>23.97194863440339</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1429399.203119349</v>
+        <v>24.00846920817742</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1131850.364247916</v>
+        <v>23.94099565260478</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>605183.6570161066</v>
+        <v>24.01176624722219</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>94086.00132553346</v>
+        <v>23.99765339614606</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-304349.355364967</v>
+        <v>23.9779645094735</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>238656.6298037784</v>
+        <v>24.02839536883203</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>222409.1563870282</v>
+        <v>24.06123708817358</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-476411.3964388777</v>
+        <v>23.85490574391319</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-359338.671288055</v>
+        <v>23.98470073314414</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32359.92343195147</v>
+        <v>24.03395402598741</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-180824.3492528753</v>
+        <v>23.84931371299078</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-90231.44955436478</v>
+        <v>23.98920845702061</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>462096.3919814424</v>
+        <v>24.03278248642349</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>52935.19909262325</v>
+        <v>23.828413062759</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>284682.7853574124</v>
+        <v>23.93831238053634</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>551689.9024936544</v>
+        <v>23.98591730922399</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-564610.3138267257</v>
+        <v>23.91499457142652</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>425020.0047898195</v>
+        <v>24.00197233909289</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>860291.342806355</v>
+        <v>24.03827921521494</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>232609.7499588098</v>
+        <v>24.04389474113658</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>742373.573023528</v>
+        <v>24.10097731750897</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>785563.1351688834</v>
+        <v>24.14195839404641</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-249512.0231894935</v>
+        <v>23.88860193362292</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-22725.91553762527</v>
+        <v>24.04737454434012</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>433355.6727011084</v>
+        <v>24.10852772315622</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1044713.619918289</v>
+        <v>24.08551586098068</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>644458.7375809219</v>
+        <v>24.10090848561273</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>983548.9147164278</v>
+        <v>24.15903554945693</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>887317.5899315841</v>
+        <v>24.19340858516249</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19576.78110992387</v>
+        <v>23.9539050982299</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>847312.2474576138</v>
+        <v>24.11716196517471</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>991532.2877718544</v>
+        <v>24.16592762709655</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-40975.72436612672</v>
+        <v>23.91450081627967</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>682892.2691385617</v>
+        <v>24.08221007526965</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>897066.2284316858</v>
+        <v>24.12609186835902</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>162534.3858651937</v>
+        <v>23.91485201868525</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>1066513.397375132</v>
+        <v>24.05190291437754</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1262589.130182958</v>
+        <v>24.09922591094901</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>-217644.6819297436</v>
+        <v>24.00998409488453</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1601749.893668871</v>
+        <v>24.11914584195574</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1857068.690683874</v>
+        <v>24.15504849829691</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1478300.588952478</v>
+        <v>24.20571326050981</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1601480.231275627</v>
+        <v>24.27110605807111</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1693932.501377976</v>
+        <v>24.31375598514177</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>446355.8985791309</v>
+        <v>24.0225420906121</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1371290.549928496</v>
+        <v>24.21924843654381</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1536224.956001558</v>
+        <v>24.27953608425459</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1188584.796988043</v>
+        <v>24.08267207853609</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>418298.4415875251</v>
+        <v>24.0984296325545</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>708292.6456375001</v>
+        <v>24.15604985422983</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>860489.170675779</v>
+        <v>24.19064097156655</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-210587.9597023378</v>
+        <v>23.95178177594221</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>689817.0575824915</v>
+        <v>24.11676696927336</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>997826.9722146344</v>
+        <v>24.16528840356028</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-286724.3701618437</v>
+        <v>23.91368669385215</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>600577.6446259043</v>
+        <v>24.08096824527916</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>908216.9992073178</v>
+        <v>24.12435970113852</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>136058.4943151815</v>
+        <v>23.91970796742689</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>1144929.851432071</v>
+        <v>24.05787502756594</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1505312.227564982</v>
+        <v>24.10464988201294</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-296490.2142015641</v>
+        <v>24.01245384413082</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1680270.473536695</v>
+        <v>24.12266732275826</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2157263.642614237</v>
+        <v>24.15823095302051</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1413775.591374048</v>
+        <v>24.21049599881996</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1545610.213614693</v>
+        <v>24.2752379974908</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1853093.01485163</v>
+        <v>24.31782802485055</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>183771.5508227388</v>
+        <v>24.02829144259326</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1317727.116844492</v>
+        <v>24.22633449069804</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1558504.156315535</v>
+        <v>24.28589186299131</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1698484.684502276</v>
+        <v>24.03951186169878</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-69882.40545340028</v>
+        <v>24.03196514614487</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>300708.5179543049</v>
+        <v>24.07969179339858</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>688307.4344392648</v>
+        <v>24.11205674714732</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-492810.6224703824</v>
+        <v>23.91492721141203</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>561972.6495805552</v>
+        <v>24.04478860879091</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1242915.373147894</v>
+        <v>24.0919549775266</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-606804.4819145887</v>
+        <v>23.90318678777922</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>542487.8829782747</v>
+        <v>24.03775104233786</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>1453671.004363514</v>
+        <v>24.07888617600519</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>88611.98267154637</v>
+        <v>23.90267813967534</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1408416.067967657</v>
+        <v>24.01187820850649</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>2165765.878231826</v>
+        <v>24.05677863358635</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-651657.322648835</v>
+        <v>23.9772630277805</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1791966.520472922</v>
+        <v>24.06409601119958</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2869467.65568588</v>
+        <v>24.09854491047982</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1449758.680713932</v>
+        <v>24.11949042065712</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1793008.71238768</v>
+        <v>24.17335579776474</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2359913.627425418</v>
+        <v>24.21305331303821</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-64867.39999244063</v>
+        <v>23.97268055578138</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1406758.377016522</v>
+        <v>24.12964554306318</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>2059153.289455326</v>
+        <v>24.18735723131302</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.47</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.893</v>
+        <v>17.34</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.137</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.558</v>
+        <v>14.07</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.701</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.988</v>
+        <v>6.835</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.85333253128412</v>
+        <v>3.132097143515836</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.94306260543404</v>
+        <v>0.1542240270091781</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.96349805434777</v>
+        <v>14.89365225432448</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.85175726184262</v>
+        <v>-3.295838185297615</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.91603509326736</v>
+        <v>4.888671564813517</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.93793998552772</v>
+        <v>16.84809231401507</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.90507341756315</v>
+        <v>-0.9586254613663385</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.95568323103386</v>
+        <v>17.55448818637296</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.97169564249046</v>
+        <v>26.67455251643153</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.95026421825776</v>
+        <v>3.845024208695772</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.98081813550982</v>
+        <v>7.570494686399165</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.99864967884375</v>
+        <v>11.29951641414337</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.85132444745342</v>
+        <v>13.30452022405136</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.94006527679137</v>
+        <v>15.78581848194275</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.97069974459578</v>
+        <v>39.45289764984813</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.81755729144383</v>
+        <v>11.82877227932149</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.94932821063495</v>
+        <v>17.94071073155352</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23.98486523786008</v>
+        <v>29.96488895517354</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.79116443237715</v>
+        <v>-1.571667423695317</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.89143126880276</v>
+        <v>10.3446533882908</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.92970051098329</v>
+        <v>16.72766848413645</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.87091364754854</v>
+        <v>0.4589395498446187</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.94974983222152</v>
+        <v>21.42392545611794</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.87259150953748</v>
+        <v>8.723044689258113</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.98105460504848</v>
+        <v>12.01272762793509</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.00073538347366</v>
+        <v>19.20522348113138</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>23.88333003666411</v>
+        <v>1.319657765854732</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.96552014188503</v>
+        <v>17.72606994550546</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.98609181181701</v>
+        <v>24.95829517975832</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.94340131868011</v>
+        <v>0.6450853198351183</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.00864451720557</v>
+        <v>26.33294002216866</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24.02343751614728</v>
+        <v>30.01613259907393</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.02558303616133</v>
+        <v>26.65000831695393</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24.06161518100437</v>
+        <v>31.42864787507625</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>24.07961309284434</v>
+        <v>36.31874883928762</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.90722308332325</v>
+        <v>19.51681534167425</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24.02061643122324</v>
+        <v>35.65083575827259</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>24.04944332431562</v>
+        <v>50.46841778235796</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.85563995662046</v>
+        <v>15.16526334264271</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>24.01411829980152</v>
+        <v>32.98917645272603</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24.04985559488793</v>
+        <v>40.6061981569505</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>23.84643512309674</v>
+        <v>3.311433051449086</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.97259884651872</v>
+        <v>30.40028868344874</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.01045000541769</v>
+        <v>38.11376890583702</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23.93545700410373</v>
+        <v>10.81689643728765</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.03540974248115</v>
+        <v>48.66639888114484</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.8661953267124</v>
+        <v>0.2930343018557906</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.97458824069775</v>
+        <v>6.593918047928739</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.99419175376905</v>
+        <v>14.84463095398722</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.87988402178226</v>
+        <v>-2.689827620751295</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.96322272721938</v>
+        <v>15.18221209936148</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.98370984512552</v>
+        <v>24.97190692457695</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.93874847705527</v>
+        <v>-0.08463560828606731</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24.00502656185137</v>
+        <v>26.60989310464314</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>24.019826630192</v>
+        <v>33.26878062581257</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>24.02247844632636</v>
+        <v>28.84933173566902</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>24.05839465869826</v>
+        <v>33.01710434794482</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.0766489921044</v>
+        <v>39.9286910486725</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.90420367332455</v>
+        <v>1.167620976974298</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>24.01920256597981</v>
+        <v>25.49505891880493</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>24.04782708085646</v>
+        <v>42.21670549783985</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>23.84711037250086</v>
+        <v>11.73584554898632</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24.00527856100085</v>
+        <v>29.05474215969332</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.04084469381529</v>
+        <v>39.25911313774101</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.84266746012503</v>
+        <v>1.615536022300272</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23.97009741617577</v>
+        <v>25.3893342071234</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24.00777259169973</v>
+        <v>38.57709038375698</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23.92986257935869</v>
+        <v>9.901249588113961</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>24.03099514890627</v>
+        <v>44.66601632715589</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.87738946999599</v>
+        <v>-9.812473824015903</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.96419303310412</v>
+        <v>-4.215637890343537</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.9838496201606</v>
+        <v>11.51554972214294</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.88723206697764</v>
+        <v>-8.639267555924192</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23.95229299441307</v>
+        <v>8.580479637671907</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>23.97334487931942</v>
+        <v>24.38249511478793</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.93344525942644</v>
+        <v>-8.530065292626155</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>23.98498910454968</v>
+        <v>18.00771583821079</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.00055347119807</v>
+        <v>31.63128266147977</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>23.98909643579881</v>
+        <v>18.991053600386</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.01846295376114</v>
+        <v>22.19297601014544</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.03641319177673</v>
+        <v>34.14269400276835</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.89452549336834</v>
+        <v>-2.920923394705277</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23.98429202936884</v>
+        <v>14.86844057740105</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>24.01359511451936</v>
+        <v>40.41215629643474</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.85233771949695</v>
+        <v>6.190525758528544</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.97934849038443</v>
+        <v>22.64075286023701</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>24.01335650843377</v>
+        <v>38.46280299031757</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>23.84425695086157</v>
+        <v>-1.42974250202592</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.9445196637455</v>
+        <v>21.1847048678105</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>23.98114368656726</v>
+        <v>36.63537655936789</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>23.91360587684798</v>
+        <v>4.927190182039617</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.9928887468545</v>
+        <v>36.86727755941848</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.97841203459908</v>
+        <v>28.92106796781827</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23.95212668304319</v>
+        <v>19.69388865266669</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.00919594014613</v>
+        <v>32.46794037999335</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24.04046723400428</v>
+        <v>38.33569890570813</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.81501489489214</v>
+        <v>10.07724432530014</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.96109613285638</v>
+        <v>24.08126662574184</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.00942389778881</v>
+        <v>35.87393959989841</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.82053107603897</v>
+        <v>12.65980952479191</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.97489137819645</v>
+        <v>24.49733849405703</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>24.0194689582109</v>
+        <v>38.93290022958314</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.79150838004485</v>
+        <v>-4.10030229705383</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.91480268959635</v>
+        <v>15.59400947252418</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>23.96336041759118</v>
+        <v>26.39433723772161</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.89163955401409</v>
+        <v>2.114706498671119</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>23.98946302865246</v>
+        <v>33.07413427553449</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24.02636146379634</v>
+        <v>47.00082186784012</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>24.02730011429991</v>
+        <v>35.87134391466525</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.09202959210234</v>
+        <v>52.39855579945221</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>24.13169514251365</v>
+        <v>53.17577800201343</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.8552384312607</v>
+        <v>6.157397147010133</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.03322071154707</v>
+        <v>30.23041113740838</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>24.09446811980281</v>
+        <v>45.15803509766155</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>24.06355450706137</v>
+        <v>56.30588975456292</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>24.07234533040906</v>
+        <v>47.4507566905076</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>24.13786858440508</v>
+        <v>56.95727730960107</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.17041116871853</v>
+        <v>61.12105878647541</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.90911334039401</v>
+        <v>19.51337872713285</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>24.09151486258346</v>
+        <v>58.07314372270888</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.13876524170337</v>
+        <v>62.89106782578569</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>23.88180844604438</v>
+        <v>17.57416313785325</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>24.0662763285685</v>
+        <v>45.31611256488081</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24.11082921440872</v>
+        <v>51.724594615611</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>23.87387455055823</v>
+        <v>2.256629439890165</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>24.02663935596486</v>
+        <v>42.6837930878999</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.07450712179901</v>
+        <v>48.78732907107481</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23.98412328847133</v>
+        <v>13.09996067462211</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.10604367296772</v>
+        <v>67.3483578003689</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>24.14218231413421</v>
+        <v>75.65010491814297</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>24.18872967267045</v>
+        <v>75.26422250447985</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>24.26263090455548</v>
+        <v>83.84794897544239</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.30367043736603</v>
+        <v>87.59478963481362</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>23.98632217247439</v>
+        <v>25.80857322328823</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>24.20548822845952</v>
+        <v>78.04523232376684</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>24.26521757451972</v>
+        <v>80.80484143447691</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.05910340116323</v>
+        <v>58.30216147000962</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.06808634034871</v>
+        <v>41.9467407600489</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>24.13294922502282</v>
+        <v>49.44622563491731</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.16579360116576</v>
+        <v>59.17314324800203</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.90542720176391</v>
+        <v>13.27244329462247</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.08937513001064</v>
+        <v>52.34338453930894</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.13638813369177</v>
+        <v>60.12699804844545</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.8796243357939</v>
+        <v>12.75617319528416</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.06343950546438</v>
+        <v>42.53577707948774</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.10744188242503</v>
+        <v>50.07074166198119</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>23.87770236952218</v>
+        <v>1.802170343722491</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>24.0314227708153</v>
+        <v>43.04248509503841</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.07868273959909</v>
+        <v>51.88696682487239</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.98522619611745</v>
+        <v>13.39708814308858</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>24.10807590151821</v>
+        <v>68.43103384449194</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.1438306450784</v>
+        <v>80.13765641810424</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24.19184985235326</v>
+        <v>73.8900465943492</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24.26492450719536</v>
+        <v>81.67762874913061</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.30596695627414</v>
+        <v>91.14718749092225</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23.99069092633947</v>
+        <v>18.73874210645526</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>24.21095808731449</v>
+        <v>76.20008210817075</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.26990886265007</v>
+        <v>79.38604321800396</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24.02055380898485</v>
+        <v>54.11365228389255</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.00692960292762</v>
+        <v>25.72630257409121</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>24.06072868272394</v>
+        <v>34.69901209306489</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.09178925385877</v>
+        <v>47.37219696040492</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.87689466343864</v>
+        <v>11.71413824007824</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.02210976807423</v>
+        <v>45.61281967664674</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>24.06841203948271</v>
+        <v>59.17159817073126</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>23.87573211459799</v>
+        <v>10.11231784836568</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24.02378041487393</v>
+        <v>39.24652580354538</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>24.06576345934017</v>
+        <v>55.03951275998887</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23.86859731038314</v>
+        <v>-0.778920154413381</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.99039878862253</v>
+        <v>39.09050823396982</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.0361013760233</v>
+        <v>54.20765734351711</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.95524979717907</v>
+        <v>9.023786279360124</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24.05230400947625</v>
+        <v>60.18132264130419</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24.0872375822799</v>
+        <v>79.5581851177318</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>24.10414361217473</v>
+        <v>65.17601064353357</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>24.16500680310952</v>
+        <v>77.62947025457333</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.20360400204586</v>
+        <v>87.61262324169925</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>23.94186127503301</v>
+        <v>15.6498782840348</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>24.11687981841632</v>
+        <v>72.731202981835</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.17460099429236</v>
+        <v>83.58918089342063</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.80929133494307</v>
+        <v>12.03130425147375</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23.91721773803773</v>
+        <v>-7.697015444016554</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.94383319205534</v>
+        <v>3.18975245253305</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.80518785296571</v>
+        <v>-6.416534487957168</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.88013915643751</v>
+        <v>-18.00696920781699</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.90887387901566</v>
+        <v>-12.49249768404155</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.87009327876585</v>
+        <v>-3.084298042215426</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23.92887850276695</v>
+        <v>-5.167071906145676</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.94994613326076</v>
+        <v>-0.4310900157941226</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.91936378664533</v>
+        <v>-13.58640724813445</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.95518023319791</v>
+        <v>-7.131833511899256</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>23.97977479348753</v>
+        <v>-6.28541048003855</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.80318251380107</v>
+        <v>9.999470956649365</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.90672577825373</v>
+        <v>-3.879782454865776</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>23.94752635595588</v>
+        <v>-5.863280368075706</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>23.73960404762816</v>
+        <v>12.73962942108619</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.89869569679617</v>
+        <v>7.310408382557718</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.94531931631212</v>
+        <v>23.21971463068737</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.70194803363602</v>
+        <v>-1.281555665451823</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.8202238849133</v>
+        <v>-4.30352953161545</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.87071241689077</v>
+        <v>6.882782728601246</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>23.79979180304563</v>
+        <v>0.5826661688162922</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.89245775296392</v>
+        <v>7.118809656032251</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>23.83532924393407</v>
+        <v>10.94274895732937</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.96637519749371</v>
+        <v>-2.709655038960221</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.99225929460458</v>
+        <v>2.97767202740625</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>23.84708033401163</v>
+        <v>-4.428907208361561</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.94403587961218</v>
+        <v>-8.127187199798396</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.97134500675599</v>
+        <v>-4.852432979213322</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>23.92015589185219</v>
+        <v>-5.114212057434315</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.99690670535723</v>
+        <v>-0.1371245407860826</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.01664829807779</v>
+        <v>1.649803218829621</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>24.01649648479052</v>
+        <v>9.948037402445355</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.05902508622926</v>
+        <v>19.69544588811166</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.08406116503452</v>
+        <v>19.16878428410393</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.87667969173086</v>
+        <v>17.63879632674094</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.01051516184408</v>
+        <v>19.97175612987708</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.04942857033687</v>
+        <v>10.45092717274654</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>23.78863251309625</v>
+        <v>12.11837452104688</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>23.98074852271169</v>
+        <v>18.52865899787582</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>24.0279937987923</v>
+        <v>31.81201036453296</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>23.77295737302713</v>
+        <v>4.29892555950855</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.92314088939194</v>
+        <v>15.94915245471344</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>23.97352438316922</v>
+        <v>31.2528063918453</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>23.88206923490628</v>
+        <v>9.760315972631375</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.00073651044927</v>
+        <v>33.11465005092961</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.82833481997517</v>
+        <v>-1.44291482909917</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.95946402382024</v>
+        <v>-10.49227216140711</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.98528504318308</v>
+        <v>-2.447242326689462</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>23.84396824404543</v>
+        <v>-12.92096603304886</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.94257431285255</v>
+        <v>-13.18591478715286</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.96980795060273</v>
+        <v>-5.743195827016272</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>23.91557753609745</v>
+        <v>-11.85966902872594</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.99379883213704</v>
+        <v>-3.9426658397437</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.01357791295981</v>
+        <v>2.449241818061267</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>24.01428515340697</v>
+        <v>6.281863057225401</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24.05676156137512</v>
+        <v>16.1317516454719</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.08209217699374</v>
+        <v>16.93654368065827</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>23.87431455353524</v>
+        <v>-4.607664836797362</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>24.01044936178508</v>
+        <v>9.278830688538614</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.04912780672108</v>
+        <v>3.447557500934593</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>23.78011851921009</v>
+        <v>4.628316847949641</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.97207943773704</v>
+        <v>10.69470226348805</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.01914052229987</v>
+        <v>28.49133192417988</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.77073155926275</v>
+        <v>-2.784063310996597</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.92278659406356</v>
+        <v>5.579698623296178</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.9729741757408</v>
+        <v>28.85909675357792</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>23.87759634354686</v>
+        <v>1.515021927017212</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>23.99797683667603</v>
+        <v>21.73657079394932</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.84240555375735</v>
+        <v>-7.306104570839235</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>23.94721426308563</v>
+        <v>-15.84256963448694</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.97288701823522</v>
+        <v>-3.924362700499692</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.85314322090511</v>
+        <v>-17.53419680576529</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>23.92975488162118</v>
+        <v>-16.73254650174827</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.95743441861004</v>
+        <v>-7.554214349373133</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.90930751103033</v>
+        <v>-17.61600300936091</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.96982296579934</v>
+        <v>-8.321364995179728</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.99035074369167</v>
+        <v>0.8513967698223439</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>23.97293995493502</v>
+        <v>-8.131414468906311</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>24.00756664911236</v>
+        <v>-0.04335250584493622</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>24.03215821747221</v>
+        <v>2.683734246689937</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.86136404775797</v>
+        <v>-10.07529545636768</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>23.96711274875078</v>
+        <v>-2.730553207200622</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.00619203169626</v>
+        <v>-3.97514788567257</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>23.78992455532642</v>
+        <v>4.686219297472306</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.94379938005985</v>
+        <v>9.481430277132834</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>23.98849182452119</v>
+        <v>32.12024602258499</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>23.77619174638017</v>
+        <v>-2.867565125439551</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.89537522654659</v>
+        <v>4.402255063367623</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.94375547591788</v>
+        <v>28.48947227967237</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>23.86114041611088</v>
+        <v>1.961055325417323</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.95512061643097</v>
+        <v>19.11902535143476</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.93039820177193</v>
+        <v>18.52272984199128</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.88710568784994</v>
+        <v>4.086602547876204</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.95554126265326</v>
+        <v>23.95478484991614</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.9982945822397</v>
+        <v>33.46188299626838</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.72486682032625</v>
+        <v>5.954570677410679</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.89781078938146</v>
+        <v>10.75122218515061</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.96279070044463</v>
+        <v>20.59053545465259</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.74866603167824</v>
+        <v>17.5289891047769</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.93569611987125</v>
+        <v>17.9161616978232</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>23.99346970900324</v>
+        <v>28.67726021773028</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.70823872250944</v>
+        <v>0.344478244054315</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.85490716594804</v>
+        <v>4.615185271874054</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.91809267454444</v>
+        <v>10.29518905298069</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.83108477161655</v>
+        <v>3.976998354236272</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>23.94714962716706</v>
+        <v>20.49608334517361</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>23.99524454911317</v>
+        <v>28.54808346335791</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.98742093525516</v>
+        <v>19.19275682171658</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.06507385807635</v>
+        <v>38.82385183765392</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.11853161454287</v>
+        <v>43.20649218792061</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23.78175069287103</v>
+        <v>13.20948874164452</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.99415282252961</v>
+        <v>23.98254639719502</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.07509047121422</v>
+        <v>28.02961692118872</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.03837540824205</v>
+        <v>46.63782474904008</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>24.03980967278433</v>
+        <v>35.17659091744746</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.11868084528696</v>
+        <v>54.58550263408912</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.16338265114945</v>
+        <v>62.5241258998109</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>23.84567669437902</v>
+        <v>21.63629039789515</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.0633956985676</v>
+        <v>52.5807679665488</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.12765398668938</v>
+        <v>57.86217484771657</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.82802863178419</v>
+        <v>24.95329646536137</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>24.05231768638993</v>
+        <v>41.88683456721883</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>24.11043816913993</v>
+        <v>46.81363243727282</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.81459129836795</v>
+        <v>12.34698706379278</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>23.99761258097718</v>
+        <v>37.50391610794615</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.06036319755995</v>
+        <v>41.6890077800441</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.94969479254182</v>
+        <v>22.35622754244694</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>24.09546630012009</v>
+        <v>62.94461120401269</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.14296419818854</v>
+        <v>67.84379589407116</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.19338795590713</v>
+        <v>71.24335319768031</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>24.28233923993345</v>
+        <v>83.83847376296961</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>24.33790492331595</v>
+        <v>90.56066302432362</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>23.95053784462795</v>
+        <v>44.77683888586629</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>24.21377453527554</v>
+        <v>84.60108418001698</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.29345489976689</v>
+        <v>80.33825448112886</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>24.0355949154199</v>
+        <v>43.85726755743471</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>24.03776686655698</v>
+        <v>22.19122986839059</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.11593126158424</v>
+        <v>40.89945157789982</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>24.16096166481258</v>
+        <v>56.01386318855053</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.84402545704717</v>
+        <v>11.02353508484025</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>24.06407099064898</v>
+        <v>42.92969784290368</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>24.12802895914884</v>
+        <v>53.59146635233779</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.82753840897121</v>
+        <v>17.68115285867457</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.05125810481167</v>
+        <v>37.38464332116643</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>24.10873183792729</v>
+        <v>44.70307019245188</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>23.82196014603883</v>
+        <v>8.996775006848457</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>24.00648267467001</v>
+        <v>35.82163766624477</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>24.06851029807468</v>
+        <v>44.38594632707373</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.95370260442655</v>
+        <v>18.55515765972621</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.10088911865155</v>
+        <v>60.72087967269466</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>24.14794278654046</v>
+        <v>70.71830365404099</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>24.20071584064526</v>
+        <v>63.87767311655848</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.28876238997588</v>
+        <v>77.897165700142</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>24.34428575137575</v>
+        <v>91.32760211873617</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.95908328019606</v>
+        <v>34.0879515572752</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.22410923996604</v>
+        <v>80.04194988793734</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>24.30283008151343</v>
+        <v>78.39968680770355</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.99178632406988</v>
+        <v>44.02027899671992</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.96595765205343</v>
+        <v>5.181121463756813</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.03067554990321</v>
+        <v>22.75235256196437</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.07291248865448</v>
+        <v>40.51089814393593</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>23.81150715027649</v>
+        <v>7.526080247102058</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.98460493275468</v>
+        <v>32.70046689619534</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.04687187445499</v>
+        <v>47.70434202205663</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.82453632432611</v>
+        <v>15.42104199543054</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.00445024880289</v>
+        <v>32.93525886122201</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.05899263495033</v>
+        <v>47.87318833518337</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>23.81250072787299</v>
+        <v>5.166218489674307</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>23.95826893944573</v>
+        <v>29.20114240562768</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.01786816474286</v>
+        <v>42.91735865082876</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.91864180459755</v>
+        <v>12.42086871516229</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>24.0345450675815</v>
+        <v>48.89601893396976</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24.08018515989072</v>
+        <v>65.91160991808258</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>24.09393697614951</v>
+        <v>45.10733517083712</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>24.16715950671746</v>
+        <v>63.66389888191611</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>24.2190299352866</v>
+        <v>79.55304831948203</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.89937858344059</v>
+        <v>23.51633142560462</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.10936889376771</v>
+        <v>66.48730408022759</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>24.18576331415021</v>
+        <v>71.70138900578198</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.85846711037371</v>
+        <v>16.8339282555437</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.95110979062458</v>
+        <v>18.00703029681763</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.97391927617732</v>
+        <v>22.90219380911846</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.85332331393282</v>
+        <v>-2.043910593573763</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.91811596461337</v>
+        <v>7.629562851174118</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.94261351098141</v>
+        <v>8.189253223288068</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.90895395632615</v>
+        <v>3.844964968175876</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.95971656254831</v>
+        <v>20.64644299254012</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23.97769791226171</v>
+        <v>21.1207410414493</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.95677334459596</v>
+        <v>17.64699651307425</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.98736373198359</v>
+        <v>30.56995054106768</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.00793810786809</v>
+        <v>23.43518239283882</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.85398703018445</v>
+        <v>-8.977728901050703</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.94413493162473</v>
+        <v>16.38415096586744</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.9782775408577</v>
+        <v>8.105149278218015</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.80981444603526</v>
+        <v>14.64682408445592</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.94627699178149</v>
+        <v>18.47080898732072</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>23.98634975519562</v>
+        <v>32.0829769136717</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.77614499461548</v>
+        <v>-0.922657472683035</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.87808537743582</v>
+        <v>5.370146497909559</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.92137495273359</v>
+        <v>15.2831978481989</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.8598054244037</v>
+        <v>3.042718786593312</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.93961252244657</v>
+        <v>17.32050719184037</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.88207644595039</v>
+        <v>18.08242796508292</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.9946103068292</v>
+        <v>26.66668810796071</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.01669356504732</v>
+        <v>27.16736320368495</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>23.89018026934522</v>
+        <v>0.9264869215958313</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23.97395146499874</v>
+        <v>20.01094059510069</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.99711200111443</v>
+        <v>19.14659603653968</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.95283584248854</v>
+        <v>4.050757613564848</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.01909078932269</v>
+        <v>29.27937968592601</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>24.03583889189101</v>
+        <v>27.47068987278584</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.04090522680931</v>
+        <v>37.976202598276</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>24.07724931627647</v>
+        <v>54.76814072113523</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>24.0981010728388</v>
+        <v>46.99179635508428</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.91749525408081</v>
+        <v>0.6579874513013664</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>24.03382713063825</v>
+        <v>43.29827904764151</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>24.06614511452794</v>
+        <v>30.95463714685352</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>23.85374358020709</v>
+        <v>14.26417247974715</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.01859798233745</v>
+        <v>30.59819520718731</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.05907433205816</v>
+        <v>42.07816031553159</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>23.83853219789918</v>
+        <v>3.541605262940884</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.96795705371941</v>
+        <v>25.28414727586898</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>24.01101291856507</v>
+        <v>38.96691166820687</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.93185740193278</v>
+        <v>11.54211126570487</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.03405880321396</v>
+        <v>42.94367833995318</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.87494743094975</v>
+        <v>12.00120628447373</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.98753510907148</v>
+        <v>22.18496862532131</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.00954171815804</v>
+        <v>24.51538178991929</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.88635799092342</v>
+        <v>-1.1003342928047</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.97150999334498</v>
+        <v>18.08415833370274</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.99458748944722</v>
+        <v>20.55747810439743</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.94776001866082</v>
+        <v>4.081915866904986</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.01525038578149</v>
+        <v>29.17454399917769</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.03201334013247</v>
+        <v>31.01735917332039</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.03753565321504</v>
+        <v>38.47945140839396</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.07383740526911</v>
+        <v>54.1822453704505</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.09494194327888</v>
+        <v>47.68255424040218</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.91411902209516</v>
+        <v>-8.333302413693723</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.03235544336373</v>
+        <v>38.87735800297457</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.06446523519222</v>
+        <v>29.46175225827936</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.84477516358251</v>
+        <v>9.638689224810404</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.00947275885645</v>
+        <v>24.60286659482015</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.04975640303261</v>
+        <v>39.61132756555097</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.83488930523422</v>
+        <v>-0.4030449791530692</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.9658748509989</v>
+        <v>17.22374375857918</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.00873130413494</v>
+        <v>37.33397800278994</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>23.92630412340036</v>
+        <v>7.110328100790476</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.02994150245928</v>
+        <v>34.65610998021356</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>23.88351675951601</v>
+        <v>6.94756944467073</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.9734462728945</v>
+        <v>15.69660651837754</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.99540619351352</v>
+        <v>22.35029163014395</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.89113769937843</v>
+        <v>-4.770228720884528</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.95726146095991</v>
+        <v>12.9907591732205</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.98082880572317</v>
+        <v>17.96730777784835</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.939273527593</v>
+        <v>-1.768088804423158</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.99145241097786</v>
+        <v>22.37976062688264</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>24.00894385207095</v>
+        <v>27.7736246352384</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.99854329026788</v>
+        <v>27.89762935532326</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.02812108886173</v>
+        <v>40.30492308693286</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.048728300823</v>
+        <v>36.34744905135665</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.90010844145203</v>
+        <v>-9.464266092314475</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.99195775762161</v>
+        <v>28.94462633517477</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.02465165532627</v>
+        <v>23.36116611889602</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.84796969800393</v>
+        <v>9.510939736355278</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.97990800099426</v>
+        <v>21.71760190992929</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.01825436944373</v>
+        <v>41.19842372387131</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>23.83474021463782</v>
+        <v>-0.6944127826604181</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.93734611985401</v>
+        <v>13.95646948615956</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.97877028672851</v>
+        <v>35.10260790656886</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>23.90738406631396</v>
+        <v>6.199179169009806</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.98823502314599</v>
+        <v>29.18054272509408</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>23.97217296248647</v>
+        <v>27.77436576594321</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.94207970739866</v>
+        <v>20.45730126139053</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.00049219254394</v>
+        <v>38.19850169950931</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.03642932849985</v>
+        <v>44.05493225392517</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>23.79879901329052</v>
+        <v>-1.454520960358415</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.94869083927801</v>
+        <v>17.55467214307296</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.00346269411642</v>
+        <v>24.75386193261701</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.80954091735039</v>
+        <v>12.76546490104575</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>23.96984128685839</v>
+        <v>22.05974415015955</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.01972085347279</v>
+        <v>32.5919766679522</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>23.77246428526697</v>
+        <v>-7.861242310287672</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>23.89866338955445</v>
+        <v>5.909881365367283</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>23.95309963061792</v>
+        <v>12.69344623345062</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.87797865772417</v>
+        <v>-2.479414124973076</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.9777824613495</v>
+        <v>21.25401588722165</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>24.01926699478624</v>
+        <v>30.51916235888444</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.01770679319183</v>
+        <v>22.12324080236283</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.0840719404557</v>
+        <v>41.99356877632771</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.12930684654019</v>
+        <v>44.06990107109531</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.83725516736121</v>
+        <v>-5.769578889672133</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.02075149844635</v>
+        <v>19.11995898714151</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.0895681119339</v>
+        <v>24.44267166689196</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>24.06623860998921</v>
+        <v>55.45864369340226</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.07439890520175</v>
+        <v>47.3988719027802</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>24.14174437661875</v>
+        <v>65.02333598388319</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>24.17920783302518</v>
+        <v>69.30050847771258</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>23.90329552490149</v>
+        <v>10.75782407099723</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.09182883125233</v>
+        <v>55.79999627219355</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.14571566310459</v>
+        <v>59.95990930109318</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.87882729494373</v>
+        <v>20.00770843113992</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>24.07114740941213</v>
+        <v>46.07837173937178</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>24.12119555079706</v>
+        <v>50.33930241905853</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.86442464667116</v>
+        <v>3.733435088294978</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>24.02192010215908</v>
+        <v>38.67969728270873</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>24.07583712598709</v>
+        <v>42.65009989884825</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>23.98048134821812</v>
+        <v>14.81390833272823</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>24.10585805130141</v>
+        <v>62.14217191445685</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>24.14670664179324</v>
+        <v>67.27431172463227</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>24.1948364841701</v>
+        <v>68.78589912524197</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.27088410841518</v>
+        <v>82.35660556971052</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>24.31777724803285</v>
+        <v>86.14267244603684</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>23.98203276823116</v>
+        <v>20.16666655901286</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>24.20935346189028</v>
+        <v>74.39194415534303</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>24.27682444438767</v>
+        <v>71.44167288271133</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.06207491765073</v>
+        <v>54.07640560944073</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.07048747944946</v>
+        <v>37.96744155974615</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.13723275373333</v>
+        <v>54.24481981573464</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.17497983310953</v>
+        <v>64.22286156117087</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.89988147991323</v>
+        <v>5.877639633721614</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.09032222198596</v>
+        <v>49.53992565679324</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.14393743434465</v>
+        <v>57.77545072885358</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.87686971829801</v>
+        <v>15.20221626902498</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.06867778576231</v>
+        <v>42.71021397595036</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.1181277268983</v>
+        <v>48.77847032812521</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.86915844153829</v>
+        <v>2.574783859479918</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>24.02789503618101</v>
+        <v>37.81574879248037</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.08115139804371</v>
+        <v>45.24613476596835</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.98233899930767</v>
+        <v>13.51941555782444</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>24.10889433879666</v>
+        <v>61.16008998774299</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.14932565560888</v>
+        <v>70.33699706779669</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.1991176991372</v>
+        <v>64.60153205784341</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>24.27439461384976</v>
+        <v>78.47204673945458</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.32124645946897</v>
+        <v>87.67894761993398</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.98752127675049</v>
+        <v>14.98631697028577</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>24.21628967279176</v>
+        <v>72.71820412421283</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.28291054019853</v>
+        <v>71.43184016306469</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.01964798543257</v>
+        <v>51.34857124278254</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.00346365654518</v>
+        <v>22.89178573050602</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>24.05870984147458</v>
+        <v>37.71688840184417</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.09425561655548</v>
+        <v>50.28566989780428</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>23.86738269107823</v>
+        <v>5.012162829345424</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>24.01716624186687</v>
+        <v>40.39966564032424</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>24.0696282840158</v>
+        <v>51.97265835437125</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.87014319888064</v>
+        <v>11.05948796606994</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.0242943433816</v>
+        <v>35.16561781332419</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>24.07130566077704</v>
+        <v>49.07736597693047</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.8574150136939</v>
+        <v>-3.835678901849391</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.98272738230227</v>
+        <v>27.09553594392261</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.03400260515297</v>
+        <v>40.52579194866986</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.94860809009763</v>
+        <v>4.255385902251035</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.04818851887865</v>
+        <v>45.27762853676607</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>24.08748988425472</v>
+        <v>62.01649102602477</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.1034796938184</v>
+        <v>45.35386167172265</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.16606443188471</v>
+        <v>63.519570952843</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>24.2099716669735</v>
+        <v>74.68849786954033</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.93308215505579</v>
+        <v>6.455104490480153</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.11427991405342</v>
+        <v>59.35950856846247</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.17917748923189</v>
+        <v>64.74603134301287</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.87948233359502</v>
+        <v>10.38826522848853</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.95885432183444</v>
+        <v>15.02026369662225</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.97768838679522</v>
+        <v>25.82467549014772</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>23.87808790611151</v>
+        <v>-3.58158594770158</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.93475027204109</v>
+        <v>15.14286831524422</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.95500125417079</v>
+        <v>21.97973229542409</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.92420131796867</v>
+        <v>3.342265652515334</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.96875931093732</v>
+        <v>32.73195949055309</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.98363053870597</v>
+        <v>36.52601013736003</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.9685814851786</v>
+        <v>18.60455933020103</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.99511616032742</v>
+        <v>25.30920759440535</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.0122221989558</v>
+        <v>24.09447324800457</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.88064711950336</v>
+        <v>2.560792977390804</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.95885418355007</v>
+        <v>21.35581995233256</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.98722836890497</v>
+        <v>36.40597469156813</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.85032367435182</v>
+        <v>15.27429207867138</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.96704783330129</v>
+        <v>21.0909100917005</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.99981572030116</v>
+        <v>30.85681722003529</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>23.82673571136388</v>
+        <v>-1.353147368828441</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.91537802403084</v>
+        <v>10.40961076399735</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.95075468271269</v>
+        <v>13.2436343739285</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.89608817216275</v>
+        <v>0.1250105819701481</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.96571436103088</v>
+        <v>21.95574056709663</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.90072509901148</v>
+        <v>20.2395807000886</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.9967798009142</v>
+        <v>32.92639299476509</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.01501055970955</v>
+        <v>36.30276867411684</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.91073513066535</v>
+        <v>7.311228402776081</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.98335568152644</v>
+        <v>36.0482422825474</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.00249425233638</v>
+        <v>39.26794069052735</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>23.96258334478165</v>
+        <v>9.985796901912863</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.0201724791757</v>
+        <v>48.42462886759091</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.03402114966797</v>
+        <v>47.61062121488047</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.04114268343935</v>
+        <v>49.93858939060147</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.07250642193417</v>
+        <v>59.00877605095739</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.08985854088912</v>
+        <v>58.30248891440679</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.93591593348192</v>
+        <v>19.1387140530833</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.03608120297132</v>
+        <v>52.67610172007549</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.062956093205</v>
+        <v>59.88168654391377</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>23.88949955242614</v>
+        <v>17.88733280251279</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.03003264992788</v>
+        <v>35.99832356559344</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.06309480584547</v>
+        <v>40.89222845614914</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>23.88177740028186</v>
+        <v>4.094092006180333</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.99352177865758</v>
+        <v>31.41170765384469</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.02865179931763</v>
+        <v>36.51362993024108</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>23.95904489798781</v>
+        <v>10.33414500442481</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.04750102010025</v>
+        <v>49.97582918428176</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.89524524722545</v>
+        <v>12.31310661573116</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.99126688071334</v>
+        <v>27.52581917554949</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.00943413316067</v>
+        <v>33.05212750920577</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.90796870502294</v>
+        <v>4.380220505911819</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.98164594550938</v>
+        <v>33.5779803427904</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.00071334979688</v>
+        <v>40.96135413693425</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>23.95875732079233</v>
+        <v>9.603575604284092</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.01729630941276</v>
+        <v>48.15499084741004</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.03115549155977</v>
+        <v>51.97429059008712</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.03872393054498</v>
+        <v>53.38263984541521</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>24.07001216884574</v>
+        <v>61.01611521757184</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.08756916046036</v>
+        <v>62.71197300287079</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.933569147505</v>
+        <v>3.449237382780652</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.03520896378003</v>
+        <v>43.68897419001019</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.06190611934908</v>
+        <v>54.75290412544872</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.88232633610691</v>
+        <v>14.21327022448918</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.02262202371507</v>
+        <v>31.164548490244</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.05553235677927</v>
+        <v>39.84981212884814</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.8789661773068</v>
+        <v>2.299873287635521</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.99188234703871</v>
+        <v>24.98294824336406</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.02685389483439</v>
+        <v>37.4872230895763</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.95462272324824</v>
+        <v>8.458446922145972</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.04416638104306</v>
+        <v>43.79390951039903</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>23.90093667395024</v>
+        <v>2.668343796494504</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.97778756602387</v>
+        <v>15.56486038828238</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.99592089913195</v>
+        <v>28.18194827602159</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.90991931221966</v>
+        <v>-2.600327977530903</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.96737560210991</v>
+        <v>24.18845648469672</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.98685368495123</v>
+        <v>36.59060585739185</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.94978746815154</v>
+        <v>0.8720436475226769</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.99525894292357</v>
+        <v>37.48948122853858</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.0097221532884</v>
+        <v>47.51647506054246</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.00341894932883</v>
+        <v>40.74679498693961</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>24.02898376535188</v>
+        <v>46.06019815694891</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>24.04610153253821</v>
+        <v>52.50782510553121</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.91935733795315</v>
+        <v>-3.680885531456056</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.99860749089864</v>
+        <v>27.31510656147509</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.025767588355</v>
+        <v>47.35566317013175</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.88179181585268</v>
+        <v>9.291825332462194</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.99438810197</v>
+        <v>25.17865872043811</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.025759970199</v>
+        <v>39.90828364260666</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.87482218179451</v>
+        <v>-0.6596417568168995</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.96358555501897</v>
+        <v>20.84185580312889</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.99745152789903</v>
+        <v>35.15994559619264</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.93499901964483</v>
+        <v>4.214318489031527</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.00512847321199</v>
+        <v>36.33990554262982</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.99230669768608</v>
+        <v>25.88285469962019</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.97358469280716</v>
+        <v>21.77939877899568</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.02351793176221</v>
+        <v>37.54526070763295</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.05317350875231</v>
+        <v>39.76867131875917</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>23.8512700985939</v>
+        <v>3.76982100740149</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.98044171402859</v>
+        <v>20.99656850591123</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.02537631878435</v>
+        <v>28.69738202007544</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>23.84475023689077</v>
+        <v>12.76997514418609</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.98117653629092</v>
+        <v>21.46503070996123</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.02206014828751</v>
+        <v>35.80360980918552</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.81835164670435</v>
+        <v>-5.413816038796604</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.92702832772298</v>
+        <v>10.24333729288465</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>23.97163977322124</v>
+        <v>20.14261233665635</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.90594640750005</v>
+        <v>-3.582775034372546</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.99208440131762</v>
+        <v>24.88006570119239</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>24.02606731337863</v>
+        <v>38.47775743879048</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.03010750345891</v>
+        <v>28.08751651676416</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.08659913923007</v>
+        <v>49.13773294388784</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.12401015339866</v>
+        <v>48.717740370105</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.87691335496491</v>
+        <v>-2.839932162183146</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>24.03391752297408</v>
+        <v>20.81167000906036</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.0904522614546</v>
+        <v>33.75685092586814</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>24.07373885880572</v>
+        <v>54.42949874867067</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>24.08774685252839</v>
+        <v>52.39980134379917</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>24.14515207582379</v>
+        <v>64.79605930382809</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>24.17607524279493</v>
+        <v>64.79749867122746</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.94211803240891</v>
+        <v>18.14515174751066</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.10368265721514</v>
+        <v>60.91598067012657</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.1478392792786</v>
+        <v>62.03306586947659</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.9042352539287</v>
+        <v>18.94680065115828</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>24.06746686365782</v>
+        <v>44.85213544357502</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>24.10846431881251</v>
+        <v>51.81083716503349</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>23.89717976127707</v>
+        <v>2.361995808945352</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.03210550704167</v>
+        <v>40.0525291851841</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.07625151007002</v>
+        <v>47.33674147369148</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>23.99342794887307</v>
+        <v>9.497045021351592</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>24.10101963759549</v>
+        <v>63.32258378203537</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>24.13445113746232</v>
+        <v>72.84152468966852</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>24.18055447710422</v>
+        <v>73.1600985906837</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.24513024596425</v>
+        <v>84.71898926558268</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.28392970107251</v>
+        <v>87.74339783875064</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.00029006562663</v>
+        <v>20.90457550229527</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.19397594344031</v>
+        <v>74.58575895097931</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.24937079317753</v>
+        <v>76.97497608487978</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.07037141973872</v>
+        <v>56.2795843631736</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.08458035322684</v>
+        <v>45.42541108140691</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>24.14143435782941</v>
+        <v>55.24618460592615</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>24.17259051501322</v>
+        <v>62.4943830493579</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>23.93946622790202</v>
+        <v>12.77437011788778</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.10246601364543</v>
+        <v>54.34978682244888</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>24.14640284891158</v>
+        <v>60.21170906051575</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.9030304626373</v>
+        <v>12.98035121359935</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>24.06573088731114</v>
+        <v>40.78007952037788</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>24.10624259165501</v>
+        <v>49.85899364455958</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>23.90146813796013</v>
+        <v>1.397780511191918</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.03730206194981</v>
+        <v>39.41446642348672</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>24.08090934046217</v>
+        <v>50.94467348722993</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.99530054606069</v>
+        <v>8.715273925986462</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.10376751443885</v>
+        <v>62.91400692901765</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>24.13686065282144</v>
+        <v>77.42313902000208</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.18435808319489</v>
+        <v>69.54256739427703</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>24.2482400935461</v>
+        <v>80.24726482380294</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.28700365754872</v>
+        <v>90.48221433722225</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.00519971542346</v>
+        <v>12.54703791576359</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>24.19993909367679</v>
+        <v>70.60347692474667</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.25463870104602</v>
+        <v>75.11656053380113</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.03079794543486</v>
+        <v>52.43923363074381</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.02329767368182</v>
+        <v>28.06403724602292</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>24.07043427699931</v>
+        <v>38.01078810899625</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.09976191268694</v>
+        <v>48.59685339502305</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.90730024758903</v>
+        <v>9.143885016382601</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>24.03586655813866</v>
+        <v>44.39857783779696</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>24.07891656038998</v>
+        <v>56.28696229356051</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.89541226589548</v>
+        <v>8.50269836657538</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>24.02636868520035</v>
+        <v>34.59874609736688</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>24.06491361061996</v>
+        <v>52.4388277613972</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>23.88887392700663</v>
+        <v>-3.548019664466761</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>23.99639184732465</v>
+        <v>31.95596662041474</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>24.03842172438051</v>
+        <v>49.50036476003446</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>23.96453777216275</v>
+        <v>1.387592864260519</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>24.0501344567898</v>
+        <v>50.04604685724666</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>24.08233891496626</v>
+        <v>72.40318166544931</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>24.10071659769952</v>
+        <v>56.48357157151617</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>24.15390279505244</v>
+        <v>71.79266035462956</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>24.19020817291644</v>
+        <v>83.31166966362363</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.95621394999804</v>
+        <v>6.374105047928985</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.11079870147435</v>
+        <v>61.80088785433481</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.16412304583771</v>
+        <v>74.69504767962911</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.88727756845472</v>
+        <v>18.16607553070224</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.9683375303189</v>
+        <v>14.2257310684185</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.9885881393713</v>
+        <v>29.39108135941902</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.89080392073031</v>
+        <v>13.46878469661407</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.94738920506372</v>
+        <v>25.61844336738123</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.96923595597943</v>
+        <v>34.57462247072232</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>23.93545946117827</v>
+        <v>17.3302895555944</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.97986680844615</v>
+        <v>40.46137124152088</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>23.99595280974462</v>
+        <v>47.27358023730863</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.98194016189398</v>
+        <v>19.35152703924504</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.00829410554692</v>
+        <v>22.63547879104166</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.02734554076453</v>
+        <v>22.87901810622587</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.89379653325204</v>
+        <v>20.83472166716884</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.97164630319184</v>
+        <v>15.84804638406343</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.0027405156643</v>
+        <v>38.70086896081103</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.85004281559903</v>
+        <v>17.94932219894567</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.96942967377267</v>
+        <v>15.59493353429575</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>24.00467925099669</v>
+        <v>26.29885116401473</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>23.83116880310144</v>
+        <v>21.32182701884301</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.92026797392522</v>
+        <v>23.45426209693375</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.95839709581289</v>
+        <v>26.57010269820471</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.89908089694189</v>
+        <v>7.095840748953901</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.96892440572599</v>
+        <v>21.3593483847603</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.91181855792383</v>
+        <v>22.46018688241941</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.01016644868309</v>
+        <v>28.29863010229171</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.02990379579004</v>
+        <v>35.42538442421876</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.92800997473291</v>
+        <v>19.70962613699421</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.00106442502932</v>
+        <v>43.85110770985824</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>24.02187589119467</v>
+        <v>48.24461531172723</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>23.97830619649668</v>
+        <v>17.64211638811431</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>24.03615823568282</v>
+        <v>51.85767119428782</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>24.05128253521608</v>
+        <v>53.41038137706975</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>24.06125322928011</v>
+        <v>55.07585296763366</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>24.09255967193148</v>
+        <v>61.27993937090912</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>24.11200112895624</v>
+        <v>62.21266944241581</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.95537192064373</v>
+        <v>37.79941227711262</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>24.05586337654978</v>
+        <v>52.01390188164362</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>24.08559998151354</v>
+        <v>64.27477572595063</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>23.89331695846968</v>
+        <v>16.31062851732758</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>24.03739509443538</v>
+        <v>25.04031276159448</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>24.07314243616957</v>
+        <v>31.06014069379118</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>23.89195653082372</v>
+        <v>23.12037996759035</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.00493170140454</v>
+        <v>38.58398979516099</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>24.04300761558792</v>
+        <v>44.86387431609443</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>23.96768735975828</v>
+        <v>11.09363823076314</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.05698512523434</v>
+        <v>41.77585051830218</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.90612201656108</v>
+        <v>11.30933608980825</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>24.0045230496716</v>
+        <v>22.97501588591778</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.02420473647663</v>
+        <v>32.41294792225902</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.92507855520595</v>
+        <v>13.1172600947988</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>23.99935366616072</v>
+        <v>41.62268281490923</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.02009887746488</v>
+        <v>50.49487725404079</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>23.97437028994345</v>
+        <v>12.83590126448588</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>24.03330991798336</v>
+        <v>50.91054742555141</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>24.04845359499884</v>
+        <v>57.47327962275993</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.05894487371445</v>
+        <v>56.47999346539761</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.09022597192228</v>
+        <v>62.14909838894624</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>24.1098678134603</v>
+        <v>65.49390578617943</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.95299549371076</v>
+        <v>15.13487760965245</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>24.05519551748311</v>
+        <v>42.97959875474216</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.08474160801651</v>
+        <v>59.27774000032587</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.88628482817347</v>
+        <v>12.53889809913354</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>24.03023700930864</v>
+        <v>21.49763370040653</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.0658357792837</v>
+        <v>31.40052108605395</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>23.88942601553144</v>
+        <v>20.47638364950244</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.0037851304551</v>
+        <v>32.70001293170439</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>24.04170238908232</v>
+        <v>46.74273546148617</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>23.96360281932656</v>
+        <v>7.495673476254961</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.05416769097111</v>
+        <v>35.16702134537405</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>23.90943713505596</v>
+        <v>0.2258809607062169</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>23.98812780552427</v>
+        <v>10.64483269337661</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.00764748645849</v>
+        <v>26.20606782547418</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>23.92348282061178</v>
+        <v>6.045502573605628</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>23.98125466217692</v>
+        <v>33.90847531612658</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.00228411770602</v>
+        <v>46.48712095140657</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>23.96196296592619</v>
+        <v>3.501864324453578</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>24.0076167776764</v>
+        <v>41.2438104443091</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>24.02327303678351</v>
+        <v>52.5732151544467</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.01848223159697</v>
+        <v>42.02355367753044</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.04399293098209</v>
+        <v>44.61699720387269</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.06297521850603</v>
+        <v>50.28365110665457</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>23.9339280973389</v>
+        <v>3.789686885729282</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>24.01338135673602</v>
+        <v>24.06051231700026</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.043141902473</v>
+        <v>48.62306445367985</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>23.88404273138153</v>
+        <v>8.526560199456707</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>23.99948588457859</v>
+        <v>17.87649803611333</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.03326045287714</v>
+        <v>33.51178889967444</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>23.88223466564479</v>
+        <v>19.45817976844693</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.97194863440339</v>
+        <v>32.95107295732716</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>24.00846920817742</v>
+        <v>47.89030667067563</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.94099565260478</v>
+        <v>6.453773774402872</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.01176624722219</v>
+        <v>32.7649312094301</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>23.99765339614606</v>
+        <v>25.39900375950153</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.9779645094735</v>
+        <v>14.80752986234078</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.02839536883203</v>
+        <v>30.49069417504549</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.06123708817358</v>
+        <v>30.02143268949897</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.85490574391319</v>
+        <v>9.535549583635884</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.98470073314414</v>
+        <v>12.99118149481271</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.03395402598741</v>
+        <v>24.55293647859707</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.84931371299078</v>
+        <v>19.69666425986451</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.98920845702061</v>
+        <v>21.65120981252099</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.03278248642349</v>
+        <v>33.56770580586127</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>23.828413062759</v>
+        <v>24.89119171841063</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.93831238053634</v>
+        <v>30.55320184006317</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.98591730922399</v>
+        <v>37.07666568339815</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.91499457142652</v>
+        <v>11.30314285279022</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.00197233909289</v>
+        <v>32.85307901131692</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.03827921521494</v>
+        <v>42.33143610026027</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.04389474113658</v>
+        <v>31.2403390700906</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>24.10097731750897</v>
+        <v>47.98918806210368</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.14195839404641</v>
+        <v>49.4082284523277</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>23.88860193362292</v>
+        <v>15.21948572353602</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.04737454434012</v>
+        <v>22.83457633075457</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>24.10852772315622</v>
+        <v>38.14901800746242</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.08551586098068</v>
+        <v>46.78580966328225</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.10090848561273</v>
+        <v>45.18016969680014</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>24.15903554945693</v>
+        <v>56.53607383206698</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>24.19340858516249</v>
+        <v>53.31335087294885</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.9539050982299</v>
+        <v>24.26768269701916</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.11716196517471</v>
+        <v>52.59730239564831</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.16592762709655</v>
+        <v>57.53329832808373</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.91450081627967</v>
+        <v>22.57280069098939</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.08221007526965</v>
+        <v>40.68154941280568</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>24.12609186835902</v>
+        <v>46.03946335070221</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.91485201868525</v>
+        <v>28.20225136298117</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.05190291437754</v>
+        <v>53.8111677081334</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>24.09922591094901</v>
+        <v>59.36581773303016</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.00998409488453</v>
+        <v>18.10248074779083</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>24.11914584195574</v>
+        <v>64.04103506284267</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>24.15504849829691</v>
+        <v>70.48767208244858</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>24.20571326050981</v>
+        <v>79.91672319690119</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.27110605807111</v>
+        <v>84.60952623559521</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.31375598514177</v>
+        <v>88.13170153898034</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>24.0225420906121</v>
+        <v>40.97624949665065</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>24.21924843654381</v>
+        <v>76.98823861208956</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>24.27953608425459</v>
+        <v>83.40989881002959</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>24.08267207853609</v>
+        <v>48.70944960797517</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.0984296325545</v>
+        <v>36.93204947630812</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.15604985422983</v>
+        <v>46.17635840993731</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.19064097156655</v>
+        <v>51.02801294795675</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.95178177594221</v>
+        <v>16.73710936810897</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.11676696927336</v>
+        <v>46.07073270618505</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.16528840356028</v>
+        <v>56.10515793346616</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.91368669385215</v>
+        <v>16.77023775758119</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.08096824527916</v>
+        <v>37.89924831171405</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>24.12435970113852</v>
+        <v>45.22495597549266</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.91970796742689</v>
+        <v>27.2667405332912</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.05787502756594</v>
+        <v>54.47164910123125</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.10464988201294</v>
+        <v>64.18960721653741</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.01245384413082</v>
+        <v>16.47200407099247</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.12266732275826</v>
+        <v>63.98179815123316</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.15823095302051</v>
+        <v>75.44593105367576</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.21049599881996</v>
+        <v>74.8663324375334</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>24.2752379974908</v>
+        <v>79.64714251755416</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.31782802485055</v>
+        <v>90.79760398664271</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.02829144259326</v>
+        <v>30.40831066174731</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.22633449069804</v>
+        <v>72.43360090669646</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.28589186299131</v>
+        <v>81.35698844611332</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>24.03951186169878</v>
+        <v>49.32535265536745</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.03196514614487</v>
+        <v>22.00078889822132</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.07969179339858</v>
+        <v>30.47051501396411</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>24.11205674714732</v>
+        <v>39.32895287099346</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.91492721141203</v>
+        <v>12.08733200431494</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.04478860879091</v>
+        <v>36.7239162297579</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>24.0919549775266</v>
+        <v>52.62870274504751</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.90318678777922</v>
+        <v>13.23839315746467</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.03775104233786</v>
+        <v>32.85968827206954</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>24.07888617600519</v>
+        <v>48.41586307517483</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.90267813967534</v>
+        <v>25.31115207197475</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.01187820850649</v>
+        <v>50.82702335981203</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>24.05677863358635</v>
+        <v>65.46892399783903</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.9772630277805</v>
+        <v>12.36914472801615</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>24.06409601119958</v>
+        <v>54.47600531736204</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>24.09854491047982</v>
+        <v>73.04277049809109</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>24.11949042065712</v>
+        <v>61.29054729688808</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>24.17335579776474</v>
+        <v>70.21480400305762</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>24.21305331303821</v>
+        <v>84.95392861468977</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.97268055578138</v>
+        <v>21.87426240512543</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>24.12964554306318</v>
+        <v>60.97649247552792</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.18735723131302</v>
+        <v>78.31112765349405</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.546</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.34</v>
+        <v>17.174</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.724</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.07</v>
+        <v>12.956</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.835</v>
+        <v>3.968</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.132097143515566</v>
+        <v>6.865258329681723</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1542240270089295</v>
+        <v>9.681883201971104</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.89365225432407</v>
+        <v>19.09852851836736</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.295838185297708</v>
+        <v>-1.453562592107691</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.888671564813151</v>
+        <v>11.42638759204098</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.84809231401483</v>
+        <v>13.96778078183153</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.9586254613668359</v>
+        <v>1.641701283071669</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.55448818637252</v>
+        <v>22.64407863783989</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.67455251643069</v>
+        <v>28.36099573833011</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.845024208695062</v>
+        <v>11.46035074911713</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.570494686398753</v>
+        <v>15.20039383618155</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11.29951641414306</v>
+        <v>18.36972722541547</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.30452022405126</v>
+        <v>13.36991294005986</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.78581848194247</v>
+        <v>15.40759947286848</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.45289764984791</v>
+        <v>32.36926890262578</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.82877227932155</v>
+        <v>6.195474443435131</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17.94071073155331</v>
+        <v>22.37377046019287</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.96488895517396</v>
+        <v>27.74389967299638</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.571667423695434</v>
+        <v>-1.9212886775424</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.3446533882905</v>
+        <v>9.557789514606881</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.72766848413652</v>
+        <v>15.46309291168568</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.4589395498448177</v>
+        <v>-1.810170092717836</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.42392545611868</v>
+        <v>23.57117657662194</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.723044689257632</v>
+        <v>8.532448831120981</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12.01272762793437</v>
+        <v>17.76011794291566</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>19.2052234811313</v>
+        <v>21.74255139635546</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.319657765854686</v>
+        <v>-0.8105004104942992</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.72606994550484</v>
+        <v>23.56884595475566</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.95829517975817</v>
+        <v>23.95273442893465</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.6450853198353244</v>
+        <v>4.82172928455887</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.33294002216975</v>
+        <v>32.95777282325466</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.01613259907429</v>
+        <v>35.73074068390034</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.65000831695381</v>
+        <v>34.17168536364718</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.42864787507661</v>
+        <v>37.77944921520324</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.31874883928754</v>
+        <v>39.92851245538251</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.5168153416743</v>
+        <v>18.38727209962091</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.65083575827218</v>
+        <v>43.52156936127817</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>50.46841778235802</v>
+        <v>49.79744975341961</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.16526334264289</v>
+        <v>13.83277774937265</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.98917645272608</v>
+        <v>34.03374744915227</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.60619815695095</v>
+        <v>37.36681204316694</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.31143305144877</v>
+        <v>3.269588499872441</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.40028868344871</v>
+        <v>29.54314581719039</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.11376890583668</v>
+        <v>35.73424595517197</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.81689643728807</v>
+        <v>5.415717185086496</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>48.66639888114459</v>
+        <v>52.07342743488971</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.2930343018557444</v>
+        <v>0.1958711335488239</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.593918047929012</v>
+        <v>10.43824415501208</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.84463095398716</v>
+        <v>19.74650797280967</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.689827620751103</v>
+        <v>-2.381830830742366</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>15.18221209936099</v>
+        <v>20.75977659196651</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.97190692457711</v>
+        <v>23.78418789949089</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-0.08463560828606731</v>
+        <v>5.187995423067434</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.60989310464272</v>
+        <v>31.62175444220441</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.26878062581211</v>
+        <v>38.6004100492803</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.84933173566905</v>
+        <v>38.28731094689109</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33.01710434794438</v>
+        <v>42.94931106373125</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>39.92869104867311</v>
+        <v>44.9021374655128</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.167620976973872</v>
+        <v>1.157378657002717</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.49505891880422</v>
+        <v>30.59211972876177</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42.21670549783965</v>
+        <v>38.46695233122971</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.73584554898655</v>
+        <v>8.661625460206178</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.05474215969389</v>
+        <v>29.54782993380832</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>39.25911313774083</v>
+        <v>35.07111302522677</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.615536022300489</v>
+        <v>2.125671008965799</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.38933420712388</v>
+        <v>24.8609954231214</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.57709038375726</v>
+        <v>34.97811785143512</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>9.901249588114064</v>
+        <v>4.634528386382438</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.66601632715583</v>
+        <v>46.09650596719807</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-9.812473824015441</v>
+        <v>-1.335540400677125</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-4.215637890343164</v>
+        <v>6.903033586919705</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>11.51554972214265</v>
+        <v>20.70155020088833</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-8.63926755592383</v>
+        <v>-2.173860350788999</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>8.580479637671655</v>
+        <v>19.43345927623359</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24.38249511478816</v>
+        <v>27.03889483568115</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-8.530065292626595</v>
+        <v>-1.461276430135747</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>18.00771583821141</v>
+        <v>26.47591338037495</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.63128266148026</v>
+        <v>38.13673451065732</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>18.99105360038544</v>
+        <v>29.00186485696118</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22.19297601014544</v>
+        <v>32.75141323934996</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.14269400276822</v>
+        <v>41.00928615174623</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-2.92092339470555</v>
+        <v>-1.355458746164473</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>14.8684405774006</v>
+        <v>23.81025383589582</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.41215629643412</v>
+        <v>39.50682965656047</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.190525758528622</v>
+        <v>5.234801532560855</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>22.64075286023707</v>
+        <v>24.47426348361718</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.46280299031775</v>
+        <v>33.87594890358514</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1.429742502025864</v>
+        <v>2.298436535147946</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.18470486781068</v>
+        <v>20.80070062134304</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.63537655936746</v>
+        <v>34.10332459459669</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4.927190182039691</v>
+        <v>3.168735662226602</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.86727755941892</v>
+        <v>36.2701438644233</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.92106796781825</v>
+        <v>29.25415756598092</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>19.69388865266703</v>
+        <v>25.0045530389707</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.46794037999314</v>
+        <v>37.50330124324646</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>38.33569890570851</v>
+        <v>40.23008451032541</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.07724432529988</v>
+        <v>6.951276912056137</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.08126662574206</v>
+        <v>22.28676843566315</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.8739395998987</v>
+        <v>30.09897014034151</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>12.6598095247918</v>
+        <v>11.17458202370355</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.49733849405739</v>
+        <v>24.48452754790576</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.9329002295833</v>
+        <v>36.87668619250157</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-4.100302297053609</v>
+        <v>-5.534098384496311</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>15.5940094725243</v>
+        <v>9.962216447382961</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.39433723772166</v>
+        <v>18.98608821643984</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.114706498671531</v>
+        <v>-2.246013911839817</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.07413427553375</v>
+        <v>27.77186342070785</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.00082186783988</v>
+        <v>46.52545048019695</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>35.87134391466546</v>
+        <v>29.78468093839361</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>52.39855579945205</v>
+        <v>48.19457684471111</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>53.17577800201387</v>
+        <v>52.79824501744271</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.157397147010176</v>
+        <v>5.346006550802517</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.23041113740851</v>
+        <v>25.38872056149946</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>45.15803509766232</v>
+        <v>39.94401495339932</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>56.30588975456315</v>
+        <v>59.31845406116577</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.45075669050764</v>
+        <v>51.18791414011976</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.95727730960107</v>
+        <v>59.46753016324603</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>61.12105878647426</v>
+        <v>62.23484558424212</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.51337872713313</v>
+        <v>17.03966138759031</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>58.07314372270907</v>
+        <v>56.72175990783158</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>62.89106782578632</v>
+        <v>59.4704042436807</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>17.57416313785346</v>
+        <v>18.81716980981954</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.31611256488129</v>
+        <v>40.22427970140497</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.72459461561076</v>
+        <v>46.89910175787962</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2.256629439889938</v>
+        <v>4.433438904118947</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.68379308790053</v>
+        <v>43.72755660758276</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>48.78732907107523</v>
+        <v>48.26961700936976</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>13.09996067462172</v>
+        <v>7.738158180280848</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.34835780036875</v>
+        <v>69.3605358279266</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.6501049181431</v>
+        <v>75.01497319621123</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.26422250447985</v>
+        <v>76.97618868643883</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.84794897544256</v>
+        <v>82.49200245832998</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>87.59478963481362</v>
+        <v>88.6462591137124</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.80857322328803</v>
+        <v>26.47182221058303</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.04523232376738</v>
+        <v>77.80892609273808</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.80484143447688</v>
+        <v>82.22264195253838</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.30216147000937</v>
+        <v>60.66070146902654</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.9467407600486</v>
+        <v>45.83053861415038</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.44622563491777</v>
+        <v>52.72990190246448</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.17314324800221</v>
+        <v>61.3217392087315</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.27244329462239</v>
+        <v>9.299135456101062</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.34338453930916</v>
+        <v>52.05628993522478</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>60.12699804844591</v>
+        <v>57.40023099110365</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12.75617319528452</v>
+        <v>12.27667419134961</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42.53577707948773</v>
+        <v>36.48970496822773</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>50.07074166198112</v>
+        <v>44.42928195775038</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1.802170343722516</v>
+        <v>2.868934007277854</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.04248509503856</v>
+        <v>42.59078021885422</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.88696682487207</v>
+        <v>48.80663121435657</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>13.39708814308885</v>
+        <v>6.317474339297107</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.43103384449213</v>
+        <v>68.74360765557405</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>80.13765641810404</v>
+        <v>76.29962005331765</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>73.89004659434977</v>
+        <v>75.65226806946625</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.67762874913043</v>
+        <v>81.34094309883409</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>91.14718749092205</v>
+        <v>91.07652712369855</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.73874210645545</v>
+        <v>14.65683662411275</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>76.20008210817099</v>
+        <v>75.67896797243256</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.38604321800415</v>
+        <v>81.52441330105511</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.11365228389262</v>
+        <v>55.27233880417531</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.72630257409145</v>
+        <v>30.53539538300486</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.69901209306457</v>
+        <v>38.53842030605271</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>47.37219696040508</v>
+        <v>46.26264628938603</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11.71413824007877</v>
+        <v>7.493408972780664</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.61281967664679</v>
+        <v>45.70856201544422</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>59.17159817073168</v>
+        <v>53.68566658488472</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.11231784836582</v>
+        <v>9.557674778717779</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.2465258035451</v>
+        <v>35.29174423752436</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>55.03951275998898</v>
+        <v>46.78892210884113</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.7789201544136937</v>
+        <v>2.471994687479615</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.09050823396989</v>
+        <v>36.21860797106196</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>54.20765734351676</v>
+        <v>47.3779756958324</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>9.023786279360365</v>
+        <v>2.692137018329291</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>60.18132264130396</v>
+        <v>59.18583275523015</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>79.55818511773191</v>
+        <v>75.21941645336305</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.17601064353369</v>
+        <v>65.46829362552867</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>77.62947025457368</v>
+        <v>79.57027396503358</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.61262324169962</v>
+        <v>87.27755764508746</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>15.64987828403463</v>
+        <v>9.758719606699806</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>72.73120298183483</v>
+        <v>72.79849200537498</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>83.58918089342092</v>
+        <v>80.39075360624366</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>12.03130425147381</v>
+        <v>16.55451111679387</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-7.697015444016369</v>
+        <v>13.898783003646</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.18975245253327</v>
+        <v>19.82714482884868</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-6.416534487956575</v>
+        <v>5.289733436785117</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-18.00696920781731</v>
+        <v>9.739637573591342</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-12.49249768404066</v>
+        <v>11.4039367921106</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-3.084298042215423</v>
+        <v>8.941920441586461</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-5.167071906145953</v>
+        <v>16.49266102119981</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.4310900157942896</v>
+        <v>20.09405474314764</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-13.58640724813428</v>
+        <v>12.53729957414298</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-7.13183351189998</v>
+        <v>17.21695776497707</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-6.285410480038848</v>
+        <v>18.45382719510491</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.999470956649773</v>
+        <v>16.55154102455021</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-3.879782454865349</v>
+        <v>12.36622387672824</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-5.863280368075074</v>
+        <v>17.8947057146467</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.73962942108609</v>
+        <v>9.437003259553276</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>7.310408382557714</v>
+        <v>20.24443573951277</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.21971463068705</v>
+        <v>26.35133368564614</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.281555665451474</v>
+        <v>1.307093032278424</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-4.303529531615684</v>
+        <v>8.141531747727004</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>6.882782728601111</v>
+        <v>11.92384048779714</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.582666168816786</v>
+        <v>4.438683120823178</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>7.11880965603266</v>
+        <v>18.41985674883507</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>10.94274895732937</v>
+        <v>16.54673035561433</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-2.709655038960356</v>
+        <v>18.34005352641645</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2.977672027406474</v>
+        <v>21.22658942006596</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-4.42890720836094</v>
+        <v>5.557565366963857</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-8.127187199797788</v>
+        <v>17.81730640058772</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-4.852432979213631</v>
+        <v>18.45674612116933</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-5.114212057434116</v>
+        <v>10.7412347818646</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-0.137124540786175</v>
+        <v>25.00683761608081</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1.649803218829572</v>
+        <v>27.27356188207431</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>9.948037402445458</v>
+        <v>29.36555865943307</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>19.69544588811164</v>
+        <v>35.98533880842926</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.16878428410372</v>
+        <v>36.70086142478155</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>17.63879632674123</v>
+        <v>21.42408754444528</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>19.97175612987709</v>
+        <v>33.71620808286072</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>10.45092717274638</v>
+        <v>31.22523911957614</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.11837452104711</v>
+        <v>14.62136855143242</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>18.52865899787513</v>
+        <v>28.56837945567286</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.81201036453293</v>
+        <v>34.32111871932515</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.298925559508572</v>
+        <v>6.392462197914519</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>15.94915245471311</v>
+        <v>24.11555725709801</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.25280639184535</v>
+        <v>33.39874254061753</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9.760315972631508</v>
+        <v>10.90835943965317</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.11465005093029</v>
+        <v>41.05735566052385</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1.442914829099522</v>
+        <v>9.169220457001629</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-10.4922721614074</v>
+        <v>13.1858287439353</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-2.447242326689025</v>
+        <v>19.08028675394167</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-12.9209660330487</v>
+        <v>4.292464635721274</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-13.18591478715273</v>
+        <v>16.52270298156127</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-5.743195827015906</v>
+        <v>18.8349722434605</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-11.85966902872554</v>
+        <v>9.717408110771554</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-3.942665839744212</v>
+        <v>24.82792188756772</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2.449241818060759</v>
+        <v>29.66671286769413</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6.281863057225451</v>
+        <v>29.78260378199699</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16.1317516454716</v>
+        <v>36.88806678512489</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.93654368065775</v>
+        <v>37.84507666625903</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-4.607664836797646</v>
+        <v>13.37150554359743</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.278830688539069</v>
+        <v>29.07438847544883</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>3.447557500935332</v>
+        <v>28.42382723795024</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.628316847949574</v>
+        <v>8.986877786750672</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>10.69470226348824</v>
+        <v>21.86705101503676</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.49133192418005</v>
+        <v>31.28927500503755</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-2.784063310997244</v>
+        <v>2.165180371799163</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5.579698623296313</v>
+        <v>15.2727556128371</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.85909675357826</v>
+        <v>30.34345872620849</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1.515021927017038</v>
+        <v>4.831912945827352</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>21.73657079394945</v>
+        <v>26.46148327031886</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-7.306104570839583</v>
+        <v>8.170845147936728</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-15.8425696344863</v>
+        <v>10.14292143900756</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-3.924362700499756</v>
+        <v>18.2030214034975</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-17.53419680576537</v>
+        <v>3.791847008382412</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-16.73254650174803</v>
+        <v>15.21037002670578</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-7.554214349372103</v>
+        <v>19.60615863108777</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-17.61600300936107</v>
+        <v>6.177203755908867</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-8.32136499517911</v>
+        <v>20.38625191382017</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.8513967698220632</v>
+        <v>27.611216829923</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-8.131414468906446</v>
+        <v>20.79596981627439</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-0.04335250584568939</v>
+        <v>26.24410937691501</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2.683734246689969</v>
+        <v>27.68958496001277</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-10.07529545636759</v>
+        <v>9.89665613267989</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-2.730553207201112</v>
+        <v>21.65448990143679</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-3.975147885672815</v>
+        <v>25.01250881571046</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>4.68621929747238</v>
+        <v>8.089043384220385</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>9.481430277132935</v>
+        <v>19.97523249088189</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.12024602258471</v>
+        <v>31.59956001911888</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.867565125439587</v>
+        <v>4.163773082197245</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>4.402255063367392</v>
+        <v>14.73252449618292</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.48947227967263</v>
+        <v>29.49635316664653</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1.961055325417146</v>
+        <v>6.773959724898944</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>19.11902535143481</v>
+        <v>23.84302671459919</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>18.52272984199153</v>
+        <v>24.02882631589139</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4.086602547876872</v>
+        <v>19.87506568095007</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.95478484991535</v>
+        <v>29.54148621158485</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.46188299626913</v>
+        <v>35.87814241260551</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>5.954570677410565</v>
+        <v>7.330793836840716</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>10.75122218515056</v>
+        <v>17.49592798326257</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.59053545465307</v>
+        <v>24.04438087104561</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.52898910477673</v>
+        <v>14.97719766446211</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>17.91616169782314</v>
+        <v>23.14994103338037</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.67726021773002</v>
+        <v>30.23282040527063</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.3444782440538603</v>
+        <v>-0.8527536748487563</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>4.615185271874509</v>
+        <v>7.769559000299896</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.29518905298067</v>
+        <v>12.41628601711618</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.976998354236208</v>
+        <v>4.376070177341099</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>20.49608334517323</v>
+        <v>21.87875034497517</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.54808346335775</v>
+        <v>28.71047484716538</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.19275682171655</v>
+        <v>21.73181749527547</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>38.82385183765388</v>
+        <v>34.21953686927498</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>43.20649218792069</v>
+        <v>37.18502231824461</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>13.20948874164447</v>
+        <v>11.66530549074126</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.98254639719484</v>
+        <v>20.30976195187998</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.02961692118872</v>
+        <v>26.32082974741135</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>46.63782474903985</v>
+        <v>51.1944222789827</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.17659091744772</v>
+        <v>40.65499349290035</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.58550263408901</v>
+        <v>50.35193919208174</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>62.52412589981157</v>
+        <v>57.63471075365688</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.63629039789514</v>
+        <v>18.09473513787207</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.58076796655006</v>
+        <v>50.57644405180905</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>57.86217484771684</v>
+        <v>53.98725605997649</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.95329646536207</v>
+        <v>22.9684909263892</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.88683456721884</v>
+        <v>35.94911244939808</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.81363243727343</v>
+        <v>41.74899775407592</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.34698706379267</v>
+        <v>9.485476174860374</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>37.50391610794573</v>
+        <v>33.17332968920165</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.68900778004409</v>
+        <v>39.4641361034277</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.3562275424464</v>
+        <v>17.75925617799316</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.9446112040124</v>
+        <v>57.1803701001113</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>67.84379589407121</v>
+        <v>60.28099386837562</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.24335319768021</v>
+        <v>62.49413239063279</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>83.8384737629699</v>
+        <v>68.22369260477777</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>90.5606630243237</v>
+        <v>73.63866082662113</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>44.77683888586601</v>
+        <v>35.37350119236559</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>84.6010841800167</v>
+        <v>67.61881964762682</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>80.33825448112806</v>
+        <v>71.35777975187753</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>43.85726755743407</v>
+        <v>48.33118764830891</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.19122986839101</v>
+        <v>28.79940172130753</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.89945157790004</v>
+        <v>40.18552797929538</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>56.01386318855045</v>
+        <v>54.24646310955059</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.0235350848405</v>
+        <v>10.84814802289776</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42.92969784290351</v>
+        <v>43.25333086712251</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>53.59146635233781</v>
+        <v>51.47130207487808</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.68115285867432</v>
+        <v>16.59664736507018</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.38464332116617</v>
+        <v>31.0318538115917</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>44.70307019245192</v>
+        <v>39.56160366736015</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>8.996775006848566</v>
+        <v>6.883036495928749</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.82163766624456</v>
+        <v>31.17070601131341</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.38594632707397</v>
+        <v>39.89887178495119</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>18.55515765972641</v>
+        <v>13.40707568173283</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>60.72087967269481</v>
+        <v>51.3537301722013</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>70.71830365404095</v>
+        <v>60.40597889874989</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>63.8776731165586</v>
+        <v>56.26613418113276</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>77.89716570014161</v>
+        <v>64.32910008341103</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>91.32760211873605</v>
+        <v>74.48589156650286</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.0879515572752</v>
+        <v>24.00556604034472</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>80.04194988793738</v>
+        <v>63.09988852418942</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.3996868077035</v>
+        <v>70.33550645190506</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>44.02027899672031</v>
+        <v>46.73330036774645</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>5.18112146375687</v>
+        <v>19.2588261488221</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.75235256196381</v>
+        <v>28.18793669757663</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.51089814393647</v>
+        <v>41.64817080960685</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.526080247101724</v>
+        <v>8.754993088009964</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.70046689619474</v>
+        <v>35.13098540054591</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.70434202205691</v>
+        <v>45.57963831046916</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.42104199543039</v>
+        <v>15.14924599751294</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.93525886122175</v>
+        <v>30.84463302810862</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.87318833518339</v>
+        <v>41.68059262176895</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5.166218489674016</v>
+        <v>6.623625618693737</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.2011424056271</v>
+        <v>27.05858526017313</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.91735865082875</v>
+        <v>38.28218939996938</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>12.42086871516257</v>
+        <v>11.01530984296777</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>48.89601893397024</v>
+        <v>44.33151905820606</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>65.911609918083</v>
+        <v>59.66209462616516</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>45.10733517083739</v>
+        <v>43.50711335446945</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>63.66389888191586</v>
+        <v>56.42359928916915</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>79.55304831948212</v>
+        <v>69.29236939254125</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.51633142560426</v>
+        <v>15.68093806030042</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>66.48730408022777</v>
+        <v>53.79261030159033</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>71.70138900578193</v>
+        <v>63.80000477431057</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.83392825554365</v>
+        <v>16.73177394897909</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>18.00703029681798</v>
+        <v>22.84067505678615</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.90219380911812</v>
+        <v>25.95519327653646</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.04391059357431</v>
+        <v>5.57657707208952</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>7.629562851174676</v>
+        <v>14.11583417237007</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>8.189253223288285</v>
+        <v>14.88057889512309</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>3.844964968175852</v>
+        <v>8.778881113302582</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.6464429925406</v>
+        <v>24.8486084613828</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.12074104144916</v>
+        <v>28.76928157357452</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.64699651307457</v>
+        <v>22.98546692114387</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.56995054106725</v>
+        <v>29.4701204851501</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.43518239283917</v>
+        <v>31.44573462839534</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-8.977728901049986</v>
+        <v>6.610139542345685</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.38415096586724</v>
+        <v>18.80410931355431</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>8.105149278218093</v>
+        <v>19.42306641011047</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.64682408445612</v>
+        <v>12.0797269188525</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.47080898732099</v>
+        <v>23.16344387480097</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.08297691367211</v>
+        <v>28.10092370786377</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.9226574726832517</v>
+        <v>3.112128298828033</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>5.370146497909225</v>
+        <v>10.37685825576561</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.28319784819865</v>
+        <v>14.56477219324081</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>3.042718786593369</v>
+        <v>5.526792663552889</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>17.32050719184049</v>
+        <v>22.03406929813453</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>18.08242796508341</v>
+        <v>16.77121783314709</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.66668810796067</v>
+        <v>29.61219928537193</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.16736320368503</v>
+        <v>28.6743595619411</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.9264869215950036</v>
+        <v>7.560967459512469</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.01094059510038</v>
+        <v>25.38729331821929</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>19.14659603653965</v>
+        <v>25.00873495415308</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>4.050757613565352</v>
+        <v>11.151800329498</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.27937968592617</v>
+        <v>36.34893685065192</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.47068987278605</v>
+        <v>37.41319312770823</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.97620259827545</v>
+        <v>40.43079931945105</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>54.7681407211354</v>
+        <v>47.12576821101504</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.99179635508418</v>
+        <v>45.20000213364861</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.6579874513019881</v>
+        <v>10.51543981684165</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.29827904764163</v>
+        <v>43.15409360770978</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.95463714685267</v>
+        <v>40.14015826951013</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.26417247974658</v>
+        <v>14.24206440566667</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.59819520718816</v>
+        <v>31.15423716676069</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>42.07816031553154</v>
+        <v>35.29733434163322</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>3.541605262941175</v>
+        <v>7.485283376766112</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.28414727586915</v>
+        <v>26.46159178034694</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>38.96691166820691</v>
+        <v>34.46621111401065</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.54211126570512</v>
+        <v>10.53637792352622</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.94367833995369</v>
+        <v>44.62609586346461</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.001206284474</v>
+        <v>11.06072556011305</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.18496862532092</v>
+        <v>23.8432712785043</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.51538178991953</v>
+        <v>26.3618013408343</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1.100334292805261</v>
+        <v>7.61696486929592</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.08415833370226</v>
+        <v>23.78788720334362</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.55747810439792</v>
+        <v>25.22135092338166</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>4.081915866905049</v>
+        <v>11.8165936500322</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.17454399917763</v>
+        <v>35.35361328200451</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.01735917331983</v>
+        <v>39.01630940315627</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.47945140839406</v>
+        <v>41.36650892115103</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>54.18224537045045</v>
+        <v>48.46974848427678</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.6825542404018</v>
+        <v>45.0912718422055</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-8.333302413693751</v>
+        <v>9.152278517126533</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>38.87735800297447</v>
+        <v>37.66351608858402</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.46175225827956</v>
+        <v>35.36721888257951</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.63868922481036</v>
+        <v>8.477343810989108</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.6028665948201</v>
+        <v>24.19238074951316</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.61132756555101</v>
+        <v>31.99241906401074</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.40304497915346</v>
+        <v>4.095387684812163</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.22374375857899</v>
+        <v>18.3955773669522</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.33397800279014</v>
+        <v>31.89173937183692</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.11032810079034</v>
+        <v>5.711131335934411</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.65610998021383</v>
+        <v>31.48875324032239</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.947569444670588</v>
+        <v>10.6664632724717</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>15.69660651837751</v>
+        <v>20.23068987756396</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.35029163014367</v>
+        <v>25.86951802796183</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-4.770228720884667</v>
+        <v>6.840255692096171</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>12.99075917322005</v>
+        <v>21.53727842282619</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>17.9673077778485</v>
+        <v>25.83465613190499</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1.768088804423979</v>
+        <v>7.977464043203181</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.37976062688224</v>
+        <v>29.69286335828036</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.77362463523789</v>
+        <v>36.92392784172879</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.89762935532284</v>
+        <v>33.26292831108498</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>40.30492308693294</v>
+        <v>38.62740401310867</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.34744905135586</v>
+        <v>39.26845259377695</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-9.464266092313835</v>
+        <v>9.847940823845843</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.94462633517544</v>
+        <v>32.65085529862587</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.36116611889626</v>
+        <v>31.95818950896797</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>9.510939736355397</v>
+        <v>9.619383066177349</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.71760190992957</v>
+        <v>22.06087567433797</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>41.19842372387188</v>
+        <v>32.79575544526413</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-0.694412782660752</v>
+        <v>6.192500819607737</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.95646948616004</v>
+        <v>16.70481161496498</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>35.10260790656893</v>
+        <v>31.23070003993268</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.19917916900976</v>
+        <v>8.168080849689687</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.18054272509371</v>
+        <v>26.61188525252557</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.77436576594252</v>
+        <v>27.30217906988162</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.45730126139047</v>
+        <v>23.36669113559378</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>38.19850169950953</v>
+        <v>33.2983397905475</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>44.05493225392466</v>
+        <v>37.03806966566049</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1.454520960358678</v>
+        <v>4.486617333336227</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.55467214307341</v>
+        <v>19.95179585571145</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.75386193261728</v>
+        <v>25.62695464855583</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.76546490104587</v>
+        <v>14.24136030139352</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>22.05974415016014</v>
+        <v>24.62533460749692</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.59197666795258</v>
+        <v>31.41269549220454</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-7.861242310287849</v>
+        <v>0.3570834336168645</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>5.909881365367482</v>
+        <v>9.63701971279508</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>12.69344623345066</v>
+        <v>14.38963931716849</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-2.47941412497314</v>
+        <v>3.861680843621961</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.25401588722186</v>
+        <v>21.1941185660234</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.51916235888443</v>
+        <v>31.73877528842741</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.12324080236277</v>
+        <v>23.03434749166817</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.99356877632761</v>
+        <v>36.16544693977773</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.06990107109525</v>
+        <v>41.44638022719285</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-5.769578889672601</v>
+        <v>5.850437791559372</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.11995898714122</v>
+        <v>20.7042463376294</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.44267166689197</v>
+        <v>29.22655219141756</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>55.45864369340195</v>
+        <v>53.22914098022778</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.39887190278063</v>
+        <v>45.04469498918031</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>65.02333598388321</v>
+        <v>53.45047877103947</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>69.30050847771277</v>
+        <v>56.91219965763086</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.75782407099725</v>
+        <v>12.00385156553482</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>55.79999627219416</v>
+        <v>50.84081772564308</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>59.95990930109309</v>
+        <v>54.03116541609423</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.00770843113987</v>
+        <v>19.54382895028809</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>46.0783717393719</v>
+        <v>37.7190018742584</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.33930241905824</v>
+        <v>41.40792182838069</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>3.73343508829462</v>
+        <v>9.114161932928607</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>38.67969728270879</v>
+        <v>35.14561769355006</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.65009989884832</v>
+        <v>39.8839590738356</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>14.81390833272847</v>
+        <v>14.33040957275858</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.14217191445689</v>
+        <v>55.62274512902263</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>67.27431172463235</v>
+        <v>59.72188904746619</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>68.785899125242</v>
+        <v>63.39444152031722</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>82.35660556971013</v>
+        <v>67.06950507608408</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>86.14267244603708</v>
+        <v>73.39544967544867</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.16666655901248</v>
+        <v>21.52310670809782</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>74.39194415534325</v>
+        <v>63.29730044680174</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>71.44167288271154</v>
+        <v>68.08690661002954</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>54.07640560944126</v>
+        <v>50.69782874820947</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>37.96744155974615</v>
+        <v>35.84773314353943</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>54.24481981573497</v>
+        <v>44.88980286839791</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>64.22286156117053</v>
+        <v>55.01822283319218</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>5.877639633721433</v>
+        <v>6.44883420434622</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>49.53992565679333</v>
+        <v>44.73657266426078</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.77545072885316</v>
+        <v>52.02351341986484</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>15.20221626902507</v>
+        <v>12.55143901845558</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.71021397594997</v>
+        <v>31.7427760043283</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>48.77847032812559</v>
+        <v>38.12511032140418</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>2.574783859479744</v>
+        <v>6.110868211828858</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>37.81574879248095</v>
+        <v>31.39403953378917</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.24613476596847</v>
+        <v>39.28970461724485</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>13.51941555782411</v>
+        <v>10.22372182897839</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>61.16008998774287</v>
+        <v>49.51697291304343</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>70.33699706779655</v>
+        <v>58.82684481354896</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>64.601532057843</v>
+        <v>57.2271754117714</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>78.47204673945427</v>
+        <v>63.28169346260135</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>87.67894761993432</v>
+        <v>73.56925780283416</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.98631697028555</v>
+        <v>12.60263447653392</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>72.71820412421326</v>
+        <v>58.86227176347414</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>71.43184016306441</v>
+        <v>66.58477175403425</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>51.34857124278302</v>
+        <v>48.60966583903318</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.89178573050597</v>
+        <v>24.18024601646554</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.71688840184417</v>
+        <v>32.53931672210949</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>50.28566989780459</v>
+        <v>43.77408609792746</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.012162829345179</v>
+        <v>7.474469847795572</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.39966564032436</v>
+        <v>38.18356434787355</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>51.97265835437106</v>
+        <v>47.86372951707617</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>11.05948796607</v>
+        <v>12.12357708845341</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.16561781332412</v>
+        <v>28.72262964269658</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>49.07736597693044</v>
+        <v>39.60675618820368</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-3.835678901849697</v>
+        <v>5.656983153408742</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.0955359439224</v>
+        <v>24.27348545630066</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.52579194866958</v>
+        <v>37.0385593671791</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.255385902250829</v>
+        <v>7.576748926706081</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.27762853676627</v>
+        <v>37.50566190222271</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>62.01649102602504</v>
+        <v>56.36846583085826</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>45.3538616717228</v>
+        <v>40.97477647690658</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>63.51957095284241</v>
+        <v>55.38875735956723</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>74.68849786954057</v>
+        <v>68.28243619992728</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>6.455104490480096</v>
+        <v>9.336398101266202</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>59.35950856846263</v>
+        <v>49.40553248302142</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>64.74603134301273</v>
+        <v>61.99420088705275</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.38826522848846</v>
+        <v>10.94461206846768</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.02026369662201</v>
+        <v>17.4758023412129</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.82467549014714</v>
+        <v>26.70483595703219</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.581585947701608</v>
+        <v>-0.8096582841447137</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.14286831524376</v>
+        <v>14.27191375362739</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.97973229542468</v>
+        <v>16.7524312077146</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.342265652515483</v>
+        <v>1.47867469072726</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.73195949055327</v>
+        <v>31.01630148981411</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.52601013735952</v>
+        <v>36.38670508515679</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.60455933020085</v>
+        <v>20.67673405601632</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.30920759440511</v>
+        <v>26.45394540154531</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.09447324800462</v>
+        <v>26.6178999896577</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>2.560792977390868</v>
+        <v>6.302722013144045</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.3558199523325</v>
+        <v>19.83973946613392</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.40597469156793</v>
+        <v>30.7565743521193</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>15.27429207867148</v>
+        <v>10.46221210501234</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.09091009170032</v>
+        <v>23.69389036283771</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.85681722003491</v>
+        <v>29.30371055095996</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.353147368828555</v>
+        <v>0.4392603357904576</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.409610763998</v>
+        <v>11.25502343218643</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.24363437392888</v>
+        <v>14.55946252403918</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.1250105819703577</v>
+        <v>0.7917159671492193</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.95574056709664</v>
+        <v>23.95274844219308</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.23958070008862</v>
+        <v>16.51998255277336</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>32.92639299476517</v>
+        <v>32.7622896398567</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.30276867411702</v>
+        <v>34.07719504806791</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.311228402775669</v>
+        <v>4.769852044080118</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.04824228254749</v>
+        <v>34.67425952129136</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.26794069052712</v>
+        <v>34.64783180878851</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.985796901912568</v>
+        <v>7.701705112263053</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>48.42462886759095</v>
+        <v>50.22913749271665</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>47.61062121488114</v>
+        <v>50.09207533957151</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>49.93858939060138</v>
+        <v>51.07086734180825</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>59.00877605095814</v>
+        <v>56.69107822779617</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>58.30248891440712</v>
+        <v>55.39610415427414</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>19.13871405308284</v>
+        <v>17.99720104028624</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>52.67610172007493</v>
+        <v>54.85604121311482</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>59.88168654391296</v>
+        <v>58.7189456391999</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.88733280251286</v>
+        <v>16.14868188369329</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.99832356559378</v>
+        <v>35.61106756594976</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>40.89222845614934</v>
+        <v>36.45968625531142</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.094092006180272</v>
+        <v>4.785586709914472</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.41170765384494</v>
+        <v>31.62862099678961</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.51362993024066</v>
+        <v>34.83178970956873</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.33414500442491</v>
+        <v>6.092902284359802</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>49.97582918428211</v>
+        <v>53.21443398081711</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.31310661573098</v>
+        <v>6.463926179929917</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.52581917554947</v>
+        <v>24.60037734880631</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.05212750920519</v>
+        <v>30.43680486290411</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>4.380220505912224</v>
+        <v>3.195726612534088</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.57798034279058</v>
+        <v>31.76662836282243</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>40.96135413693487</v>
+        <v>34.41287142340566</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>9.603575604284373</v>
+        <v>7.423298352111203</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.15499084741021</v>
+        <v>48.42132002161738</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>51.9742905900877</v>
+        <v>52.19691803034738</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>53.3826398454158</v>
+        <v>55.75285173385737</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>61.01611521757182</v>
+        <v>60.97804803489066</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>62.71197300287056</v>
+        <v>59.78073121775533</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>3.449237382779135</v>
+        <v>2.979696816836892</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>43.68897419001006</v>
+        <v>42.11062370023065</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>54.75290412544886</v>
+        <v>46.77019879464654</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.2132702244888</v>
+        <v>10.96772187787501</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.16454849024431</v>
+        <v>31.85529593288774</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>39.84981212884784</v>
+        <v>34.61929152987688</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.29987328763567</v>
+        <v>3.538739650120295</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.982948243364</v>
+        <v>26.41650630583638</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>37.4872230895766</v>
+        <v>34.25079710198897</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>8.458446922145843</v>
+        <v>5.348062210158954</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.79390951039916</v>
+        <v>46.95048038023229</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>2.668343796494391</v>
+        <v>4.272276258142035</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>15.56486038828232</v>
+        <v>17.93818722693842</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.18194827602099</v>
+        <v>29.06945144319409</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-2.600327977531354</v>
+        <v>3.049659726509393</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.18845648469681</v>
+        <v>27.94320916569286</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.5906058573924</v>
+        <v>35.54596616429419</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>0.8720436475226379</v>
+        <v>2.620992521791354</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.48948122853845</v>
+        <v>39.74100649267069</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>47.51647506054272</v>
+        <v>50.05036996986434</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>40.74679498693928</v>
+        <v>44.4961910594706</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>46.06019815694926</v>
+        <v>50.11747804694133</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>52.50782510553159</v>
+        <v>54.42507639076953</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-3.6808855314565</v>
+        <v>1.902424346851863</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.31510656147498</v>
+        <v>31.3103429027865</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>47.35566317013142</v>
+        <v>43.03804153132049</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>9.291825332461851</v>
+        <v>8.214743455840544</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.17865872043813</v>
+        <v>26.27713869089986</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>39.90828364260607</v>
+        <v>34.34450539517285</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-0.6596417568171695</v>
+        <v>4.485867337688038</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.84185580312916</v>
+        <v>22.78024570312064</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.1599455961931</v>
+        <v>34.71563849339103</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>4.214318489031605</v>
+        <v>5.001771600115404</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.3399055426291</v>
+        <v>37.47193073866002</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.88285469962008</v>
+        <v>28.69473627754351</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.77939877899563</v>
+        <v>25.42689263784701</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.54526070763249</v>
+        <v>37.85614079968718</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.76867131875948</v>
+        <v>38.98076783061451</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3.769821007400779</v>
+        <v>5.12307980532594</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.9965685059118</v>
+        <v>21.20219013436841</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.69738202007537</v>
+        <v>28.12005866166593</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.7699751441864</v>
+        <v>11.51963796456651</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>21.46503070996138</v>
+        <v>23.63967501723759</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.80360980918572</v>
+        <v>34.33957528592531</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-5.413816038796746</v>
+        <v>-3.415485548239868</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>10.24333729288448</v>
+        <v>9.492166239909356</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.14261233665639</v>
+        <v>15.48150589598639</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-3.582775034372162</v>
+        <v>-1.399077830916418</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.88006570119176</v>
+        <v>22.47023435437604</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.47775743879087</v>
+        <v>39.54492074356592</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.08751651676396</v>
+        <v>25.75801055051796</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>49.13773294388756</v>
+        <v>44.2124058528177</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>48.71774037010508</v>
+        <v>50.30724472412398</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-2.839932162182862</v>
+        <v>1.56545533909642</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.81167000905923</v>
+        <v>20.39459095819608</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.75685092586802</v>
+        <v>35.50550728464371</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>54.42949874867054</v>
+        <v>57.32106023607138</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.39980134379962</v>
+        <v>55.03824808441878</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>64.79605930382851</v>
+        <v>61.71256218236467</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>64.79749867122749</v>
+        <v>62.06784399364626</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>18.14515174751045</v>
+        <v>15.42363584607395</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>60.91598067012631</v>
+        <v>57.82824731659315</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>62.03306586947593</v>
+        <v>58.74004590364623</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.94680065115796</v>
+        <v>19.15598968881391</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.8521354435743</v>
+        <v>40.21216312305636</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>51.81083716503335</v>
+        <v>45.14431851391869</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>2.361995808945196</v>
+        <v>5.927142774804945</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.05252918518499</v>
+        <v>42.37473508174226</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>47.33674147369162</v>
+        <v>45.22520316507413</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>9.497045021351855</v>
+        <v>7.757297689406155</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>63.32258378203554</v>
+        <v>64.36022446821512</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.84152468966874</v>
+        <v>70.57361878766415</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>73.16009859068349</v>
+        <v>74.52598338981264</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>84.71898926558319</v>
+        <v>78.98297523496895</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>87.74339783875124</v>
+        <v>85.50031828971549</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>20.90457550229576</v>
+        <v>19.67067220077854</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>74.58575895097991</v>
+        <v>72.51012750595291</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>76.97497608487998</v>
+        <v>78.05392199956174</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>56.27958436317331</v>
+        <v>59.51587530667089</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>45.42541108140665</v>
+        <v>48.33013060133175</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>55.24618460592606</v>
+        <v>54.05093786632175</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>62.49438304935832</v>
+        <v>61.79365222183456</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.77437011788827</v>
+        <v>8.796218671341393</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>54.34978682244945</v>
+        <v>52.65746208229976</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>60.21170906051568</v>
+        <v>56.93361908044609</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>12.98035121359962</v>
+        <v>11.46705199179257</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>40.78007952037797</v>
+        <v>34.60284922822295</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>49.85899364455918</v>
+        <v>42.16596223806837</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1.39778051119178</v>
+        <v>3.507436663565549</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.4144664234872</v>
+        <v>39.27910590229293</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.94467348722985</v>
+        <v>45.45093327106125</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>8.715273925986519</v>
+        <v>4.911189097192043</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>62.91400692901758</v>
+        <v>60.4536797675614</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>77.42313902000217</v>
+        <v>71.40347269158443</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>69.5425673942771</v>
+        <v>71.01485105497946</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>80.24726482380339</v>
+        <v>75.58075826717919</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>90.48221433722199</v>
+        <v>87.00908420934283</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>12.54703791576362</v>
+        <v>8.854719774634262</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>70.6034769247465</v>
+        <v>66.50155639300473</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>75.11656053380156</v>
+        <v>75.96664731677232</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>52.43923363074438</v>
+        <v>55.16087383590308</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.06403724602328</v>
+        <v>30.90808712650072</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.010788108997</v>
+        <v>38.1429971859345</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>48.59685339502334</v>
+        <v>46.71408080956915</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>9.143885016382246</v>
+        <v>7.765749863217106</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>44.39857783779684</v>
+        <v>45.66443629093168</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>56.28696229356019</v>
+        <v>53.54650767331376</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.502698366575785</v>
+        <v>8.537597670083475</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.59874609736698</v>
+        <v>30.65541928933377</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>52.43882776139743</v>
+        <v>43.89363265563619</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-3.548019664466647</v>
+        <v>2.031433191407292</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.95596662041573</v>
+        <v>29.96883978284821</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.50036476003449</v>
+        <v>43.45496289670976</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1.387592864260832</v>
+        <v>0.4102813405875239</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.04604685724745</v>
+        <v>45.56446503664058</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>72.40318166545002</v>
+        <v>68.05024567656648</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.4835715715162</v>
+        <v>52.28198904034541</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>71.79266035462948</v>
+        <v>67.49551304492141</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>83.31166966362397</v>
+        <v>82.47530789151212</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>6.374105047929298</v>
+        <v>4.04553225073079</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>61.80088785433431</v>
+        <v>56.80002176347043</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>74.69504767962968</v>
+        <v>73.2898660805442</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.16607553070249</v>
+        <v>18.15184239114563</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>14.22573106841847</v>
+        <v>18.57039740568581</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.39108135941919</v>
+        <v>28.29664746550137</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>13.46878469661346</v>
+        <v>8.750416172713447</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.61844336738167</v>
+        <v>22.61118615998895</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.57462247072289</v>
+        <v>25.43649286035535</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.33028955559504</v>
+        <v>12.02806757825538</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.46137124152094</v>
+        <v>35.34612356780257</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>47.27358023730861</v>
+        <v>38.8290148290573</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>19.35152703924548</v>
+        <v>19.43565865646065</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.63547879104111</v>
+        <v>23.34881680864732</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.8790181062259</v>
+        <v>23.20373576592776</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>20.83472166716835</v>
+        <v>23.07684571944057</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>15.84804638406301</v>
+        <v>19.57952577814232</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.70086896081091</v>
+        <v>34.58033634181995</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.94932219894593</v>
+        <v>13.72645287809302</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>15.59493353429596</v>
+        <v>22.03768598092131</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.29885116401503</v>
+        <v>28.93454368832817</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.32182701884309</v>
+        <v>11.09661707680347</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.45426209693382</v>
+        <v>17.53115411961248</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.57010269820478</v>
+        <v>19.82673784549821</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>7.095840748953776</v>
+        <v>6.350370235875207</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.35934838475988</v>
+        <v>20.784948040837</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.46018688241913</v>
+        <v>21.59439950570542</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.29863010229067</v>
+        <v>27.64540900222601</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.42538442421952</v>
+        <v>31.74357776355881</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>19.70962613699409</v>
+        <v>10.44023909237509</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>43.85110770985881</v>
+        <v>35.34312894888519</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.24461531172679</v>
+        <v>35.24272942091061</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.64211638811466</v>
+        <v>13.97308564215337</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.85767119428751</v>
+        <v>43.56969653649112</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>53.41038137706991</v>
+        <v>45.27042192860317</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.07585296763404</v>
+        <v>46.61472060541889</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>61.27993937090986</v>
+        <v>51.11391833032728</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>62.21266944241641</v>
+        <v>50.61742623019511</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>37.79941227711311</v>
+        <v>34.62428349823048</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>52.01390188164339</v>
+        <v>49.10828440380776</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>64.27477572595097</v>
+        <v>53.35952051069992</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.31062851732776</v>
+        <v>19.23698237268226</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.0403127615941</v>
+        <v>30.26606096663915</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.06014069379178</v>
+        <v>33.17287981874365</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>23.1203799675901</v>
+        <v>13.88738920683102</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.58398979516167</v>
+        <v>31.24826572397199</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>44.86387431609405</v>
+        <v>35.11975305606426</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.09363823076335</v>
+        <v>10.41404111506556</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>41.77585051830153</v>
+        <v>42.46669081745848</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>11.30933608980828</v>
+        <v>12.05610419728652</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.97501588591796</v>
+        <v>22.24282649864057</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.41294792225918</v>
+        <v>29.42074279977689</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.11726009479842</v>
+        <v>7.982676010854899</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.62268281490924</v>
+        <v>33.91231241979866</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>50.49487725404136</v>
+        <v>35.40871195275737</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>12.83590126448659</v>
+        <v>12.54467826585213</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>50.91054742555176</v>
+        <v>44.78119140451955</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.47327962276029</v>
+        <v>48.79369602246305</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>56.47999346539855</v>
+        <v>49.88250150693699</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>62.14909838894678</v>
+        <v>53.84550862137624</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>65.49390578617911</v>
+        <v>54.34893492431785</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>15.13487760965269</v>
+        <v>15.27883301151282</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.97959875474264</v>
+        <v>39.1424442400337</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>59.27774000032546</v>
+        <v>45.73048584728598</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>12.53889809913339</v>
+        <v>15.69206476138805</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.49763370040595</v>
+        <v>28.8926432437961</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.40052108605297</v>
+        <v>32.60643667085404</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>20.47638364950217</v>
+        <v>12.27143313760881</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.70001293170458</v>
+        <v>27.06467517700504</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>46.74273546148552</v>
+        <v>34.41460584191361</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>7.49567347625505</v>
+        <v>9.317056293060702</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.16702134537431</v>
+        <v>37.37178045692787</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.2258809607068848</v>
+        <v>9.014568082557812</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>10.64483269337618</v>
+        <v>16.35262545033761</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.20606782547413</v>
+        <v>27.29629418992507</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.045502573605116</v>
+        <v>8.048714740830743</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.90847531612737</v>
+        <v>31.49653435843251</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>46.48712095140689</v>
+        <v>36.54242615760684</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>3.501864324453809</v>
+        <v>7.992347076732695</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.24381044430973</v>
+        <v>39.67596265217058</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.57321515444853</v>
+        <v>46.83607704135828</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.02355367753057</v>
+        <v>41.53390261020724</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.61699720387165</v>
+        <v>44.88577411155457</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.28365110665487</v>
+        <v>48.73140179514293</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>3.789686885729282</v>
+        <v>11.41036852652467</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>24.06051231699984</v>
+        <v>28.73679574008032</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.62306445367967</v>
+        <v>43.32715276562759</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>8.526560199457041</v>
+        <v>11.7137980724052</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>17.87649803611288</v>
+        <v>24.93073044371593</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.5117888996747</v>
+        <v>32.6874564398404</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>19.45817976844705</v>
+        <v>13.28319357834394</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.95107295732733</v>
+        <v>26.44743473959596</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>47.89030667067536</v>
+        <v>36.26918534707582</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.453773774403324</v>
+        <v>8.18525276296786</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.76493120943053</v>
+        <v>32.90766874487943</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.39900375950238</v>
+        <v>24.69664481541746</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>14.80752986234017</v>
+        <v>21.79361215886846</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.49069417504509</v>
+        <v>31.62446431865056</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.0214326894987</v>
+        <v>33.7829402391813</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.53554958363593</v>
+        <v>11.08725584497907</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>12.991181494813</v>
+        <v>18.23466803306934</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.55293647859716</v>
+        <v>25.00558469383321</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.69666425986469</v>
+        <v>16.0457884935133</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.65120981252155</v>
+        <v>24.07485601667585</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.56770580586135</v>
+        <v>32.71407570047005</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.89119171841008</v>
+        <v>9.39020010410874</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.55320184006287</v>
+        <v>17.99683998908713</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>37.07666568339811</v>
+        <v>22.37174745677734</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>11.30314285279029</v>
+        <v>7.135196078012449</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>32.85307901131765</v>
+        <v>25.67358642101721</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.33143610026057</v>
+        <v>36.88646471089274</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.24033907009065</v>
+        <v>25.31689971696142</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.98918806210361</v>
+        <v>38.67890839219265</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>49.40822845232738</v>
+        <v>42.93122162149039</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>15.21948572353579</v>
+        <v>11.54523391042085</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.83457633075441</v>
+        <v>22.09357368690856</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.14901800746297</v>
+        <v>31.49369639444233</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>46.78580966328103</v>
+        <v>47.85281874825931</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.18016969679984</v>
+        <v>44.88995085670191</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>56.53607383206632</v>
+        <v>51.26537221798638</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>53.3133508729486</v>
+        <v>53.14189001661287</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.26768269701927</v>
+        <v>22.44554400015618</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>52.59730239564887</v>
+        <v>50.01564580954553</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>57.53329832808444</v>
+        <v>51.87599864751318</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.57280069098962</v>
+        <v>24.59208317674981</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.68154941280531</v>
+        <v>36.57199496902368</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.03946335070238</v>
+        <v>41.48077099441832</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.20225136298081</v>
+        <v>16.41707508088179</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>53.81116770813356</v>
+        <v>40.59995943049809</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>59.36581773303062</v>
+        <v>43.24458750230318</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>18.10248074779077</v>
+        <v>14.54840825422052</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>64.04103506284258</v>
+        <v>57.21264504698453</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>70.48767208244843</v>
+        <v>61.22285188446919</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>79.91672319690232</v>
+        <v>66.23452919612581</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>84.60952623559444</v>
+        <v>69.36681285363919</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>88.13170153898002</v>
+        <v>73.82255378494256</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.97624949665059</v>
+        <v>32.89101631232005</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>76.98823861208939</v>
+        <v>66.50830518086019</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>83.40989881002953</v>
+        <v>69.93921440907616</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>48.70944960797611</v>
+        <v>50.4875874865989</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.93204947630829</v>
+        <v>37.4767537017751</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.17635840993698</v>
+        <v>43.66114611762764</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>51.02801294795685</v>
+        <v>52.31526294672165</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.73710936810965</v>
+        <v>16.57153904818857</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.07073270618533</v>
+        <v>45.37732588031631</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>56.10515793346542</v>
+        <v>50.63238460906544</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.77023775758139</v>
+        <v>18.80837753787876</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.89924831171387</v>
+        <v>33.4323104804313</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.22495597549191</v>
+        <v>40.05322177608814</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.26674053329101</v>
+        <v>14.85433794188231</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>54.47164910123142</v>
+        <v>40.81145357682136</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>64.18960721653717</v>
+        <v>44.24553372299758</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>16.47200407099251</v>
+        <v>12.32686133446832</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>63.98179815123348</v>
+        <v>55.52393925261042</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>75.44593105367545</v>
+        <v>63.05326265896897</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>74.86633243753384</v>
+        <v>62.65852526951384</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>79.64714251755426</v>
+        <v>66.44464748607618</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>90.79760398664229</v>
+        <v>75.59329795910055</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.40831066174777</v>
+        <v>22.75263646079834</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>72.43360090669682</v>
+        <v>61.30829291755962</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>81.35698844611366</v>
+        <v>68.41655414705362</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>49.32535265536737</v>
+        <v>47.90413006856609</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>22.00078889822153</v>
+        <v>25.21104531557885</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.47051501396414</v>
+        <v>30.61268134516122</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.32895287099353</v>
+        <v>40.03414351399697</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.08733200431469</v>
+        <v>12.82800123114094</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.72391622975768</v>
+        <v>38.59133018343698</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>52.62870274504698</v>
+        <v>46.70266677696451</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>13.23839315746468</v>
+        <v>15.27448031606074</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.85968827206983</v>
+        <v>32.32617761494183</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>48.4158630751748</v>
+        <v>42.0375859987327</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.31115207197443</v>
+        <v>14.51676587278996</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>50.82702335981197</v>
+        <v>36.53441668088915</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>65.46892399783934</v>
+        <v>44.71146302364308</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>12.36914472801648</v>
+        <v>9.166682099076187</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>54.47600531736239</v>
+        <v>47.94132901549106</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>73.04277049809126</v>
+        <v>62.19140620021814</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>61.29054729688735</v>
+        <v>51.92292236518804</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>70.21480400305694</v>
+        <v>59.32755154452295</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>84.95392861469</v>
+        <v>73.10779805067109</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>21.87426240512515</v>
+        <v>15.29613904682843</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>60.97649247552781</v>
+        <v>52.91550246200057</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>78.31112765349448</v>
+        <v>65.89180596690595</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.552</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.174</v>
+        <v>17.682</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.766</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.956</v>
+        <v>14.563</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.979</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.968</v>
+        <v>2.189</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.865258329681723</v>
+        <v>7.515274364259625</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.681883201971104</v>
+        <v>13.69630476479489</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.09852851836736</v>
+        <v>21.17759865990616</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.453562592107691</v>
+        <v>1.05388907643751</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.42638759204098</v>
+        <v>13.86730357125356</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.96778078183153</v>
+        <v>15.12652505858069</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.641701283071669</v>
+        <v>4.400121033036378</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.64407863783989</v>
+        <v>26.67985161772031</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.36099573833011</v>
+        <v>29.26078652180243</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.46035074911713</v>
+        <v>15.2813165108641</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.20039383618155</v>
+        <v>19.13077103488583</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.36972722541547</v>
+        <v>21.08742553608717</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.36991294005986</v>
+        <v>13.69790305174118</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.40759947286848</v>
+        <v>14.26609144140472</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.36926890262578</v>
+        <v>30.02813605202988</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.195474443435131</v>
+        <v>8.115422512552652</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.37377046019287</v>
+        <v>25.25879796605471</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.74389967299638</v>
+        <v>29.90247635014707</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.9212886775424</v>
+        <v>-0.8760079807525258</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.557789514606881</v>
+        <v>8.723690410947139</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.46309291168568</v>
+        <v>15.53311778076737</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.810170092717836</v>
+        <v>1.219650440577386</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.57117657662194</v>
+        <v>26.0283101724462</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.532448831120981</v>
+        <v>8.376669596923687</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17.76011794291566</v>
+        <v>18.93187245055431</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.74255139635546</v>
+        <v>22.2014811155156</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.8105004104942992</v>
+        <v>0.6313322694236128</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.56884595475566</v>
+        <v>24.31127387826584</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.95273442893465</v>
+        <v>25.93206140703892</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.82172928455887</v>
+        <v>3.811468939005518</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.95777282325466</v>
+        <v>36.84840296866595</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.73074068390034</v>
+        <v>37.16187167255404</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.17168536364718</v>
+        <v>37.18773278680241</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.77944921520324</v>
+        <v>43.72529343091963</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.92851245538251</v>
+        <v>42.72817118586973</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.38727209962091</v>
+        <v>13.80271124976504</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.52156936127817</v>
+        <v>43.40948336313387</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.79744975341961</v>
+        <v>46.2333211807673</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.83277774937265</v>
+        <v>15.01141879708052</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.03374744915227</v>
+        <v>31.89957224561313</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.36681204316694</v>
+        <v>35.3366732838639</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.269588499872441</v>
+        <v>0.7269125574576947</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.54314581719039</v>
+        <v>31.1250749778522</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.73424595517197</v>
+        <v>35.58100798366099</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.415717185086496</v>
+        <v>2.384556879794062</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>52.07342743488971</v>
+        <v>51.23123122219925</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1958711335488239</v>
+        <v>3.397535413969724</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10.43824415501208</v>
+        <v>12.91617766938074</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>19.74650797280967</v>
+        <v>23.60130738731345</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.381830830742366</v>
+        <v>0.2830382548582833</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.75977659196651</v>
+        <v>23.3229522275252</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.78418789949089</v>
+        <v>25.75549932791792</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.187995423067434</v>
+        <v>5.197885458446383</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.62175444220441</v>
+        <v>36.90254524129583</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.6004100492803</v>
+        <v>41.90211106679558</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.28731094689109</v>
+        <v>40.62745376340229</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.94931106373125</v>
+        <v>42.84483272410421</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.9021374655128</v>
+        <v>49.86512948359002</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.157378657002717</v>
+        <v>4.000871765811759</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.59211972876177</v>
+        <v>29.60488902983464</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>38.46695233122971</v>
+        <v>36.29650654551592</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>8.661625460206178</v>
+        <v>9.204983743532434</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.54782993380832</v>
+        <v>30.54139460264903</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.07111302522677</v>
+        <v>34.86591556594953</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.125671008965799</v>
+        <v>0.2912208431701018</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.8609954231214</v>
+        <v>26.08662630147166</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.97811785143512</v>
+        <v>35.00198679651066</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.634528386382438</v>
+        <v>4.058029863000286</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.09650596719807</v>
+        <v>47.83827996461568</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-1.335540400677125</v>
+        <v>1.719292507168383</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6.903033586919705</v>
+        <v>10.22509177745608</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>20.70155020088833</v>
+        <v>22.48689447458138</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-2.173860350788999</v>
+        <v>-0.1706069559676848</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>19.43345927623359</v>
+        <v>20.55643474199633</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.03889483568115</v>
+        <v>27.9095331583166</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-1.461276430135747</v>
+        <v>0.259574953063801</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.47591338037495</v>
+        <v>30.20760448145431</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.13673451065732</v>
+        <v>40.09991608568065</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.00186485696118</v>
+        <v>31.3682281337541</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.75141323934996</v>
+        <v>35.58629172301013</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>41.00928615174623</v>
+        <v>43.37857853759582</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.355458746164473</v>
+        <v>2.289306114010898</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23.81025383589582</v>
+        <v>25.7836339754128</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>39.50682965656047</v>
+        <v>41.50458823234678</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5.234801532560855</v>
+        <v>6.089252499383296</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.47426348361718</v>
+        <v>26.21820015815576</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.87594890358514</v>
+        <v>32.85933626589817</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.298436535147946</v>
+        <v>0.4918677491996419</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.80070062134304</v>
+        <v>22.27688187206162</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.10332459459669</v>
+        <v>32.31702790308525</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.168735662226602</v>
+        <v>0.9574006364767591</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.2701438644233</v>
+        <v>36.30198372611417</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.25415756598092</v>
+        <v>30.31683876242881</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.0045530389707</v>
+        <v>22.98056393435816</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.50330124324646</v>
+        <v>41.04811958176592</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.23008451032541</v>
+        <v>41.14301554358413</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.951276912056137</v>
+        <v>7.337969979255885</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.28676843566315</v>
+        <v>20.99486344732586</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.09897014034151</v>
+        <v>29.40218937029714</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.17458202370355</v>
+        <v>11.7164410086419</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.48452754790576</v>
+        <v>27.35271233027977</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.87668619250157</v>
+        <v>39.0186987174441</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-5.534098384496311</v>
+        <v>-0.9292036087005577</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>9.962216447382961</v>
+        <v>7.649810460141509</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.98608821643984</v>
+        <v>16.92326064423936</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-2.246013911839817</v>
+        <v>0.9654435035054867</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.77186342070785</v>
+        <v>25.6478451127903</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.52545048019695</v>
+        <v>49.04865201260122</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.78468093839361</v>
+        <v>27.71253370132473</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.19457684471111</v>
+        <v>48.29350277365991</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.79824501744271</v>
+        <v>54.01033600378939</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.346006550802517</v>
+        <v>6.162873164750017</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.38872056149946</v>
+        <v>23.2734357037342</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.94401495339932</v>
+        <v>36.95341500542311</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.31845406116577</v>
+        <v>58.99888764370428</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.18791414011976</v>
+        <v>52.98527340798912</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.46753016324603</v>
+        <v>60.45020909227447</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>62.23484558424212</v>
+        <v>61.39222499540473</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.03966138759031</v>
+        <v>16.99009388229504</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>56.72175990783158</v>
+        <v>57.27815714564156</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.4704042436807</v>
+        <v>60.81383728239136</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>18.81716980981954</v>
+        <v>20.30239147683568</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.22427970140497</v>
+        <v>38.46697113134399</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.89910175787962</v>
+        <v>46.70791397830827</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.433438904118947</v>
+        <v>1.660076696560292</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.72755660758276</v>
+        <v>45.65602461639826</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>48.26961700936976</v>
+        <v>49.33262305362086</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>7.738158180280848</v>
+        <v>4.692661919796766</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.3605358279266</v>
+        <v>69.76679890576196</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.01497319621123</v>
+        <v>74.32434335083875</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>76.97618868643883</v>
+        <v>77.04006841402125</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.49200245832998</v>
+        <v>82.3963778151473</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.6462591137124</v>
+        <v>85.79292086441865</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.47182221058303</v>
+        <v>27.52114221420349</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.80892609273808</v>
+        <v>78.22447657071091</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>82.22264195253838</v>
+        <v>81.57323281628769</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>60.66070146902654</v>
+        <v>61.31224326832357</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.83053861415038</v>
+        <v>48.50890466799049</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>52.72990190246448</v>
+        <v>54.22568333231101</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>61.3217392087315</v>
+        <v>61.9379849785174</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9.299135456101062</v>
+        <v>10.51336044089274</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.05628993522478</v>
+        <v>52.62476863618909</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>57.40023099110365</v>
+        <v>58.03345269644206</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12.27667419134961</v>
+        <v>12.52037305271595</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.48970496822773</v>
+        <v>34.94538176627313</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.42928195775038</v>
+        <v>45.64752019766548</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.868934007277854</v>
+        <v>-0.1182357407980064</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.59078021885422</v>
+        <v>42.50201298271143</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.80663121435657</v>
+        <v>46.08476409974295</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.317474339297107</v>
+        <v>4.91936411916587</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.74360765557405</v>
+        <v>67.71470237894903</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>76.29962005331765</v>
+        <v>76.03315417705852</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.65226806946625</v>
+        <v>74.52760022906992</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.34094309883409</v>
+        <v>81.83492623396171</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>91.07652712369855</v>
+        <v>88.99611934382861</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>14.65683662411275</v>
+        <v>11.41072730255714</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>75.67896797243256</v>
+        <v>76.48923747351144</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>81.52441330105511</v>
+        <v>81.83954927693546</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>55.27233880417531</v>
+        <v>54.93796319515531</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.53539538300486</v>
+        <v>30.864280504993</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.53842030605271</v>
+        <v>38.23088103338124</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.26264628938603</v>
+        <v>45.63284410344548</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.493408972780664</v>
+        <v>6.825719910217924</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.70856201544422</v>
+        <v>45.49682506860252</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.68566658488472</v>
+        <v>52.22224222988618</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9.557674778717779</v>
+        <v>8.132988219251487</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.29174423752436</v>
+        <v>33.0799070583202</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.78892210884113</v>
+        <v>45.9109840574869</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.471994687479615</v>
+        <v>0.9987734435451081</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.21860797106196</v>
+        <v>36.46277578466502</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.3779756958324</v>
+        <v>46.77603038051762</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.692137018329291</v>
+        <v>1.064634886390483</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>59.18583275523015</v>
+        <v>59.17608296130722</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>75.21941645336305</v>
+        <v>73.99060080785355</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.46829362552867</v>
+        <v>65.35264597657866</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>79.57027396503358</v>
+        <v>79.79380168434108</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.27755764508746</v>
+        <v>87.76791264907023</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.758719606699806</v>
+        <v>7.322159424463152</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>72.79849200537498</v>
+        <v>72.74731163174226</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80.39075360624366</v>
+        <v>79.99238235609877</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.55451111679387</v>
+        <v>20.00451772796621</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>13.898783003646</v>
+        <v>21.22161509749119</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19.82714482884868</v>
+        <v>24.37163980274919</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.289733436785117</v>
+        <v>13.6767351124103</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>9.739637573591342</v>
+        <v>19.05309675878105</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>11.4039367921106</v>
+        <v>18.27095247719321</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.941920441586461</v>
+        <v>17.86207733907225</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>16.49266102119981</v>
+        <v>25.25757237399533</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.09405474314764</v>
+        <v>25.46490750329031</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>12.53729957414298</v>
+        <v>20.26788628651395</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.21695776497707</v>
+        <v>23.85347224007776</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18.45382719510491</v>
+        <v>24.36135943759186</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.55154102455021</v>
+        <v>25.03704663424664</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.36622387672824</v>
+        <v>20.67092311271702</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.8947057146467</v>
+        <v>26.52269276400834</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.437003259553276</v>
+        <v>15.20457142460297</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.24443573951277</v>
+        <v>25.24638184140698</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.35133368564614</v>
+        <v>27.78478729165932</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.307093032278424</v>
+        <v>10.75371017283297</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8.141531747727004</v>
+        <v>14.22441821167767</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>11.92384048779714</v>
+        <v>16.08292202868295</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4.438683120823178</v>
+        <v>12.94709861220188</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>18.41985674883507</v>
+        <v>22.28944716478932</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.54673035561433</v>
+        <v>20.61834922157687</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>18.34005352641645</v>
+        <v>23.13541428757767</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.22658942006596</v>
+        <v>25.20654052394503</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5.557565366963857</v>
+        <v>13.98151987974487</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.81730640058772</v>
+        <v>24.60801318342445</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>18.45674612116933</v>
+        <v>25.83722103628339</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.7412347818646</v>
+        <v>17.17179749045083</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.00683761608081</v>
+        <v>33.44128135857029</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>27.27356188207431</v>
+        <v>33.24040850408483</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.36555865943307</v>
+        <v>33.87048808634494</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.98533880842926</v>
+        <v>39.38450446361107</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.70086142478155</v>
+        <v>38.86552683175962</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>21.42408754444528</v>
+        <v>25.8451708943441</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.71620808286072</v>
+        <v>37.1744897181527</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.22523911957614</v>
+        <v>36.28339507732787</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.62136855143242</v>
+        <v>19.35819710382222</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.56837945567286</v>
+        <v>29.08163098823752</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.32111871932515</v>
+        <v>32.70046199027474</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.392462197914519</v>
+        <v>11.828576763388</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.11555725709801</v>
+        <v>26.84077517580461</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.39874254061753</v>
+        <v>31.22082607469135</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.90835943965317</v>
+        <v>14.12486860021587</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.05735566052385</v>
+        <v>37.25289711795502</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.169220457001629</v>
+        <v>17.46769210606532</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>13.1858287439353</v>
+        <v>20.00198177199514</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>19.08028675394167</v>
+        <v>23.8986387837016</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.292464635721274</v>
+        <v>12.8319393609371</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16.52270298156127</v>
+        <v>23.68369644704692</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>18.8349722434605</v>
+        <v>24.44913020451525</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>9.717408110771554</v>
+        <v>15.32255226208179</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>24.82792188756772</v>
+        <v>31.29443530857292</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.66671286769413</v>
+        <v>34.3003156970337</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.78260378199699</v>
+        <v>33.3698098488574</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.88806678512489</v>
+        <v>36.4564000963831</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.84507666625903</v>
+        <v>38.96680047812318</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.37150554359743</v>
+        <v>18.76326074652023</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.07438847544883</v>
+        <v>30.02663683328647</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.42382723795024</v>
+        <v>32.33833447649825</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.986877786750672</v>
+        <v>15.44867981460943</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.86705101503676</v>
+        <v>25.19009801498358</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.28927500503755</v>
+        <v>32.31156306172341</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>2.165180371799163</v>
+        <v>11.10246049828207</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>15.2727556128371</v>
+        <v>21.34212365239048</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.34345872620849</v>
+        <v>31.23962000264388</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4.831912945827352</v>
+        <v>13.62641017161214</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.46148327031886</v>
+        <v>31.10198069559468</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.170845147936728</v>
+        <v>15.93440841691129</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.14292143900756</v>
+        <v>17.23327510676522</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>18.2030214034975</v>
+        <v>21.88337914063815</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3.791847008382412</v>
+        <v>12.75427448486548</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.21037002670578</v>
+        <v>22.05895643265112</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>19.60615863108777</v>
+        <v>24.57706590477167</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6.177203755908867</v>
+        <v>14.03421372631382</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.38625191382017</v>
+        <v>27.24501667912702</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>27.611216829923</v>
+        <v>32.00105183277564</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>20.79596981627439</v>
+        <v>27.63287895232883</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.24410937691501</v>
+        <v>30.94799366398238</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>27.68958496001277</v>
+        <v>32.62604567790023</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.89665613267989</v>
+        <v>16.67757792600982</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.65448990143679</v>
+        <v>25.49625296546737</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.01250881571046</v>
+        <v>30.83976763686882</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.089043384220385</v>
+        <v>13.81490729191913</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>19.97523249088189</v>
+        <v>22.94090069699243</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.59956001911888</v>
+        <v>29.99401172981493</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>4.163773082197245</v>
+        <v>11.23454890859646</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>14.73252449618292</v>
+        <v>19.53246837262719</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.49635316664653</v>
+        <v>29.19284016514664</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.773959724898944</v>
+        <v>12.77107755403952</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.84302671459919</v>
+        <v>26.48163711472308</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.02882631589139</v>
+        <v>24.46231004336369</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.87506568095007</v>
+        <v>22.37626991876232</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.54148621158485</v>
+        <v>31.91485701473061</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.87814241260551</v>
+        <v>34.78477886609394</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.330793836840716</v>
+        <v>15.33775224862766</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.49592798326257</v>
+        <v>19.89680362402667</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.04438087104561</v>
+        <v>24.1188685503049</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.97719766446211</v>
+        <v>20.37134034283171</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.14994103338037</v>
+        <v>27.32923781551689</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.23282040527063</v>
+        <v>31.66101414823754</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.8527536748487563</v>
+        <v>10.66066511875823</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.769559000299896</v>
+        <v>14.24003964642477</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.41628601711618</v>
+        <v>17.4535172244808</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>4.376070177341099</v>
+        <v>13.45879679463843</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.87875034497517</v>
+        <v>23.89894936126864</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.71047484716538</v>
+        <v>31.03027848132206</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.73181749527547</v>
+        <v>25.62137375164085</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.21953686927498</v>
+        <v>33.813586959944</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.18502231824461</v>
+        <v>35.52695502675127</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>11.66530549074126</v>
+        <v>16.83481397403298</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.30976195187998</v>
+        <v>22.51436911952484</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.32082974741135</v>
+        <v>26.50760438567376</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.1944222789827</v>
+        <v>44.21131610185618</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.65499349290035</v>
+        <v>38.24630443916334</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.35193919208174</v>
+        <v>45.94281886776895</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.63471075365688</v>
+        <v>47.75860292999582</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.09473513787207</v>
+        <v>21.36602510515618</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.57644405180905</v>
+        <v>43.82146344056349</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>53.98725605997649</v>
+        <v>47.22788369892272</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.9684909263892</v>
+        <v>25.62149339726042</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.94911244939808</v>
+        <v>34.09593160905658</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.74899775407592</v>
+        <v>39.16395789844635</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.485476174860374</v>
+        <v>13.06982011213825</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.17332968920165</v>
+        <v>32.82943640670035</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>39.4641361034277</v>
+        <v>37.94487917177841</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>17.75925617799316</v>
+        <v>19.056310689581</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.1803701001113</v>
+        <v>49.23051714301616</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.28099386837562</v>
+        <v>52.98156059535158</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>62.49413239063279</v>
+        <v>53.10889722031007</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>68.22369260477777</v>
+        <v>57.22666214945576</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>73.63866082662113</v>
+        <v>59.87719971622209</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>35.37350119236559</v>
+        <v>32.78700623917844</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>67.61881964762682</v>
+        <v>56.42388137030954</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>71.35777975187753</v>
+        <v>58.69462426624548</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>48.33118764830891</v>
+        <v>45.33140607690971</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.79940172130753</v>
+        <v>31.90702344278414</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.18552797929538</v>
+        <v>37.45644794952894</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.24646310955059</v>
+        <v>47.39804182970602</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.84814802289776</v>
+        <v>16.26353662127219</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>43.25333086712251</v>
+        <v>38.94016210115156</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.47130207487808</v>
+        <v>45.72712745326805</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.59664736507018</v>
+        <v>19.7672936248999</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.0318538115917</v>
+        <v>30.83691189023785</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.56160366736015</v>
+        <v>37.76218075170265</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.883036495928749</v>
+        <v>11.57857291915023</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.17070601131341</v>
+        <v>31.82988751798855</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.89887178495119</v>
+        <v>37.75204164387095</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.40707568173283</v>
+        <v>15.54508262268944</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>51.3537301722013</v>
+        <v>44.93515313441736</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>60.40597889874989</v>
+        <v>53.46304867656288</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>56.26613418113276</v>
+        <v>49.23535010667664</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>64.32910008341103</v>
+        <v>54.85196850384015</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>74.48589156650286</v>
+        <v>61.27115137089122</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.00556604034472</v>
+        <v>22.28225837215985</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>63.09988852418942</v>
+        <v>52.89791166571408</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>70.33550645190506</v>
+        <v>59.10719676169947</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>46.73330036774645</v>
+        <v>42.29475644347122</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.2588261488221</v>
+        <v>23.26924899410974</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.18793669757663</v>
+        <v>28.67903912516448</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.64817080960685</v>
+        <v>37.95540437060853</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.754993088009964</v>
+        <v>14.38123555293425</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.13098540054591</v>
+        <v>32.87727543672221</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>45.57963831046916</v>
+        <v>41.34446200202014</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.14924599751294</v>
+        <v>17.30203603600749</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.84463302810862</v>
+        <v>30.18272595488171</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.68059262176895</v>
+        <v>37.87227242104179</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>6.623625618693737</v>
+        <v>11.8492197537255</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.05858526017313</v>
+        <v>29.76068755044689</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.28218939996938</v>
+        <v>36.99157248857352</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>11.01530984296777</v>
+        <v>14.03354306700165</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>44.33151905820606</v>
+        <v>41.84419141038925</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.66209462616516</v>
+        <v>52.89771328358751</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.50711335446945</v>
+        <v>42.70402364991124</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.42359928916915</v>
+        <v>50.05352958463615</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.29236939254125</v>
+        <v>58.71940723689549</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.68093806030042</v>
+        <v>17.02794487684926</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>53.79261030159033</v>
+        <v>46.56132825837097</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>63.80000477431057</v>
+        <v>56.37986413999359</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.73177394897909</v>
+        <v>19.58687524584682</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.84067505678615</v>
+        <v>26.13832322475882</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.95519327653646</v>
+        <v>28.83746924058032</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.57657707208952</v>
+        <v>12.94402639331685</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.11583417237007</v>
+        <v>18.67663787331356</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.88057889512309</v>
+        <v>19.67555173163548</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.778881113302582</v>
+        <v>15.48088762289339</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.8486084613828</v>
+        <v>29.45620213347805</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.76928157357452</v>
+        <v>32.12010818571952</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.98546692114387</v>
+        <v>26.38060273474901</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.4701204851501</v>
+        <v>31.04704220061942</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.44573462839534</v>
+        <v>32.80067701587549</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>6.610139542345685</v>
+        <v>17.41981010077072</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.80410931355431</v>
+        <v>22.72169778629967</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.42306641011047</v>
+        <v>26.03736635555968</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.0797269188525</v>
+        <v>17.85682453949224</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.16344387480097</v>
+        <v>26.35885698272017</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.10092370786377</v>
+        <v>28.55261547794731</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.112128298828033</v>
+        <v>11.15390441974625</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.37685825576561</v>
+        <v>15.36116874623063</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.56477219324081</v>
+        <v>17.86722802434676</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5.526792663552889</v>
+        <v>12.60723772801092</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.03406929813453</v>
+        <v>24.36791588454061</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.77121783314709</v>
+        <v>20.38860184224808</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.61219928537193</v>
+        <v>30.17262818988704</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.6743595619411</v>
+        <v>29.79782989055267</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>7.560967459512469</v>
+        <v>13.76800321535519</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.38729331821929</v>
+        <v>29.32426091947865</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.00873495415308</v>
+        <v>29.5851056692415</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.151800329498</v>
+        <v>15.37925331347977</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.34893685065192</v>
+        <v>38.80316221159372</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.41319312770823</v>
+        <v>39.65556575592216</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.43079931945105</v>
+        <v>41.70353888861581</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.12576821101504</v>
+        <v>44.74691435554678</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.20000213364861</v>
+        <v>44.84722665341062</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>10.51543981684165</v>
+        <v>20.07667489421627</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.15409360770978</v>
+        <v>43.84889965843561</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.14015826951013</v>
+        <v>43.08752246639253</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.24206440566667</v>
+        <v>18.28273473082098</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.15423716676069</v>
+        <v>31.01945742484163</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.29733434163322</v>
+        <v>33.67542082868665</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.485283376766112</v>
+        <v>11.87120352846212</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.46159178034694</v>
+        <v>28.59892743307575</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.46621111401065</v>
+        <v>30.78526421638097</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.53637792352622</v>
+        <v>13.27967690163707</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>44.62609586346461</v>
+        <v>39.95716762165328</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.06072556011305</v>
+        <v>15.79465329658431</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.8432712785043</v>
+        <v>24.52522137343846</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.3618013408343</v>
+        <v>27.20842808196858</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.61696486929592</v>
+        <v>12.93688888860263</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.78788720334362</v>
+        <v>27.68359995455614</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.22135092338166</v>
+        <v>28.80712161870783</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>11.8165936500322</v>
+        <v>15.75060952895627</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.35361328200451</v>
+        <v>36.76780146826321</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>39.01630940315627</v>
+        <v>40.43391138251545</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.36650892115103</v>
+        <v>41.99386186067954</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>48.46974848427678</v>
+        <v>43.4791329869946</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>45.0912718422055</v>
+        <v>43.80871852744629</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.152278517126533</v>
+        <v>15.68908107655449</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.66351608858402</v>
+        <v>34.66639493736529</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.36721888257951</v>
+        <v>34.67348710847781</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>8.477343810989108</v>
+        <v>13.40263827032529</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.19238074951316</v>
+        <v>28.60182562145399</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.99241906401074</v>
+        <v>33.05045832264057</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.095387684812163</v>
+        <v>11.4636033031086</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.3955773669522</v>
+        <v>22.97759561059782</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.89173937183692</v>
+        <v>32.22141498739597</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.711131335934411</v>
+        <v>13.17532912980463</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.48875324032239</v>
+        <v>34.12346060471714</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>10.6664632724717</v>
+        <v>15.52977939468684</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.23068987756396</v>
+        <v>22.81151064826486</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.86951802796183</v>
+        <v>26.81751293177181</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6.840255692096171</v>
+        <v>12.92759090622081</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.53727842282619</v>
+        <v>26.05128637532797</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.83465613190499</v>
+        <v>30.58466697302957</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.977464043203181</v>
+        <v>13.76302349889008</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.69286335828036</v>
+        <v>34.44279710572516</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.92392784172879</v>
+        <v>39.80351942218932</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.26292831108498</v>
+        <v>35.69312647617927</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.62740401310867</v>
+        <v>39.40352085514395</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.26845259377695</v>
+        <v>40.65285678916445</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>9.847940823845843</v>
+        <v>16.4263506659479</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.65085529862587</v>
+        <v>33.48614966217557</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.95818950896797</v>
+        <v>34.79965344545825</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>9.619383066177349</v>
+        <v>13.20299030131177</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.06087567433797</v>
+        <v>24.43808441298224</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.79575544526413</v>
+        <v>31.33457108731233</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.192500819607737</v>
+        <v>11.69488767378054</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.70481161496498</v>
+        <v>20.19288836931933</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.23070003993268</v>
+        <v>30.97977810131563</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.168080849689687</v>
+        <v>12.77869572760223</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.61188525252557</v>
+        <v>27.44073324978126</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.30217906988162</v>
+        <v>26.32662223467795</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.36669113559378</v>
+        <v>24.35233315349838</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.2983397905475</v>
+        <v>33.84855193867293</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.03806966566049</v>
+        <v>35.00240716310899</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.486617333336227</v>
+        <v>14.1543095833875</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.95179585571145</v>
+        <v>21.23595058428044</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.62695464855583</v>
+        <v>25.97799166492181</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14.24136030139352</v>
+        <v>18.02499884912773</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.62533460749692</v>
+        <v>27.50367127282556</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.41269549220454</v>
+        <v>32.01457822022736</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.3570834336168645</v>
+        <v>10.99061963374242</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.63701971279508</v>
+        <v>14.56003212339623</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>14.38963931716849</v>
+        <v>18.31139942022579</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.861680843621961</v>
+        <v>12.65344489843104</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.1941185660234</v>
+        <v>23.18818563912699</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.73877528842741</v>
+        <v>33.03181398212948</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.03434749166817</v>
+        <v>25.55299385505401</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.16544693977773</v>
+        <v>35.57134608629102</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.44638022719285</v>
+        <v>39.99071182811056</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>5.850437791559372</v>
+        <v>14.3855265977849</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>20.7042463376294</v>
+        <v>22.44331967648579</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.22655219141756</v>
+        <v>29.09051064900676</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.22914098022778</v>
+        <v>46.0301408968959</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.04469498918031</v>
+        <v>42.54970974888019</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>53.45047877103947</v>
+        <v>48.59985739830228</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.91219965763086</v>
+        <v>47.25463010362111</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>12.00385156553482</v>
+        <v>16.95277397508246</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.84081772564308</v>
+        <v>44.85281660573928</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>54.03116541609423</v>
+        <v>48.84209308744717</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.54382895028809</v>
+        <v>21.63537419567593</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.7190018742584</v>
+        <v>35.70114439260845</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.40792182838069</v>
+        <v>38.09839974195745</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>9.114161932928607</v>
+        <v>12.77958333583322</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.14561769355006</v>
+        <v>35.14867594374685</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.8839590738356</v>
+        <v>36.72408800273389</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>14.33040957275858</v>
+        <v>16.14205219573643</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>55.62274512902263</v>
+        <v>50.15081344658222</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>59.72188904746619</v>
+        <v>52.03071084547479</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>63.39444152031722</v>
+        <v>56.56043993309764</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>67.06950507608408</v>
+        <v>58.70225585943116</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>73.39544967544867</v>
+        <v>60.70331354826027</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.52310670809782</v>
+        <v>24.25826139970957</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.29730044680174</v>
+        <v>56.17468397336965</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>68.08690661002954</v>
+        <v>58.17877020263832</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>50.69782874820947</v>
+        <v>46.39736316418533</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>35.84773314353943</v>
+        <v>36.52363974640235</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>44.88980286839791</v>
+        <v>41.21758017678781</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>55.01822283319218</v>
+        <v>49.11077011648201</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.44883420434622</v>
+        <v>12.40673535791095</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>44.73657266426078</v>
+        <v>40.94163307006237</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>52.02351341986484</v>
+        <v>46.68797954941046</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.55143901845558</v>
+        <v>16.39921955090323</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.7427760043283</v>
+        <v>32.12736240566872</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.12511032140418</v>
+        <v>36.62857814717913</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.110868211828858</v>
+        <v>11.40500396292467</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.39403953378917</v>
+        <v>30.19235878337841</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.28970461724485</v>
+        <v>37.29814334193134</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>10.22372182897839</v>
+        <v>14.38919549034029</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>49.51697291304343</v>
+        <v>43.54678178474083</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>58.82684481354896</v>
+        <v>52.3194796207576</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>57.2271754117714</v>
+        <v>50.74734811026131</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>63.28169346260135</v>
+        <v>55.93912020413183</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>73.56925780283416</v>
+        <v>61.90571873380079</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.60263447653392</v>
+        <v>16.1474267705408</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>58.86227176347414</v>
+        <v>51.43911757855957</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>66.58477175403425</v>
+        <v>57.46962274268404</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>48.60966583903318</v>
+        <v>44.47149749015761</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.18024601646554</v>
+        <v>24.98090165614123</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.53931672210949</v>
+        <v>31.27644004424282</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>43.77408609792746</v>
+        <v>39.92666827327584</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.474469847795572</v>
+        <v>12.74861783229909</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.18356434787355</v>
+        <v>36.92686794260359</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.86372951707617</v>
+        <v>44.31303681061148</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.12357708845341</v>
+        <v>15.21367793595352</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.72262964269658</v>
+        <v>29.29356026335872</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.60675618820368</v>
+        <v>37.1826968968455</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.656983153408742</v>
+        <v>12.13288134966898</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.27348545630066</v>
+        <v>26.36697164610743</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.0385593671791</v>
+        <v>37.80894093957431</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>7.576748926706081</v>
+        <v>13.26965612466443</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>37.50566190222271</v>
+        <v>36.30249403590624</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.36846583085826</v>
+        <v>52.33736999189448</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.97477647690658</v>
+        <v>38.80287221438603</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>55.38875735956723</v>
+        <v>49.31056930421239</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>68.28243619992728</v>
+        <v>60.44891877974356</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.336398101266202</v>
+        <v>14.30846650410229</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.40553248302142</v>
+        <v>43.62539992253072</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>61.99420088705275</v>
+        <v>55.34921822012883</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.94461206846768</v>
+        <v>12.00377018210986</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.4758023412129</v>
+        <v>19.44557527968674</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.70483595703219</v>
+        <v>29.15638082287019</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.8096582841447137</v>
+        <v>3.663756643979234</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.27191375362739</v>
+        <v>14.0938901097727</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.7524312077146</v>
+        <v>16.37567103705163</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.47867469072726</v>
+        <v>5.555961220113058</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.01630148981411</v>
+        <v>29.91486863888103</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.38670508515679</v>
+        <v>35.25471161728075</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.67673405601632</v>
+        <v>22.17256996951231</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.45394540154531</v>
+        <v>28.13066202249093</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.6178999896577</v>
+        <v>28.87622606080253</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.302722013144045</v>
+        <v>10.43718332439657</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.83973946613392</v>
+        <v>17.90296491048247</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.7565743521193</v>
+        <v>28.50389770243483</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.46221210501234</v>
+        <v>13.0724783543138</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.69389036283771</v>
+        <v>25.9948177668809</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.30371055095996</v>
+        <v>28.4793260258213</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.4392603357904576</v>
+        <v>2.997221442116455</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.25502343218643</v>
+        <v>10.8485296389497</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.55946252403918</v>
+        <v>15.94584556577042</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.7917159671492193</v>
+        <v>4.8331371679554</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.95274844219308</v>
+        <v>24.89005587081359</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.51998255277336</v>
+        <v>16.24628542960372</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>32.7622896398567</v>
+        <v>31.82147342895588</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.07719504806791</v>
+        <v>32.91262759573686</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.769852044080118</v>
+        <v>4.657268118201678</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.67425952129136</v>
+        <v>34.76112284267425</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.64783180878851</v>
+        <v>33.87912514092083</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.701705112263053</v>
+        <v>6.697680826439438</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>50.22913749271665</v>
+        <v>49.30563393551527</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.09207533957151</v>
+        <v>49.89177081740917</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>51.07086734180825</v>
+        <v>50.41274074741865</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>56.69107822779617</v>
+        <v>56.76437892616813</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>55.39610415427414</v>
+        <v>55.0939285241293</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.99720104028624</v>
+        <v>15.79136611399508</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>54.85604121311482</v>
+        <v>52.55621745641731</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>58.7189456391999</v>
+        <v>54.3933349238973</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.14868188369329</v>
+        <v>17.18216594289266</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.61106756594976</v>
+        <v>34.33533035049832</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.45968625531142</v>
+        <v>35.08018363909012</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.785586709914472</v>
+        <v>3.577893458857332</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.62862099678961</v>
+        <v>32.40405434729501</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.83178970956873</v>
+        <v>32.40130800828393</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.092902284359802</v>
+        <v>5.279504424950218</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>53.21443398081711</v>
+        <v>49.81885983114087</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>6.463926179929917</v>
+        <v>7.104531272949483</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.60037734880631</v>
+        <v>22.86503794173083</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.43680486290411</v>
+        <v>29.5529191272789</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>3.195726612534088</v>
+        <v>4.082510381523448</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.76662836282243</v>
+        <v>32.53651497372927</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>34.41287142340566</v>
+        <v>34.00258883585821</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.423298352111203</v>
+        <v>8.494957408630039</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.42132002161738</v>
+        <v>48.40562129604449</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>52.19691803034738</v>
+        <v>52.51970425825841</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>55.75285173385737</v>
+        <v>54.84607779439052</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>60.97804803489066</v>
+        <v>58.39826894288673</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>59.78073121775533</v>
+        <v>58.92683594284551</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.979696816836892</v>
+        <v>7.501204579313502</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.11062370023065</v>
+        <v>39.34338329167853</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>46.77019879464654</v>
+        <v>42.47411518513395</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.96772187787501</v>
+        <v>10.58281031925256</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.85529593288774</v>
+        <v>33.34147027828109</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.61929152987688</v>
+        <v>35.3397229563983</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.538739650120295</v>
+        <v>4.042075422177682</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.41650630583638</v>
+        <v>28.38441813646129</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.25079710198897</v>
+        <v>35.25509237955712</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>5.348062210158954</v>
+        <v>7.279653898244437</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>46.95048038023229</v>
+        <v>47.746825651995</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.272276258142035</v>
+        <v>5.428156348879327</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.93818722693842</v>
+        <v>17.95060862498149</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.06945144319409</v>
+        <v>27.14231043222098</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.049659726509393</v>
+        <v>3.913317346706904</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.94320916569286</v>
+        <v>26.62859953047533</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.54596616429419</v>
+        <v>36.40829638173538</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>2.620992521791354</v>
+        <v>4.316893993131345</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>39.74100649267069</v>
+        <v>40.98432042939315</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>50.05036996986434</v>
+        <v>50.33153426609078</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>44.4961910594706</v>
+        <v>43.84570314160864</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.11747804694133</v>
+        <v>50.19967908830199</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.42507639076953</v>
+        <v>53.82365531039835</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1.902424346851863</v>
+        <v>6.378324508338132</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.3103429027865</v>
+        <v>32.97710591931837</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>43.03804153132049</v>
+        <v>42.36030050269954</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>8.214743455840544</v>
+        <v>7.863938517623122</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.27713869089986</v>
+        <v>26.8294731265342</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.34450539517285</v>
+        <v>32.72076994668865</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>4.485867337688038</v>
+        <v>3.951544416291789</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.78024570312064</v>
+        <v>22.49347814138515</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.71563849339103</v>
+        <v>33.20464881052227</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>5.001771600115404</v>
+        <v>4.543812922817608</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.47193073866002</v>
+        <v>35.40643043852154</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.69473627754351</v>
+        <v>30.53840276646753</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.42689263784701</v>
+        <v>23.14069298996074</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.85614079968718</v>
+        <v>37.49000708961662</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.98076783061451</v>
+        <v>38.16320129569239</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>5.12307980532594</v>
+        <v>8.491246385616844</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.20219013436841</v>
+        <v>21.87712018221347</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.12005866166593</v>
+        <v>28.95616920465534</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>11.51963796456651</v>
+        <v>12.62137863365401</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.63967501723759</v>
+        <v>26.09366272582273</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.33957528592531</v>
+        <v>35.71678765669201</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-3.415485548239868</v>
+        <v>2.691432763395095</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.492166239909356</v>
+        <v>9.005728241996124</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.48150589598639</v>
+        <v>13.98817324280419</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1.399077830916418</v>
+        <v>3.979517907877732</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.47023435437604</v>
+        <v>21.37947709616202</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.54492074356592</v>
+        <v>38.94737289403903</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.75801055051796</v>
+        <v>25.48593079093148</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.2124058528177</v>
+        <v>43.96689390884877</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>50.30724472412398</v>
+        <v>49.75236914986982</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1.56545533909642</v>
+        <v>7.019722409833907</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.39459095819608</v>
+        <v>20.15108379816574</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.50550728464371</v>
+        <v>32.54414522293039</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.32106023607138</v>
+        <v>54.07729267368117</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.03824808441878</v>
+        <v>55.03445497734646</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>61.71256218236467</v>
+        <v>59.55588803923541</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>62.06784399364626</v>
+        <v>57.30551716889134</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.42363584607395</v>
+        <v>15.60317861218817</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>57.82824731659315</v>
+        <v>55.52706994483568</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>58.74004590364623</v>
+        <v>57.74424399535576</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.15598968881391</v>
+        <v>18.66290341689579</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.21216312305636</v>
+        <v>38.24785865449383</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.14431851391869</v>
+        <v>43.40091294235658</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.927142774804945</v>
+        <v>4.641703837850038</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.37473508174226</v>
+        <v>43.26362044187214</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>45.22520316507413</v>
+        <v>42.80702745086688</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>7.757297689406155</v>
+        <v>6.433440824135928</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>64.36022446821512</v>
+        <v>63.33936089212394</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.57361878766415</v>
+        <v>66.10097127395866</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>74.52598338981264</v>
+        <v>72.59149347954127</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>78.98297523496895</v>
+        <v>76.04067718424463</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>85.50031828971549</v>
+        <v>78.11201898622511</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>19.67067220077854</v>
+        <v>20.37145160010755</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.51012750595291</v>
+        <v>71.02011326925255</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>78.05392199956174</v>
+        <v>73.88773464221782</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>59.51587530667089</v>
+        <v>57.61283556774268</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.33013060133175</v>
+        <v>49.75148460222986</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>54.05093786632175</v>
+        <v>53.93155666092012</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>61.79365222183456</v>
+        <v>59.65992568500182</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>8.796218671341393</v>
+        <v>9.716503572273982</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>52.65746208229976</v>
+        <v>52.29466994422387</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.93361908044609</v>
+        <v>56.07957870064722</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>11.46705199179257</v>
+        <v>11.69646230306564</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.60284922822295</v>
+        <v>34.88577873024432</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.16596223806837</v>
+        <v>42.30901739938022</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.507436663565549</v>
+        <v>3.459150840226631</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.27910590229293</v>
+        <v>36.32415453439363</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.45093327106125</v>
+        <v>42.81911896171253</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>4.911189097192043</v>
+        <v>7.149008237566893</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>60.4536797675614</v>
+        <v>57.69258377721077</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>71.40347269158443</v>
+        <v>68.48045258771502</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>71.01485105497946</v>
+        <v>69.12395249313366</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>75.58075826717919</v>
+        <v>74.16731307048406</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>87.00908420934283</v>
+        <v>81.21316149222764</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>8.854719774634262</v>
+        <v>9.857286233797993</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>66.50155639300473</v>
+        <v>65.73312499179454</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>75.96664731677232</v>
+        <v>74.56242951118702</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>55.16087383590308</v>
+        <v>52.80812850727022</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.90808712650072</v>
+        <v>28.76651605746447</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.1429971859345</v>
+        <v>37.14595587703569</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.71408080956915</v>
+        <v>46.08077781142498</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.765749863217106</v>
+        <v>7.777364735037867</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>45.66443629093168</v>
+        <v>46.6685631482889</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.54650767331376</v>
+        <v>52.11698681070614</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.537597670083475</v>
+        <v>8.885467467083576</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.65541928933377</v>
+        <v>29.72079743598618</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.89363265563619</v>
+        <v>42.40742696862427</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.031433191407292</v>
+        <v>4.262666006816964</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.96883978284821</v>
+        <v>28.63186305178447</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.45496289670976</v>
+        <v>44.30224859848829</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.4102813405875239</v>
+        <v>3.816130683848623</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.56446503664058</v>
+        <v>43.37301451302362</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.05024567656648</v>
+        <v>66.68914973150271</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.28198904034541</v>
+        <v>48.38185007129574</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.49551304492141</v>
+        <v>63.26473628060327</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>82.47530789151212</v>
+        <v>80.17731597859054</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>4.04553225073079</v>
+        <v>6.669484461146222</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>56.80002176347043</v>
+        <v>52.87442481020086</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>73.2898660805442</v>
+        <v>69.56411640675066</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.15184239114563</v>
+        <v>21.09716999390963</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.57039740568581</v>
+        <v>21.88492103099572</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.29664746550137</v>
+        <v>29.65222245122531</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.750416172713447</v>
+        <v>13.5176811364139</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.61118615998895</v>
+        <v>24.55506032938805</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.43649286035535</v>
+        <v>25.98624780618619</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.02806757825538</v>
+        <v>16.57721038984004</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.34612356780257</v>
+        <v>33.38353548679235</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.8290148290573</v>
+        <v>35.29154543161572</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>19.43565865646065</v>
+        <v>21.97786252077292</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.34881680864732</v>
+        <v>25.2243798045319</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.20373576592776</v>
+        <v>25.17191475965585</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.07684571944057</v>
+        <v>24.85615322897985</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.57952577814232</v>
+        <v>21.76578329370972</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.58033634181995</v>
+        <v>33.20587828576101</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>13.72645287809302</v>
+        <v>17.07578849948205</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.03768598092131</v>
+        <v>25.89955636646263</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.93454368832817</v>
+        <v>29.44715570554863</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.09661707680347</v>
+        <v>15.27033483721259</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.53115411961248</v>
+        <v>19.500941937433</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.82673784549821</v>
+        <v>20.55169435971098</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>6.350370235875207</v>
+        <v>12.59744673696372</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.784948040837</v>
+        <v>23.25437759909416</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.59439950570542</v>
+        <v>23.15236363166115</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.64540900222601</v>
+        <v>28.11887921198401</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.74357776355881</v>
+        <v>30.79582939548446</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.44023909237509</v>
+        <v>13.52462149654521</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>35.34312894888519</v>
+        <v>33.21529748615924</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.24272942091061</v>
+        <v>33.53272461885935</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.97308564215337</v>
+        <v>16.24037845402659</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>43.56969653649112</v>
+        <v>41.83251013138756</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>45.27042192860317</v>
+        <v>41.72800098786043</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.61472060541889</v>
+        <v>41.60911262176266</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>51.11391833032728</v>
+        <v>46.12465074769681</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.61742623019511</v>
+        <v>45.42026057023386</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.62428349823048</v>
+        <v>27.92227316635454</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>49.10828440380776</v>
+        <v>41.34249069970801</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>53.35952051069992</v>
+        <v>44.62894182832813</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.23698237268226</v>
+        <v>22.43697369111158</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.26606096663915</v>
+        <v>30.45026825075601</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.17287981874365</v>
+        <v>32.25706180420991</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.88738920683102</v>
+        <v>15.8804945229311</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.24826572397199</v>
+        <v>30.99525180567479</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.11975305606426</v>
+        <v>32.80419259369767</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.41404111506556</v>
+        <v>13.47382939500017</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.46669081745848</v>
+        <v>39.42208789299184</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>12.05610419728652</v>
+        <v>17.25760418174849</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.24282649864057</v>
+        <v>24.07575042953112</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.42074279977689</v>
+        <v>29.22649523533929</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>7.982676010854899</v>
+        <v>12.58653444712765</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.91231241979866</v>
+        <v>32.04726492346187</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.40871195275737</v>
+        <v>33.03021166505301</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>12.54467826585213</v>
+        <v>15.77151114691636</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.78119140451955</v>
+        <v>41.32183504793306</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>48.79369602246305</v>
+        <v>44.22528338007871</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.88250150693699</v>
+        <v>44.27337618549894</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>53.84550862137624</v>
+        <v>47.14488166562916</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>54.34893492431785</v>
+        <v>49.04357445229235</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>15.27883301151282</v>
+        <v>20.0927214956585</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.1424442400337</v>
+        <v>35.70925121594143</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>45.73048584728598</v>
+        <v>40.91024048620466</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>15.69206476138805</v>
+        <v>18.49373567496567</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.8926432437961</v>
+        <v>28.62039560955838</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.60643667085404</v>
+        <v>31.96073158461348</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.27143313760881</v>
+        <v>15.73401248338098</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.06467517700504</v>
+        <v>27.84264181237779</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.41460584191361</v>
+        <v>33.66980064391109</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>9.317056293060702</v>
+        <v>14.38513636725303</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.37178045692787</v>
+        <v>37.19135521778799</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>9.014568082557812</v>
+        <v>14.31117775633672</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>16.35262545033761</v>
+        <v>18.77973141403444</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.29629418992507</v>
+        <v>26.08311691641511</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>8.048714740830743</v>
+        <v>12.53957604436961</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.49653435843251</v>
+        <v>30.13813837943142</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.54242615760684</v>
+        <v>33.90583870985575</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>7.992347076732695</v>
+        <v>12.75403143251501</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.67596265217058</v>
+        <v>37.09588708250609</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>46.83607704135828</v>
+        <v>41.870643082897</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.53390261020724</v>
+        <v>37.57952159976708</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.88577411155457</v>
+        <v>40.91763043791349</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>48.73140179514293</v>
+        <v>43.64299962818306</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>11.41036852652467</v>
+        <v>16.5634087121803</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.73679574008032</v>
+        <v>28.59527461334903</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>43.32715276562759</v>
+        <v>40.86944887628065</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>11.7137980724052</v>
+        <v>15.28039145504666</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.93073044371593</v>
+        <v>25.84944447164295</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.6874564398404</v>
+        <v>30.54302410457635</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.28319357834394</v>
+        <v>15.81672894438718</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.44743473959596</v>
+        <v>26.22355806547053</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.26918534707582</v>
+        <v>32.76845566079465</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.18525276296786</v>
+        <v>12.24391742946552</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.90766874487943</v>
+        <v>32.50677248819122</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.69664481541746</v>
+        <v>25.33614214101669</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.79361215886846</v>
+        <v>22.68903794473735</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.62446431865056</v>
+        <v>31.19260309991846</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>33.7829402391813</v>
+        <v>33.1813168325954</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.08725584497907</v>
+        <v>15.62155743813909</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.23466803306934</v>
+        <v>20.63953956804419</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.00558469383321</v>
+        <v>24.81347956246127</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.0457884935133</v>
+        <v>19.13009314408291</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.07485601667585</v>
+        <v>26.00041592294149</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.71407570047005</v>
+        <v>32.34501945064178</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>9.39020010410874</v>
+        <v>15.09025245897424</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>17.99683998908713</v>
+        <v>19.31237451299071</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.37174745677734</v>
+        <v>21.94629273496192</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>7.135196078012449</v>
+        <v>13.06614813484188</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.67358642101721</v>
+        <v>24.7599100716258</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.88646471089274</v>
+        <v>35.20583013907146</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.31689971696142</v>
+        <v>25.60583115382937</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.67890839219265</v>
+        <v>36.88728894194297</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>42.93122162149039</v>
+        <v>39.26853359731572</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>11.54523391042085</v>
+        <v>15.60056435552795</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.09357368690856</v>
+        <v>23.16778598600475</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.49369639444233</v>
+        <v>30.05679514326127</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>47.85281874825931</v>
+        <v>43.41269010110221</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.88995085670191</v>
+        <v>41.42258551084252</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>51.26537221798638</v>
+        <v>46.98475208563362</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>53.14189001661287</v>
+        <v>46.46349008921779</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.44554400015618</v>
+        <v>24.09000053761334</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>50.01564580954553</v>
+        <v>44.14163025197772</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>51.87599864751318</v>
+        <v>46.10078641847205</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.59208317674981</v>
+        <v>26.15580590254327</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.57199496902368</v>
+        <v>33.67271121717054</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.48077099441832</v>
+        <v>38.40223217282007</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.41707508088179</v>
+        <v>16.85479394644855</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>40.59995943049809</v>
+        <v>37.67954176472708</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.24458750230318</v>
+        <v>39.23892109580125</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>14.54840825422052</v>
+        <v>16.15685089643208</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.21264504698453</v>
+        <v>50.15119832427148</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>61.22285188446919</v>
+        <v>53.02870661844354</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>66.23452919612581</v>
+        <v>56.1293887839326</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>69.36681285363919</v>
+        <v>59.30726354997795</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>73.82255378494256</v>
+        <v>61.33845974142326</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.89101631232005</v>
+        <v>31.76533979803829</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>66.50830518086019</v>
+        <v>56.45572139642792</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>69.93921440907616</v>
+        <v>58.34491736161715</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>50.4875874865989</v>
+        <v>45.88351903046276</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.4767537017751</v>
+        <v>37.28758913415338</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>43.66114611762764</v>
+        <v>40.90033378719174</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>52.31526294672165</v>
+        <v>46.45418123764875</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.57153904818857</v>
+        <v>19.50613895299647</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.37732588031631</v>
+        <v>41.73480302599174</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>50.63238460906544</v>
+        <v>45.19378164749443</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.80837753787876</v>
+        <v>21.15794095344987</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.4323104804313</v>
+        <v>31.82542890651424</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.05322177608814</v>
+        <v>37.72827272159547</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.85433794188231</v>
+        <v>16.1413556622372</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.81145357682136</v>
+        <v>36.30808537714213</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.24553372299758</v>
+        <v>39.60719660199432</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>12.32686133446832</v>
+        <v>15.9048529316434</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.52393925261042</v>
+        <v>48.46646604826253</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>63.05326265896897</v>
+        <v>55.17235465459062</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>62.65852526951384</v>
+        <v>55.15332743488121</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>66.44464748607618</v>
+        <v>57.92519228852085</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>75.59329795910055</v>
+        <v>63.70934075041072</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.75263646079834</v>
+        <v>23.06095479066797</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>61.30829291755962</v>
+        <v>53.70250838071237</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>68.41655414705362</v>
+        <v>59.53436412181745</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.90413006856609</v>
+        <v>42.95717392678245</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.21104531557885</v>
+        <v>25.42282343470447</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.61268134516122</v>
+        <v>30.02278179761107</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>40.03414351399697</v>
+        <v>36.7398601472466</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.82800123114094</v>
+        <v>15.84854606670995</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.59133018343698</v>
+        <v>37.35738720418833</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>46.70266677696451</v>
+        <v>42.83095490655533</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.27448031606074</v>
+        <v>17.74386853348138</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.32617761494183</v>
+        <v>30.49761432089464</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.0375859987327</v>
+        <v>38.11374940493405</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.51676587278996</v>
+        <v>16.47428177113802</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>36.53441668088915</v>
+        <v>33.69433776335316</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.71146302364308</v>
+        <v>40.61902580512396</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>9.166682099076187</v>
+        <v>12.64533875094201</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.94132901549106</v>
+        <v>43.39880276319101</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>62.19140620021814</v>
+        <v>54.17050238072122</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>51.92292236518804</v>
+        <v>45.5497279807756</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>59.32755154452295</v>
+        <v>52.27963475791977</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>73.10779805067109</v>
+        <v>62.12268293068072</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>15.29613904682843</v>
+        <v>16.77032663635774</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>52.91550246200057</v>
+        <v>46.39657582930373</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>65.89180596690595</v>
+        <v>57.6024267110778</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.532</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.682</v>
+        <v>17.051</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.704</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.563</v>
+        <v>12.527</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.189</v>
+        <v>4.027</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.515274364259625</v>
+        <v>7.870004498573902</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.69630476479489</v>
+        <v>6.828124563096434</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.17759865990616</v>
+        <v>18.5759094928349</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.05388907643751</v>
+        <v>-1.109907787750185</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.86730357125356</v>
+        <v>8.693017042571984</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.12652505858069</v>
+        <v>11.15875396096659</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.400121033036378</v>
+        <v>2.394872484495206</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.67985161772031</v>
+        <v>18.83366519817447</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.26078652180243</v>
+        <v>25.62035407985697</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.2813165108641</v>
+        <v>9.168803338493223</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.13077103488583</v>
+        <v>13.31262665035502</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.08742553608717</v>
+        <v>16.08156353797895</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.69790305174118</v>
+        <v>16.18963753610562</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.26609144140472</v>
+        <v>15.0375339647177</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.02813605202988</v>
+        <v>32.01374865469337</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.115422512552652</v>
+        <v>5.986331173627292</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.25879796605471</v>
+        <v>21.82803243875637</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.90247635014707</v>
+        <v>27.81599294992823</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.8760079807525258</v>
+        <v>-1.161936843606671</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.723690410947139</v>
+        <v>9.370844441088927</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.53311778076737</v>
+        <v>13.51651064245853</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.219650440577386</v>
+        <v>-0.8755637567159908</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.0283101724462</v>
+        <v>22.83392004634443</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.376669596923687</v>
+        <v>9.235283039775304</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18.93187245055431</v>
+        <v>14.13190966983369</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.2014811155156</v>
+        <v>20.71021760225678</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.6313322694236128</v>
+        <v>-0.9663597550504761</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.31127387826584</v>
+        <v>21.87763950163297</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.93206140703892</v>
+        <v>22.99500927042838</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.811468939005518</v>
+        <v>4.610507260494298</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.84840296866595</v>
+        <v>29.17525931024871</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.16187167255404</v>
+        <v>32.64999462431529</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.18773278680241</v>
+        <v>31.49151507149455</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.72529343091963</v>
+        <v>35.51825539424659</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.72817118586973</v>
+        <v>37.82869451574163</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13.80271124976504</v>
+        <v>20.81647257532625</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.40948336313387</v>
+        <v>44.0199323526186</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.2333211807673</v>
+        <v>50.47866900810146</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.01141879708052</v>
+        <v>13.55947606744974</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.89957224561313</v>
+        <v>33.17971033195391</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.3366732838639</v>
+        <v>36.31532394013337</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.7269125574576947</v>
+        <v>3.437930332318061</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.1250749778522</v>
+        <v>30.91934674895661</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.58100798366099</v>
+        <v>35.52896825500021</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.384556879794062</v>
+        <v>5.594614819890868</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.23123122219925</v>
+        <v>51.92005351088671</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.397535413969724</v>
+        <v>-0.570381688902927</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>12.91617766938074</v>
+        <v>6.048377706867548</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.60130738731345</v>
+        <v>17.97953377584425</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2830382548582833</v>
+        <v>-3.522435672927472</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.3229522275252</v>
+        <v>17.95153158531362</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.75549932791792</v>
+        <v>22.18799743112488</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.197885458446383</v>
+        <v>5.444642553456486</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.90254524129583</v>
+        <v>28.03401061745832</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.90211106679558</v>
+        <v>36.76711362488224</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.62745376340229</v>
+        <v>34.38750181539059</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.84483272410421</v>
+        <v>39.39492548615033</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>49.86512948359002</v>
+        <v>41.62637615346403</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.000871765811759</v>
+        <v>1.392481955392746</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.60488902983464</v>
+        <v>30.28272319829176</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36.29650654551592</v>
+        <v>38.36749948541437</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>9.204983743532434</v>
+        <v>8.492241807905835</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.54139460264903</v>
+        <v>28.28505566602333</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.86591556594953</v>
+        <v>34.45232453838422</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2912208431701018</v>
+        <v>2.099593116249167</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.08662630147166</v>
+        <v>25.10356000203507</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.00198679651066</v>
+        <v>34.79681178232516</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.058029863000286</v>
+        <v>5.180790270096185</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.83827996461568</v>
+        <v>45.78286188548679</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1.719292507168383</v>
+        <v>-2.690251757394197</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10.22509177745608</v>
+        <v>2.325649354294697</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>22.48689447458138</v>
+        <v>18.41672520089453</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.1706069559676848</v>
+        <v>-4.580558588973005</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.55643474199633</v>
+        <v>15.85965360493904</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.9095331583166</v>
+        <v>24.19487700575341</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.259574953063801</v>
+        <v>-2.801949845225796</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.20760448145431</v>
+        <v>21.93525645594077</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.09991608568065</v>
+        <v>34.90186368560865</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.3682281337541</v>
+        <v>24.21719413282368</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.58629172301013</v>
+        <v>27.99807371860678</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.37857853759582</v>
+        <v>36.69652370690893</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.289306114010898</v>
+        <v>-1.848230272957778</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.7836339754128</v>
+        <v>22.93206416715818</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>41.50458823234678</v>
+        <v>40.42669212530773</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.089252499383296</v>
+        <v>3.089549517418508</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.21820015815576</v>
+        <v>23.15760501911303</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>32.85933626589817</v>
+        <v>33.50647871614148</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.4918677491996419</v>
+        <v>1.393670097327529</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.27688187206162</v>
+        <v>20.57900513028131</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32.31702790308525</v>
+        <v>34.40698207489385</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.9574006364767591</v>
+        <v>2.561219927411035</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.30198372611417</v>
+        <v>36.29956930606327</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.31683876242881</v>
+        <v>28.88046215222223</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.98056393435816</v>
+        <v>24.69038613951425</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.04811958176592</v>
+        <v>37.48866075800069</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.14301554358413</v>
+        <v>39.95647672601288</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.337969979255885</v>
+        <v>9.022566173177623</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.99486344732586</v>
+        <v>21.84870203226455</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.40218937029714</v>
+        <v>28.27520734291905</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.7164410086419</v>
+        <v>10.55406479693658</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.35271233027977</v>
+        <v>22.53622604077405</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39.0186987174441</v>
+        <v>36.77289455047358</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.9292036087005577</v>
+        <v>-4.71622815494776</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.649810460141509</v>
+        <v>9.369610155935732</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16.92326064423936</v>
+        <v>18.32476024367148</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.9654435035054867</v>
+        <v>-1.443648221569234</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.6478451127903</v>
+        <v>26.75948360586898</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.04865201260122</v>
+        <v>45.31254080782525</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.71253370132473</v>
+        <v>29.77577408381583</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.29350277365991</v>
+        <v>47.70040353743867</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>54.01033600378939</v>
+        <v>52.97345716802802</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.162873164750017</v>
+        <v>6.659820282060011</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.2734357037342</v>
+        <v>24.96300931799139</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.95341500542311</v>
+        <v>39.33601601954066</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.99888764370428</v>
+        <v>59.42742341025298</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>52.98527340798912</v>
+        <v>50.87928602881485</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.45020909227447</v>
+        <v>58.95621882822336</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>61.39222499540473</v>
+        <v>61.67099778616065</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.99009388229504</v>
+        <v>17.828483159192</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>57.27815714564156</v>
+        <v>58.53730519419187</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>60.81383728239136</v>
+        <v>59.16577100630004</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>20.30239147683568</v>
+        <v>18.94191686987589</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.46697113134399</v>
+        <v>39.03800993622463</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.70791397830827</v>
+        <v>46.73453079595328</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1.660076696560292</v>
+        <v>5.110923197618533</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.65602461639826</v>
+        <v>43.66917864930878</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.33262305362086</v>
+        <v>48.40774510264023</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4.692661919796766</v>
+        <v>8.126128950006542</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.76679890576196</v>
+        <v>68.82633182844808</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>74.32434335083875</v>
+        <v>75.80159391306201</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.04006841402125</v>
+        <v>77.39870345773822</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.3963778151473</v>
+        <v>83.56293067456079</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.79292086441865</v>
+        <v>88.96927798288178</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.52114221420349</v>
+        <v>27.71583152443912</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>78.22447657071091</v>
+        <v>78.39227458822097</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>81.57323281628769</v>
+        <v>83.08152105005357</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>61.31224326832357</v>
+        <v>61.80115054057333</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.50890466799049</v>
+        <v>44.51678487794514</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.22568333231101</v>
+        <v>51.80297372926492</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>61.9379849785174</v>
+        <v>61.39093830619803</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.51336044089274</v>
+        <v>8.45600375285904</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.62476863618909</v>
+        <v>52.90026478013503</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.03345269644206</v>
+        <v>56.11613829708912</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12.52037305271595</v>
+        <v>12.05970427851067</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.94538176627313</v>
+        <v>35.11597625608093</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.64752019766548</v>
+        <v>44.73425197272111</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-0.1182357407980064</v>
+        <v>3.472985652782484</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.50201298271143</v>
+        <v>43.10753794192355</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.08476409974295</v>
+        <v>49.5155778268128</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4.91936411916587</v>
+        <v>7.029345823990447</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>67.71470237894903</v>
+        <v>68.75375997294772</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>76.03315417705852</v>
+        <v>78.6636666237724</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>74.52760022906992</v>
+        <v>75.88616308879354</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.83492623396171</v>
+        <v>82.69307333190491</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>88.99611934382861</v>
+        <v>92.83783417886738</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>11.41072730255714</v>
+        <v>15.53347246783198</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>76.48923747351144</v>
+        <v>75.43048355394012</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>81.83954927693546</v>
+        <v>81.64763792083625</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.93796319515531</v>
+        <v>56.17196323589562</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.864280504993</v>
+        <v>29.21118919729897</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.23088103338124</v>
+        <v>37.27372350379092</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.63284410344548</v>
+        <v>45.18758901071182</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.825719910217924</v>
+        <v>6.791381075684452</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.49682506860252</v>
+        <v>46.78300176392976</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.22224222988618</v>
+        <v>52.41470912672114</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.132988219251487</v>
+        <v>7.79467118971786</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.0799070583202</v>
+        <v>34.10114447580791</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.9109840574869</v>
+        <v>47.96907211518769</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.9987734435451081</v>
+        <v>2.328484632119306</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.46277578466502</v>
+        <v>37.33535643091589</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.77603038051762</v>
+        <v>48.61911904888761</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.064634886390483</v>
+        <v>3.014955618714268</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>59.17608296130722</v>
+        <v>59.20064957449536</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>73.99060080785355</v>
+        <v>76.91569176217996</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.35264597657866</v>
+        <v>65.58751420643938</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>79.79380168434108</v>
+        <v>78.95878785315145</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.76791264907023</v>
+        <v>88.47292593372043</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>7.322159424463152</v>
+        <v>10.72027514407089</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>72.74731163174226</v>
+        <v>73.02602582586736</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>79.99238235609877</v>
+        <v>81.70424544496211</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.00451772796621</v>
+        <v>16.60052546159289</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.22161509749119</v>
+        <v>7.926008320177683</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.37163980274919</v>
+        <v>16.77378675624368</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.6767351124103</v>
+        <v>1.690550500223026</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.05309675878105</v>
+        <v>0.07546020189693436</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.27095247719321</v>
+        <v>1.000301105495392</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.86207733907225</v>
+        <v>6.654165708254261</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.25757237399533</v>
+        <v>7.133779059534859</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.46490750329031</v>
+        <v>12.67493680700225</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.26788628651395</v>
+        <v>6.297845847410063</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.85347224007776</v>
+        <v>12.59583555807689</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>24.36135943759186</v>
+        <v>13.99778387288453</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.03704663424664</v>
+        <v>18.92525090359167</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.67092311271702</v>
+        <v>6.713694114958756</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.52269276400834</v>
+        <v>7.305826596731038</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.20457142460297</v>
+        <v>6.593233807145438</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.24638184140698</v>
+        <v>19.06275422847812</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.78478729165932</v>
+        <v>28.00761868766422</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.75371017283297</v>
+        <v>-3.743370133806792</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>14.22441821167767</v>
+        <v>3.362358341042334</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>16.08292202868295</v>
+        <v>7.866505633362856</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.94709861220188</v>
+        <v>0.8013971205331529</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.28944716478932</v>
+        <v>14.8434815282791</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>20.61834922157687</v>
+        <v>16.43603147687711</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.13541428757767</v>
+        <v>12.64427178502124</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.20654052394503</v>
+        <v>18.31221117371387</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>13.98151987974487</v>
+        <v>2.430771060496735</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.60801318342445</v>
+        <v>11.36686451148153</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.83722103628339</v>
+        <v>12.61734563523612</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.17179749045083</v>
+        <v>9.748627049297214</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.44128135857029</v>
+        <v>19.0896215328498</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.24040850408483</v>
+        <v>22.42905460629168</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.87048808634494</v>
+        <v>25.31121327744776</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.38450446361107</v>
+        <v>34.45946012877731</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>38.86552683175962</v>
+        <v>34.87037955694169</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.8451708943441</v>
+        <v>24.75902989363749</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.1744897181527</v>
+        <v>33.93169789303099</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.28339507732787</v>
+        <v>27.19195147707586</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>19.35819710382222</v>
+        <v>12.13741200812929</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.08163098823752</v>
+        <v>28.16261362566044</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.70046199027474</v>
+        <v>37.22654834390008</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>11.828576763388</v>
+        <v>2.668853768332077</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.84077517580461</v>
+        <v>23.34005186271259</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.22082607469135</v>
+        <v>35.54095620153316</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14.12486860021587</v>
+        <v>8.686578921959079</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.25289711795502</v>
+        <v>42.30762326276806</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17.46769210606532</v>
+        <v>5.470346368664067</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.00198177199514</v>
+        <v>4.783755822273395</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.8986387837016</v>
+        <v>14.06410108402456</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.8319393609371</v>
+        <v>-1.071119083420911</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.68369644704692</v>
+        <v>8.297867697468792</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.44913020451525</v>
+        <v>11.76288749174116</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>15.32255226208179</v>
+        <v>7.284553912367159</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.29443530857292</v>
+        <v>17.09555952729448</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.3003156970337</v>
+        <v>24.81691493832798</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.3698098488574</v>
+        <v>23.44380510131739</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.4564000963831</v>
+        <v>33.3377366724982</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>38.96680047812318</v>
+        <v>33.77500402377864</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18.76326074652023</v>
+        <v>10.24222318712859</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.02663683328647</v>
+        <v>25.99891033240489</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.33833447649825</v>
+        <v>22.0867073204979</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>15.44867981460943</v>
+        <v>3.671450902689831</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.19009801498358</v>
+        <v>18.30049947053776</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.31156306172341</v>
+        <v>32.19431999028178</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>11.10246049828207</v>
+        <v>-4.035673424712634</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>21.34212365239048</v>
+        <v>11.0306020988234</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.23962000264388</v>
+        <v>30.69753659014888</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.62641017161214</v>
+        <v>0.1047770323803938</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.10198069559468</v>
+        <v>25.44970661310608</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>15.93440841691129</v>
+        <v>4.313146212414395</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.23327510676522</v>
+        <v>1.473229292854562</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.88337914063815</v>
+        <v>12.86101526473727</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>12.75427448486548</v>
+        <v>-2.793108415372817</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.05895643265112</v>
+        <v>5.470805600319743</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.57706590477167</v>
+        <v>10.12516016079388</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>14.03421372631382</v>
+        <v>1.719436188019799</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.24501667912702</v>
+        <v>10.49796249892242</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.00105183277564</v>
+        <v>20.6119342504915</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.63287895232883</v>
+        <v>11.51015741130678</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.94799366398238</v>
+        <v>18.97015042221916</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.62604567790023</v>
+        <v>19.45114958288639</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.67757792600982</v>
+        <v>6.514281688116235</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.49625296546737</v>
+        <v>16.79809991430201</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.83976763686882</v>
+        <v>16.9102168403064</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>13.81490729191913</v>
+        <v>2.129335956508157</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.94090069699243</v>
+        <v>16.49181745499883</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.99401172981493</v>
+        <v>32.99343280802901</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>11.23454890859646</v>
+        <v>-2.083753323149725</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>19.53246837262719</v>
+        <v>10.25094703947729</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.19284016514664</v>
+        <v>29.81995151309533</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.77107755403952</v>
+        <v>2.475875164460628</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.48163711472308</v>
+        <v>21.69447780141351</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.46231004336369</v>
+        <v>23.67837315828653</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.37626991876232</v>
+        <v>18.85325427424347</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.91485701473061</v>
+        <v>30.81887074327027</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.78477886609394</v>
+        <v>40.63154737515919</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.33775224862766</v>
+        <v>4.370283004074942</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.89680362402667</v>
+        <v>16.29074060067454</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.1188685503049</v>
+        <v>22.64171257324483</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.37134034283171</v>
+        <v>12.58733595213455</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.32923781551689</v>
+        <v>22.05481946044318</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.66101414823754</v>
+        <v>29.72729981532606</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.66066511875823</v>
+        <v>-6.55490914499299</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>14.24003964642477</v>
+        <v>1.815116483034242</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.4535172244808</v>
+        <v>6.567403742637033</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>13.45879679463843</v>
+        <v>1.216026682367801</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>23.89894936126864</v>
+        <v>19.60018907376364</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.03027848132206</v>
+        <v>25.54643284502573</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.62137375164085</v>
+        <v>19.16934305793539</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.813586959944</v>
+        <v>34.01711238784232</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.52695502675127</v>
+        <v>37.8193426643826</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.83481397403298</v>
+        <v>9.649288112809408</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.51436911952484</v>
+        <v>19.8184311063644</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.50760438567376</v>
+        <v>23.8873344518562</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.21131610185618</v>
+        <v>56.83684730400608</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.24630443916334</v>
+        <v>42.83703777039961</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>45.94281886776895</v>
+        <v>55.18240643327663</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>47.75860292999582</v>
+        <v>66.19157837963175</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.36602510515618</v>
+        <v>15.99981889968587</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>43.82146344056349</v>
+        <v>56.41795483597102</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.22788369892272</v>
+        <v>60.79123004576654</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.62149339726042</v>
+        <v>23.17133433184316</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.09593160905658</v>
+        <v>38.38859217351125</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.16395789844635</v>
+        <v>45.42851283393597</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>13.06982011213825</v>
+        <v>6.808190148764439</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.82943640670035</v>
+        <v>32.81863320331003</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>37.94487917177841</v>
+        <v>41.96613536687113</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.056310689581</v>
+        <v>17.92523541619605</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.23051714301616</v>
+        <v>62.35823603416261</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>52.98156059535158</v>
+        <v>66.14679783745564</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>53.10889722031007</v>
+        <v>68.81154717519092</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>57.22666214945576</v>
+        <v>76.6898874556131</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>59.87719971622209</v>
+        <v>83.39884421362129</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.78700623917844</v>
+        <v>38.68943715878076</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>56.42388137030954</v>
+        <v>76.80439779613954</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>58.69462426624548</v>
+        <v>79.80396644497917</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>45.33140607690971</v>
+        <v>52.63615179593702</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.90702344278414</v>
+        <v>25.4044608020994</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>37.45644794952894</v>
+        <v>40.55472953826071</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>47.39804182970602</v>
+        <v>60.65211512708784</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.26353662127219</v>
+        <v>4.227114024768127</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.94016210115156</v>
+        <v>45.54441004966731</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>45.72712745326805</v>
+        <v>55.99857554148937</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.7672936248999</v>
+        <v>14.01833619615674</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.83691189023785</v>
+        <v>30.75075702118256</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.76218075170265</v>
+        <v>41.99310460992187</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.57857291915023</v>
+        <v>2.275737689806597</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.82988751798855</v>
+        <v>28.9002181200141</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>37.75204164387095</v>
+        <v>41.77379892484302</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>15.54508262268944</v>
+        <v>11.32980792054404</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>44.93515313441736</v>
+        <v>54.34635581384031</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>53.46304867656288</v>
+        <v>65.88170815803659</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>49.23535010667664</v>
+        <v>58.98127667726213</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>54.85196850384015</v>
+        <v>70.39901957226469</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>61.27115137089122</v>
+        <v>84.03679286012004</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.28225837215985</v>
+        <v>24.74219123546272</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>52.89791166571408</v>
+        <v>69.5804271420343</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>59.10719676169947</v>
+        <v>77.65011951930053</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>42.29475644347122</v>
+        <v>50.95103425323005</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.26924899410974</v>
+        <v>14.16982285847781</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.67903912516448</v>
+        <v>26.30880323883791</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.95540437060853</v>
+        <v>45.02438667559775</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.38123555293425</v>
+        <v>3.583598202885327</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.87727543672221</v>
+        <v>37.22867896802482</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.34446200202014</v>
+        <v>48.83408292888335</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.30203603600749</v>
+        <v>12.69265013891282</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.18272595488171</v>
+        <v>31.74996851067003</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.87227242104179</v>
+        <v>45.62857912994293</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>11.8492197537255</v>
+        <v>2.542914108969761</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.76068755044689</v>
+        <v>25.8538947051137</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.99157248857352</v>
+        <v>40.13470732270058</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.03354306700165</v>
+        <v>9.77129544045491</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>41.84419141038925</v>
+        <v>46.8926926859971</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>52.89771328358751</v>
+        <v>64.60637984543993</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.70402364991124</v>
+        <v>44.51050510680843</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>50.05352958463615</v>
+        <v>60.52852512885998</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>58.71940723689549</v>
+        <v>76.73200266623437</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17.02794487684926</v>
+        <v>15.97081310851074</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>46.56132825837097</v>
+        <v>60.16160749794624</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>56.37986413999359</v>
+        <v>69.9598860738998</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.58687524584682</v>
+        <v>15.52783636995921</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.13832322475882</v>
+        <v>21.33225605429867</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.83746924058032</v>
+        <v>25.32843827512124</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12.94402639331685</v>
+        <v>1.652130226293799</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.67663787331356</v>
+        <v>7.125511108619214</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.67555173163548</v>
+        <v>7.285614991106083</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.48088762289339</v>
+        <v>5.902192516136587</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.45620213347805</v>
+        <v>19.47347484919724</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.12010818571952</v>
+        <v>24.01542972136745</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.38060273474901</v>
+        <v>19.45014222127573</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.04704220061942</v>
+        <v>28.38188717283437</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>32.80067701587549</v>
+        <v>30.6738314873279</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.41981010077072</v>
+        <v>3.801386829686308</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.72169778629967</v>
+        <v>15.19988124941109</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.03736635555968</v>
+        <v>10.85577559924624</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.85682453949224</v>
+        <v>8.705628523087061</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.35885698272017</v>
+        <v>23.04238765165468</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.55261547794731</v>
+        <v>29.64691345804054</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>11.15390441974625</v>
+        <v>-1.7946840878889</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.36116874623063</v>
+        <v>5.977450021157736</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>17.86722802434676</v>
+        <v>10.48218867456534</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>12.60723772801092</v>
+        <v>2.581397224633228</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.36791588454061</v>
+        <v>19.60441428792662</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.38860184224808</v>
+        <v>14.60551618189354</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.17262818988704</v>
+        <v>28.35111882243941</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.79782989055267</v>
+        <v>28.20959866137673</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>13.76800321535519</v>
+        <v>3.91526958983178</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.32426091947865</v>
+        <v>21.94473090347832</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.5851056692415</v>
+        <v>22.12657784471159</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.37925331347977</v>
+        <v>8.792678526756116</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.80316221159372</v>
+        <v>34.12493879033178</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.65556575592216</v>
+        <v>35.25732986161838</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.70353888861581</v>
+        <v>39.03100430315745</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.74691435554678</v>
+        <v>48.26161488853064</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.84722665341062</v>
+        <v>45.70748822531418</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>20.07667489421627</v>
+        <v>8.809467197483279</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.84889965843561</v>
+        <v>44.79394523215319</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>43.08752246639253</v>
+        <v>37.99726857537959</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.28273473082098</v>
+        <v>10.97843990252975</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.01945742484163</v>
+        <v>32.51843434382923</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.67542082868665</v>
+        <v>38.06560945613836</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>11.87120352846212</v>
+        <v>3.289386506574203</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.59892743307575</v>
+        <v>26.52047204884673</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.78526421638097</v>
+        <v>36.42823124449851</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>13.27967690163707</v>
+        <v>8.275744172803691</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>39.95716762165328</v>
+        <v>47.120293444579</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.79465329658431</v>
+        <v>6.701331224270998</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.52522137343846</v>
+        <v>20.48881908931806</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.20842808196858</v>
+        <v>24.33974526624469</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>12.93688888860263</v>
+        <v>3.330423393566399</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.68359995455614</v>
+        <v>19.08920765361794</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.80712161870783</v>
+        <v>21.609513058512</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.75060952895627</v>
+        <v>9.450356225450673</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.76780146826321</v>
+        <v>32.11051379352924</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>40.43391138251545</v>
+        <v>37.41428820033917</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.99386186067954</v>
+        <v>38.49346810742909</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.4791329869946</v>
+        <v>48.24956176787785</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>43.80871852744629</v>
+        <v>43.90106794306054</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>15.68908107655449</v>
+        <v>4.233780270623058</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.66639493736529</v>
+        <v>37.28343616774293</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.67348710847781</v>
+        <v>32.02154672860189</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>13.40263827032529</v>
+        <v>3.121829278713722</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.60182562145399</v>
+        <v>22.35484843996377</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.05045832264057</v>
+        <v>33.10380061726708</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>11.4636033031086</v>
+        <v>-1.878835447516526</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>22.97759561059782</v>
+        <v>15.01128754515986</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.22141498739597</v>
+        <v>32.37513199477985</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>13.17532912980463</v>
+        <v>1.450962448851634</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.12346060471714</v>
+        <v>31.19483197533656</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.52977939468684</v>
+        <v>6.982342947998653</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.81151064826486</v>
+        <v>16.50138863883202</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.81751293177181</v>
+        <v>23.87775028591153</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.92759090622081</v>
+        <v>1.818985854647842</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.05128637532797</v>
+        <v>15.24825903546544</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.58466697302957</v>
+        <v>20.45427214562702</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.76302349889008</v>
+        <v>4.067709509460077</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.44279710572516</v>
+        <v>23.94001095352002</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.80351942218932</v>
+        <v>33.58574421707603</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.69312647617927</v>
+        <v>27.67321298099755</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.40352085514395</v>
+        <v>35.23644423363219</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.65285678916445</v>
+        <v>35.02551925539433</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.4263506659479</v>
+        <v>5.892074681958793</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>33.48614966217557</v>
+        <v>31.82761593121123</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.79965344545825</v>
+        <v>28.63955587837718</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.20299030131177</v>
+        <v>3.768679301514446</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.43808441298224</v>
+        <v>19.49724791380878</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.33457108731233</v>
+        <v>34.61752390765716</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.69488767378054</v>
+        <v>0.5097428391828061</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.19288836931933</v>
+        <v>12.45718022215391</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.97977810131563</v>
+        <v>32.07321987089001</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.77869572760223</v>
+        <v>4.258063904165343</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.44073324978126</v>
+        <v>24.82094969988103</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.32662223467795</v>
+        <v>27.89555003890305</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.35233315349838</v>
+        <v>23.37518585422613</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.84855193867293</v>
+        <v>35.68688911189663</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>35.00240716310899</v>
+        <v>41.49337708872548</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.1543095833875</v>
+        <v>0.5073925090628144</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.23595058428044</v>
+        <v>19.41451057360248</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.97799166492181</v>
+        <v>25.47657022148578</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.02499884912773</v>
+        <v>11.85220125000911</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.50367127282556</v>
+        <v>24.36810197597081</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.01457822022736</v>
+        <v>31.95230654314511</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.99061963374242</v>
+        <v>-5.309264290549031</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>14.56003212339623</v>
+        <v>4.116277414250792</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.31139942022579</v>
+        <v>9.723456020887085</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.65344489843104</v>
+        <v>0.5693423204178387</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.18818563912699</v>
+        <v>18.69823715035967</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.03181398212948</v>
+        <v>29.79235960548007</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.55299385505401</v>
+        <v>20.64381957368762</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.57134608629102</v>
+        <v>37.94223823197078</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.99071182811056</v>
+        <v>42.60700715399425</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>14.3855265977849</v>
+        <v>1.847254568306393</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.44331967648579</v>
+        <v>19.34204891121068</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.09051064900676</v>
+        <v>26.82485402943146</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.0301408968959</v>
+        <v>59.23696743086933</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>42.54970974888019</v>
+        <v>48.46181334322551</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>48.59985739830228</v>
+        <v>58.71339743660197</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>47.25463010362111</v>
+        <v>64.23749327256009</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>16.95277397508246</v>
+        <v>8.014210196283042</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.85281660573928</v>
+        <v>57.15187625066456</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>48.84209308744717</v>
+        <v>62.00122848556302</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.63537419567593</v>
+        <v>18.30203910809207</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.70114439260845</v>
+        <v>40.55793476086421</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.09839974195745</v>
+        <v>44.75358832316552</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>12.77958333583322</v>
+        <v>5.448516122368645</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.14867594374685</v>
+        <v>35.32498128617542</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.72408800273389</v>
+        <v>42.39261106313319</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.14205219573643</v>
+        <v>13.45943821206315</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>50.15081344658222</v>
+        <v>60.57844743873582</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>52.03071084547479</v>
+        <v>65.75811832638934</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>56.56043993309764</v>
+        <v>69.07997702353094</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>58.70225585943116</v>
+        <v>76.77600975259531</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>60.70331354826027</v>
+        <v>81.54009296865758</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.25826139970957</v>
+        <v>20.60199141636634</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>56.17468397336965</v>
+        <v>71.29424392583053</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>58.17877020263832</v>
+        <v>75.8287243635282</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>46.39736316418533</v>
+        <v>55.57280174309862</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.52363974640235</v>
+        <v>34.69297349044328</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>41.21758017678781</v>
+        <v>46.5943306141528</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>49.11077011648201</v>
+        <v>60.80730127477799</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.40673535791095</v>
+        <v>0.1501296054008705</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>40.94163307006237</v>
+        <v>47.93623795920473</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>46.68797954941046</v>
+        <v>57.88698027331819</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.39921955090323</v>
+        <v>8.985971288095712</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.12736240566872</v>
+        <v>31.73972360450869</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.62857814717913</v>
+        <v>40.23964811175165</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.40500396292467</v>
+        <v>0.7826575211447846</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.19235878337841</v>
+        <v>29.81192213541866</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.29814334193134</v>
+        <v>41.04684335302669</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.38919549034029</v>
+        <v>7.299431248251487</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>43.54678178474083</v>
+        <v>52.04826263714025</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>52.3194796207576</v>
+        <v>64.44198460369125</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>50.74734811026131</v>
+        <v>59.70334721836229</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>55.93912020413183</v>
+        <v>70.70875676563469</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>61.90571873380079</v>
+        <v>81.43504018240228</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.1474267705408</v>
+        <v>9.791828576796373</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>51.43911757855957</v>
+        <v>64.23290024845744</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>57.46962274268404</v>
+        <v>72.84089858199856</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>44.47149749015761</v>
+        <v>53.81096662931019</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.98090165614123</v>
+        <v>21.55677095666827</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.27644004424282</v>
+        <v>32.73183072414511</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.92666827327584</v>
+        <v>47.86345270266789</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>12.74861783229909</v>
+        <v>3.244667598571493</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.92686794260359</v>
+        <v>40.76422888415797</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>44.31303681061148</v>
+        <v>52.34745303405624</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.21367793595352</v>
+        <v>8.029573125186737</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.29356026335872</v>
+        <v>28.39882850608658</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.1826968968455</v>
+        <v>43.07787337656764</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.13288134966898</v>
+        <v>-0.1997697646327339</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.36697164610743</v>
+        <v>21.83474837042145</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.80894093957431</v>
+        <v>38.19951325696268</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>13.26965612466443</v>
+        <v>4.096596614248025</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.30249403590624</v>
+        <v>38.11584302370447</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.33736999189448</v>
+        <v>61.35723648451078</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.80287221438603</v>
+        <v>40.94501818729824</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.31056930421239</v>
+        <v>59.63225553002329</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>60.44891877974356</v>
+        <v>74.07802422014899</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.30846650410229</v>
+        <v>6.380949816055683</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>43.62539992253072</v>
+        <v>53.95267642192704</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>55.34921822012883</v>
+        <v>67.05629016524904</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.00377018210986</v>
+        <v>9.971757503625637</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.44557527968674</v>
+        <v>16.78640419418274</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.15638082287019</v>
+        <v>27.39479468955155</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.663756643979234</v>
+        <v>-1.321123469514408</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.0938901097727</v>
+        <v>13.33159552090323</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.37567103705163</v>
+        <v>15.7891428713412</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.555961220113058</v>
+        <v>1.139814907566787</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.91486863888103</v>
+        <v>30.56136151812221</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>35.25471161728075</v>
+        <v>36.28543872311263</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.17256996951231</v>
+        <v>19.87086888522098</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.13066202249093</v>
+        <v>26.82743903048027</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.87622606080253</v>
+        <v>26.39857298624208</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.43718332439657</v>
+        <v>6.192664477283806</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.90296491048247</v>
+        <v>19.39354312646627</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.50389770243483</v>
+        <v>30.87135064342666</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.0724783543138</v>
+        <v>9.322592293798088</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.9948177668809</v>
+        <v>24.0069902967909</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.4793260258213</v>
+        <v>29.74777195970849</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.997221442116455</v>
+        <v>0.3306456539205875</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.8485296389497</v>
+        <v>10.71279378414051</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.94584556577042</v>
+        <v>12.6682259040916</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.8331371679554</v>
+        <v>1.183328561310251</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.89005587081359</v>
+        <v>23.89752530941666</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.24628542960372</v>
+        <v>16.62133086875633</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.82147342895588</v>
+        <v>33.32100288557261</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.91262759573686</v>
+        <v>35.97667359933551</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.657268118201678</v>
+        <v>4.21949605176431</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.76112284267425</v>
+        <v>35.82979189265041</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.87912514092083</v>
+        <v>36.45717857745751</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.697680826439438</v>
+        <v>6.97299502279791</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>49.30563393551527</v>
+        <v>50.41469000272559</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>49.89177081740917</v>
+        <v>50.13742724520414</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>50.41274074741865</v>
+        <v>52.42285631441502</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>56.76437892616813</v>
+        <v>58.80548830320595</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>55.0939285241293</v>
+        <v>57.52401392939205</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.79136611399508</v>
+        <v>17.54160625454839</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>52.55621745641731</v>
+        <v>55.41910908415485</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>54.3933349238973</v>
+        <v>60.14057904927956</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.18216594289266</v>
+        <v>15.04048004663873</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.33533035049832</v>
+        <v>36.39723662119066</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.08018363909012</v>
+        <v>35.94202238326687</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.577893458857332</v>
+        <v>3.828599794878439</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.40405434729501</v>
+        <v>32.92781465607705</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.40130800828393</v>
+        <v>34.95021570886188</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.279504424950218</v>
+        <v>5.615357639533059</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>49.81885983114087</v>
+        <v>54.47671950499629</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.104531272949483</v>
+        <v>4.640673123237548</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.86503794173083</v>
+        <v>23.82238414337743</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.5529191272789</v>
+        <v>30.96458953304003</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>4.082510381523448</v>
+        <v>1.902792918451208</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.53651497372927</v>
+        <v>31.97219889767826</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>34.00258883585821</v>
+        <v>35.50662926762113</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.494957408630039</v>
+        <v>7.038622493369719</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.40562129604449</v>
+        <v>48.44458786387388</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>52.51970425825841</v>
+        <v>53.40566238643756</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>54.84607779439052</v>
+        <v>56.43303161041955</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>58.39826894288673</v>
+        <v>61.95431924156505</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>58.92683594284551</v>
+        <v>61.18651853315674</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.501204579313502</v>
+        <v>1.815827740503828</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>39.34338329167853</v>
+        <v>42.58481692523121</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>42.47411518513395</v>
+        <v>48.06458778520597</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.58281031925256</v>
+        <v>9.76863320839748</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>33.34147027828109</v>
+        <v>31.76061689456568</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>35.3397229563983</v>
+        <v>34.15458107231582</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.042075422177682</v>
+        <v>2.418032775731685</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.38441813646129</v>
+        <v>26.25158624354329</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.25509237955712</v>
+        <v>34.26323218019288</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>7.279653898244437</v>
+        <v>4.75868799841037</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.746825651995</v>
+        <v>47.33532011545826</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.428156348879327</v>
+        <v>2.057245074271361</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.95060862498149</v>
+        <v>16.52758520435194</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.14231043222098</v>
+        <v>29.24571872696367</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.913317346706904</v>
+        <v>1.212719755350935</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.62859953047533</v>
+        <v>27.41258509908705</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.40829638173538</v>
+        <v>35.59167829823284</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>4.316893993131345</v>
+        <v>1.189820320794666</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.98432042939315</v>
+        <v>39.3019889019558</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>50.33153426609078</v>
+        <v>50.38918898188652</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>43.84570314160864</v>
+        <v>43.74696818205081</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.19967908830199</v>
+        <v>49.95722636086488</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>53.82365531039835</v>
+        <v>54.95751088756094</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.378324508338132</v>
+        <v>0.09367471952520745</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.97710591931837</v>
+        <v>31.41524912231431</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.36030050269954</v>
+        <v>45.68725179156216</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.863938517623122</v>
+        <v>5.102686056717914</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.8294731265342</v>
+        <v>25.57118948730311</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.72076994668865</v>
+        <v>34.35686296021977</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.951544416291789</v>
+        <v>2.84098053593555</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.49347814138515</v>
+        <v>22.12018934414653</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.20464881052227</v>
+        <v>35.39020635468552</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>4.543812922817608</v>
+        <v>3.785322164325031</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.40643043852154</v>
+        <v>37.34070685370693</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.53840276646753</v>
+        <v>28.80383109012859</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.14069298996074</v>
+        <v>25.46849826454914</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.49000708961662</v>
+        <v>38.45316019725448</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.16320129569239</v>
+        <v>38.67322049862713</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>8.491246385616844</v>
+        <v>5.915145831286146</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.87712018221347</v>
+        <v>20.4080864074886</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.95616920465534</v>
+        <v>27.34427075514064</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.62137863365401</v>
+        <v>11.10794345539193</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.09366272582273</v>
+        <v>23.02438145732699</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.71678765669201</v>
+        <v>35.37306035027471</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2.691432763395095</v>
+        <v>-3.765966954421067</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.005728241996124</v>
+        <v>8.300996334529891</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.98817324280419</v>
+        <v>14.8791844450682</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>3.979517907877732</v>
+        <v>-1.195160530057024</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.37947709616202</v>
+        <v>21.33124574975568</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.94737289403903</v>
+        <v>39.56332792253454</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.48593079093148</v>
+        <v>24.63768445663045</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>43.96689390884877</v>
+        <v>45.0228744126828</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>49.75236914986982</v>
+        <v>50.50870567348391</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>7.019722409833907</v>
+        <v>0.9674010011760394</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.15108379816574</v>
+        <v>18.57086490745537</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.54414522293039</v>
+        <v>34.13525203689748</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>54.07729267368117</v>
+        <v>58.34064288347519</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.03445497734646</v>
+        <v>55.85675310363034</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>59.55588803923541</v>
+        <v>62.86414874481941</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>57.30551716889134</v>
+        <v>62.18278010731009</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.60317861218817</v>
+        <v>15.44515760825396</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>55.52706994483568</v>
+        <v>60.64597514064036</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>57.74424399535576</v>
+        <v>61.16545244496619</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.66290341689579</v>
+        <v>19.0403023623245</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.24785865449383</v>
+        <v>40.83298595829699</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>43.40091294235658</v>
+        <v>46.03736644748349</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>4.641703837850038</v>
+        <v>5.129244336713178</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.26362044187214</v>
+        <v>42.52887222928103</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.80702745086688</v>
+        <v>46.09905486826214</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>6.433440824135928</v>
+        <v>7.296527773845011</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>63.33936089212394</v>
+        <v>65.15871460476589</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>66.10097127395866</v>
+        <v>72.78735650949459</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>72.59149347954127</v>
+        <v>75.82121571244375</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>76.04067718424463</v>
+        <v>82.66955951516212</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>78.11201898622511</v>
+        <v>86.8869721711615</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>20.37145160010755</v>
+        <v>19.6160093087887</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>71.02011326925255</v>
+        <v>74.1838044925656</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>73.88773464221782</v>
+        <v>80.23391049091421</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>57.61283556774268</v>
+        <v>60.98068890876902</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>49.75148460222986</v>
+        <v>48.22932976046226</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>53.93155666092012</v>
+        <v>54.15501103327222</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>59.65992568500182</v>
+        <v>62.6788006915243</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.716503572273982</v>
+        <v>7.658177293576536</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>52.29466994422387</v>
+        <v>54.10604250785805</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.07957870064722</v>
+        <v>58.30295679665291</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>11.69646230306564</v>
+        <v>10.58991528122777</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.88577873024432</v>
+        <v>34.4531377934119</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.30901739938022</v>
+        <v>42.91734650015472</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.459150840226631</v>
+        <v>2.48833526818462</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.32415453439363</v>
+        <v>39.6251500864384</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.81911896171253</v>
+        <v>46.52057541971475</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>7.149008237566893</v>
+        <v>4.323062731265061</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.69258377721077</v>
+        <v>61.43309773746225</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>68.48045258771502</v>
+        <v>74.63779814398315</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>69.12395249313366</v>
+        <v>72.14768040043356</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>74.16731307048406</v>
+        <v>78.87875612460613</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>81.21316149222764</v>
+        <v>89.53691482232412</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>9.857286233797993</v>
+        <v>8.00939126619976</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>65.73312499179454</v>
+        <v>66.98554972881057</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>74.56242951118702</v>
+        <v>77.17670323274483</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>52.80812850727022</v>
+        <v>56.91564764062875</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.76651605746447</v>
+        <v>29.78150181742856</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.14595587703569</v>
+        <v>37.24517509130911</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.08077781142498</v>
+        <v>46.64626556412027</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.777364735037867</v>
+        <v>6.81353887295576</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.6685631482889</v>
+        <v>46.32237884051925</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>52.11698681070614</v>
+        <v>54.52336649135171</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.885467467083576</v>
+        <v>5.856141608267706</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.72079743598618</v>
+        <v>29.82647305544161</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.40742696862427</v>
+        <v>45.4943068252709</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>4.262666006816964</v>
+        <v>0.1474871846198766</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.63186305178447</v>
+        <v>30.21371563386337</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.30224859848829</v>
+        <v>44.52278871651796</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3.816130683848623</v>
+        <v>-0.5890084116812275</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.37301451302362</v>
+        <v>45.7644805438676</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>66.68914973150271</v>
+        <v>70.74773864871827</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>48.38185007129574</v>
+        <v>52.96101814105992</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>63.26473628060327</v>
+        <v>68.99027692243195</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>80.17731597859054</v>
+        <v>84.18041348671136</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>6.669484461146222</v>
+        <v>3.1197553341425</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.87442481020086</v>
+        <v>57.326909161855</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>69.56411640675066</v>
+        <v>75.11069960564231</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.09716999390963</v>
+        <v>18.08726213807693</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.88492103099572</v>
+        <v>16.40429821336385</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.65222245122531</v>
+        <v>29.33345056895869</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>13.5176811364139</v>
+        <v>7.520087788551855</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.55506032938805</v>
+        <v>21.86835144059255</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.98624780618619</v>
+        <v>24.32513067736797</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.57721038984004</v>
+        <v>11.22964697024057</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.38353548679235</v>
+        <v>35.35879829575855</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.29154543161572</v>
+        <v>40.25387878152371</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.97786252077292</v>
+        <v>17.66665777902023</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.2243798045319</v>
+        <v>22.70562508863721</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.17191475965585</v>
+        <v>21.84985297083569</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.85615322897985</v>
+        <v>25.10873709657838</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.76578329370972</v>
+        <v>16.7900282239946</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.20587828576101</v>
+        <v>33.18145682410152</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.07578849948205</v>
+        <v>12.4600954464232</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.89955636646263</v>
+        <v>21.89179526431323</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.44715570554863</v>
+        <v>30.24347762630179</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.27033483721259</v>
+        <v>11.68593256124493</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.500941937433</v>
+        <v>17.98518520222013</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.55169435971098</v>
+        <v>19.72119316227521</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.59744673696372</v>
+        <v>4.606385002234109</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.25437759909416</v>
+        <v>20.47995626207469</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.15236363166115</v>
+        <v>22.46023465173631</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.11887921198401</v>
+        <v>26.74198492005366</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.79582939548446</v>
+        <v>33.28556656247368</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>13.52462149654521</v>
+        <v>9.293329299237925</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.21529748615924</v>
+        <v>37.31850628055422</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.53272461885935</v>
+        <v>37.19345313029292</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>16.24037845402659</v>
+        <v>13.27785209545009</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>41.83251013138756</v>
+        <v>45.96073886059949</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.72800098786043</v>
+        <v>47.21664838681842</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.60911262176266</v>
+        <v>49.97069186598002</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>46.12465074769681</v>
+        <v>55.47612901321875</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.42026057023386</v>
+        <v>54.39388498660925</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.92227316635454</v>
+        <v>35.66883958525408</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.34249069970801</v>
+        <v>49.91313821715042</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.62894182832813</v>
+        <v>55.50005688770028</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>22.43697369111158</v>
+        <v>18.30502174286431</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.45026825075601</v>
+        <v>30.16876954660738</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.25706180420991</v>
+        <v>33.73361298567225</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>15.8804945229311</v>
+        <v>13.95203233960083</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.99525180567479</v>
+        <v>33.46245558708394</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.80419259369767</v>
+        <v>37.258314653812</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>13.47382939500017</v>
+        <v>8.714217786233078</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>39.42208789299184</v>
+        <v>44.44234728350591</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.25760418174849</v>
+        <v>9.847778045447138</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>24.07575042953112</v>
+        <v>19.30954833241546</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.22649523533929</v>
+        <v>29.29265167233439</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>12.58653444712765</v>
+        <v>5.386863486868418</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.04726492346187</v>
+        <v>34.93254703657656</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.03021166505301</v>
+        <v>36.81741631544119</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>15.77151114691636</v>
+        <v>11.30530480259435</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>41.32183504793306</v>
+        <v>45.80406056085624</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.22528338007871</v>
+        <v>51.7489502429329</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.27337618549894</v>
+        <v>52.44724802415418</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.14488166562916</v>
+        <v>57.31182838101204</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>49.04357445229235</v>
+        <v>57.34479021034269</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>20.0927214956585</v>
+        <v>14.72536365148824</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.70925121594143</v>
+        <v>40.00195333643633</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>40.91024048620466</v>
+        <v>47.55740052791183</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>18.49373567496567</v>
+        <v>13.91527880252014</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.62039560955838</v>
+        <v>27.7745711340445</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.96073158461348</v>
+        <v>32.79983131179838</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>15.73401248338098</v>
+        <v>11.60125761818969</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.84264181237779</v>
+        <v>27.6214553606257</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.66980064391109</v>
+        <v>36.10385805955347</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>14.38513636725303</v>
+        <v>6.882825069018168</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>37.19135521778799</v>
+        <v>38.24851314464929</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>14.31117775633672</v>
+        <v>5.45410459231827</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>18.77973141403444</v>
+        <v>12.54306879318528</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.08311691641511</v>
+        <v>26.70647814328454</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>12.53957604436961</v>
+        <v>4.671768013554022</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.13813837943142</v>
+        <v>31.86795089202047</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.90583870985575</v>
+        <v>37.14568191426739</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>12.75403143251501</v>
+        <v>5.297227856827117</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.09588708250609</v>
+        <v>39.97139483184416</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.870643082897</v>
+        <v>48.85074091199579</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>37.57952159976708</v>
+        <v>42.31025515352373</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.91763043791349</v>
+        <v>46.39984379145891</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.64299962818306</v>
+        <v>50.28675977401128</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.5634087121803</v>
+        <v>9.026942819627983</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.59527461334903</v>
+        <v>27.64899439265356</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.86944887628065</v>
+        <v>45.03404012139768</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.28039145504666</v>
+        <v>7.762986096617642</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.84944447164295</v>
+        <v>23.82389323640153</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.54302410457635</v>
+        <v>33.11298622323386</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>15.81672894438718</v>
+        <v>11.95985642633606</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.22355806547053</v>
+        <v>27.32330323572993</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>32.76845566079465</v>
+        <v>38.50342184795895</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.24391742946552</v>
+        <v>5.190076226156052</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.50677248819122</v>
+        <v>33.40376764649312</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.33614214101669</v>
+        <v>24.93916819512666</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.68903794473735</v>
+        <v>20.49652377077599</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.19260309991846</v>
+        <v>32.52006195824637</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>33.1813168325954</v>
+        <v>34.45601574611763</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>15.62155743813909</v>
+        <v>10.58865503921388</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>20.63953956804419</v>
+        <v>16.62567482587956</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.81347956246127</v>
+        <v>23.76336476734936</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.13009314408291</v>
+        <v>14.83755627162619</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.00041592294149</v>
+        <v>23.09398732578143</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.34501945064178</v>
+        <v>33.58121483876778</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.09025245897424</v>
+        <v>9.775090440423766</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>19.31237451299071</v>
+        <v>18.53591774260095</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.94629273496192</v>
+        <v>22.09792105530738</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.06614813484188</v>
+        <v>5.913575416724392</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.7599100716258</v>
+        <v>25.73856432556371</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.20583013907146</v>
+        <v>37.1651626341595</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.60583115382937</v>
+        <v>24.59264234146923</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.88728894194297</v>
+        <v>39.79179766275874</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>39.26853359731572</v>
+        <v>44.96243042826894</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>15.60056435552795</v>
+        <v>10.70251264899941</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.16778598600475</v>
+        <v>21.80022957090796</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.05679514326127</v>
+        <v>31.56462677673395</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>43.41269010110221</v>
+        <v>50.69910606078548</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.42258551084252</v>
+        <v>46.874955033109</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>46.98475208563362</v>
+        <v>54.84593248597425</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>46.46349008921779</v>
+        <v>56.20535897163681</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.09000053761334</v>
+        <v>22.79122810238118</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>44.14163025197772</v>
+        <v>53.79044888656669</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>46.10078641847205</v>
+        <v>55.48583545685323</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.15580590254327</v>
+        <v>24.96988970853461</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.67271121717054</v>
+        <v>37.32224877393821</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.40223217282007</v>
+        <v>43.32356880117268</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.85479394644855</v>
+        <v>16.92178765359681</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.67954176472708</v>
+        <v>42.81738874139295</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.23892109580125</v>
+        <v>45.94587775691357</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>16.15685089643208</v>
+        <v>13.59256030130765</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.15119832427148</v>
+        <v>60.66161258864204</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.02870661844354</v>
+        <v>65.63518513738873</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>56.1293887839326</v>
+        <v>71.37158455602247</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>59.30726354997795</v>
+        <v>75.44303293522259</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>61.33845974142326</v>
+        <v>80.20859853166021</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.76533979803829</v>
+        <v>35.05631198644233</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>56.45572139642792</v>
+        <v>71.90009839098272</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.34491736161715</v>
+        <v>75.9468581269293</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.88351903046276</v>
+        <v>53.33073957709726</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.28758913415338</v>
+        <v>37.56903806131169</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>40.90033378719174</v>
+        <v>45.116423230226</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.45418123764875</v>
+        <v>55.41675582265898</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.50613895299647</v>
+        <v>14.56202392690195</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.73480302599174</v>
+        <v>47.65528414984623</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.19378164749443</v>
+        <v>53.43685575335836</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>21.15794095344987</v>
+        <v>18.1122445112015</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.82542890651424</v>
+        <v>33.69372097510599</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.72827272159547</v>
+        <v>41.70961478912843</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.1413556622372</v>
+        <v>14.88537220408788</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>36.30808537714213</v>
+        <v>42.75215745822007</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>39.60719660199432</v>
+        <v>47.2544536776918</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.9048529316434</v>
+        <v>11.01619781420762</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>48.46646604826253</v>
+        <v>59.11166743986865</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>55.17235465459062</v>
+        <v>68.46916922658794</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>55.15332743488121</v>
+        <v>67.10442790190227</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>57.92519228852085</v>
+        <v>71.74661493295599</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>63.70934075041072</v>
+        <v>82.82998954089796</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.06095479066797</v>
+        <v>23.72383292339357</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>53.70250838071237</v>
+        <v>65.47268728295188</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>59.53436412181745</v>
+        <v>74.01233323460809</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>42.95717392678245</v>
+        <v>50.48248581961194</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.42282343470447</v>
+        <v>23.26775477976962</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.02278179761107</v>
+        <v>29.92654309555576</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.7398601472466</v>
+        <v>41.08820892808082</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.84854606670995</v>
+        <v>9.897763354434552</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.35738720418833</v>
+        <v>39.99850494298934</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>42.83095490655533</v>
+        <v>49.03395925765399</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.74386853348138</v>
+        <v>12.74393225345946</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.49761432089464</v>
+        <v>32.86460045922352</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.11374940493405</v>
+        <v>44.44865651979489</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>16.47428177113802</v>
+        <v>14.34091079872185</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.69433776335316</v>
+        <v>39.97860383464402</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.61902580512396</v>
+        <v>48.39774147531724</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>12.64533875094201</v>
+        <v>7.718346871524687</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>43.39880276319101</v>
+        <v>51.23569944844097</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.17050238072122</v>
+        <v>66.81082550664027</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.5497279807756</v>
+        <v>55.81320012377422</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.27963475791977</v>
+        <v>63.63378712794854</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>62.12268293068072</v>
+        <v>79.71127033694015</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.77032663635774</v>
+        <v>14.78712401523781</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>46.39657582930373</v>
+        <v>57.10288501748605</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>57.6024267110778</v>
+        <v>71.48077366351784</v>
       </c>
     </row>
   </sheetData>
